--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard\Sites\NeuralNets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard\Sites\nn\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508"/>
   </bookViews>
   <sheets>
-    <sheet name="More layers and neurons" sheetId="2" r:id="rId1"/>
-    <sheet name="3 layers 6 neurons" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="More layers and neurons" sheetId="2" r:id="rId2"/>
+    <sheet name="3 layers 6 neurons" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
   <si>
     <t>Pnt Xover</t>
   </si>
@@ -104,11 +105,47 @@
   <si>
     <t>3 Lay, 6 Nrns, 1%, -1to1, Avg</t>
   </si>
+  <si>
+    <t>8 layers</t>
+  </si>
+  <si>
+    <t>8 neurons</t>
+  </si>
+  <si>
+    <t>2 layers</t>
+  </si>
+  <si>
+    <t>4 neurons</t>
+  </si>
+  <si>
+    <t>Mut: 1%, xover 50%, using -1 to 1 weights</t>
+  </si>
+  <si>
+    <t>Mut: 1%, xover 90%, using -1 to 1 weights</t>
+  </si>
+  <si>
+    <t>Mut = flip sign</t>
+  </si>
+  <si>
+    <t>Worse than col N…</t>
+  </si>
+  <si>
+    <t>Mut: .5%, xover 70%, using -1 to 1 weights</t>
+  </si>
+  <si>
+    <t>Lower mut rate = lower perf with sign flip</t>
+  </si>
+  <si>
+    <t>Not much improvement over 1% rate…</t>
+  </si>
+  <si>
+    <t>Sum Xover</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,7 +195,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -172,6 +209,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -393,7 +431,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E6FA-47C5-B5C4-36CA494B5A02}"/>
             </c:ext>
@@ -585,7 +623,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E6FA-47C5-B5C4-36CA494B5A02}"/>
             </c:ext>
@@ -777,7 +815,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E6FA-47C5-B5C4-36CA494B5A02}"/>
             </c:ext>
@@ -969,7 +1007,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E6FA-47C5-B5C4-36CA494B5A02}"/>
             </c:ext>
@@ -1161,7 +1199,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-E6FA-47C5-B5C4-36CA494B5A02}"/>
             </c:ext>
@@ -1353,7 +1391,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-E6FA-47C5-B5C4-36CA494B5A02}"/>
             </c:ext>
@@ -1547,7 +1585,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-E6FA-47C5-B5C4-36CA494B5A02}"/>
             </c:ext>
@@ -1891,7 +1929,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-E6FA-47C5-B5C4-36CA494B5A02}"/>
             </c:ext>
@@ -2235,7 +2273,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-E6FA-47C5-B5C4-36CA494B5A02}"/>
             </c:ext>
@@ -2250,11 +2288,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="460303776"/>
-        <c:axId val="460300168"/>
+        <c:axId val="876927840"/>
+        <c:axId val="876928232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="460303776"/>
+        <c:axId val="876927840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2296,7 +2334,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460300168"/>
+        <c:crossAx val="876928232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2304,7 +2342,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="460300168"/>
+        <c:axId val="876928232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2355,7 +2393,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460303776"/>
+        <c:crossAx val="876927840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2369,6 +2407,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2436,7 +2475,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2630,7 +2669,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1EBD-491F-BA41-3FD02584A0FA}"/>
             </c:ext>
@@ -2751,7 +2790,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1EBD-491F-BA41-3FD02584A0FA}"/>
             </c:ext>
@@ -2766,11 +2805,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="459977728"/>
-        <c:axId val="310701912"/>
+        <c:axId val="876929408"/>
+        <c:axId val="876917648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="459977728"/>
+        <c:axId val="876929408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2812,7 +2851,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310701912"/>
+        <c:crossAx val="876917648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2820,7 +2859,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="310701912"/>
+        <c:axId val="876917648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2871,7 +2910,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459977728"/>
+        <c:crossAx val="876929408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2952,7 +2991,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3116,7 +3155,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6328-40F0-8BEA-6EA071C0A170}"/>
             </c:ext>
@@ -3237,7 +3276,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6328-40F0-8BEA-6EA071C0A170}"/>
             </c:ext>
@@ -3252,11 +3291,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="632455040"/>
-        <c:axId val="632455368"/>
+        <c:axId val="876939992"/>
+        <c:axId val="876933720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="632455040"/>
+        <c:axId val="876939992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3298,7 +3337,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632455368"/>
+        <c:crossAx val="876933720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3306,7 +3345,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="632455368"/>
+        <c:axId val="876933720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3357,7 +3396,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632455040"/>
+        <c:crossAx val="876939992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3438,7 +3477,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3613,7 +3652,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3352-468E-82AF-D3992A85BE5D}"/>
             </c:ext>
@@ -3745,7 +3784,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3352-468E-82AF-D3992A85BE5D}"/>
             </c:ext>
@@ -3877,7 +3916,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3352-468E-82AF-D3992A85BE5D}"/>
             </c:ext>
@@ -4009,7 +4048,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-3352-468E-82AF-D3992A85BE5D}"/>
             </c:ext>
@@ -4201,7 +4240,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-3352-468E-82AF-D3992A85BE5D}"/>
             </c:ext>
@@ -4393,7 +4432,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-3352-468E-82AF-D3992A85BE5D}"/>
             </c:ext>
@@ -4587,7 +4626,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-3352-468E-82AF-D3992A85BE5D}"/>
             </c:ext>
@@ -4781,7 +4820,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-3352-468E-82AF-D3992A85BE5D}"/>
             </c:ext>
@@ -5125,7 +5164,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-3352-468E-82AF-D3992A85BE5D}"/>
             </c:ext>
@@ -5469,7 +5508,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-3352-468E-82AF-D3992A85BE5D}"/>
             </c:ext>
@@ -5484,11 +5523,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="454957696"/>
-        <c:axId val="454958024"/>
+        <c:axId val="876941168"/>
+        <c:axId val="876932544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="454957696"/>
+        <c:axId val="876941168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5530,7 +5569,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454958024"/>
+        <c:crossAx val="876932544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5538,7 +5577,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="454958024"/>
+        <c:axId val="876932544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5589,7 +5628,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454957696"/>
+        <c:crossAx val="876941168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7913,7 +7952,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F9D750E-EDF1-437F-82E2-A651B7C726A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F9D750E-EDF1-437F-82E2-A651B7C726A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7954,7 +7993,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C5FA76-4716-46CF-A386-97C83E70700A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C5FA76-4716-46CF-A386-97C83E70700A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7990,7 +8029,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E242ABE2-DF26-4730-B37A-F8EA8C4059CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E242ABE2-DF26-4730-B37A-F8EA8C4059CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8026,7 +8065,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5840B41-17D0-4972-AA5C-E1F29FD09A19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C5840B41-17D0-4972-AA5C-E1F29FD09A19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8344,10 +8383,4876 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW103"/>
+  <dimension ref="A1:AM61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <pane ySplit="5" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J58" sqref="J58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AC4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>0</v>
+      </c>
+      <c r="U5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>8</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>7</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>8</v>
+      </c>
+      <c r="W6">
+        <v>3</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>4</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>5</v>
+      </c>
+      <c r="AE6">
+        <v>2</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>5</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>4</v>
+      </c>
+      <c r="AM6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>8</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>7</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>7</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>6</v>
+      </c>
+      <c r="AA7">
+        <v>2</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>3</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>6</v>
+      </c>
+      <c r="AI7">
+        <v>3</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>3</v>
+      </c>
+      <c r="AM7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>12</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>13</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8">
+        <v>8</v>
+      </c>
+      <c r="W8">
+        <v>3</v>
+      </c>
+      <c r="Y8">
+        <v>2</v>
+      </c>
+      <c r="Z8">
+        <v>8</v>
+      </c>
+      <c r="AA8">
+        <v>3</v>
+      </c>
+      <c r="AC8">
+        <v>2</v>
+      </c>
+      <c r="AD8">
+        <v>6</v>
+      </c>
+      <c r="AE8">
+        <v>3</v>
+      </c>
+      <c r="AG8">
+        <v>2</v>
+      </c>
+      <c r="AH8">
+        <v>12</v>
+      </c>
+      <c r="AI8">
+        <v>3</v>
+      </c>
+      <c r="AK8">
+        <v>2</v>
+      </c>
+      <c r="AL8">
+        <v>12</v>
+      </c>
+      <c r="AM8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>18</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>15</v>
+      </c>
+      <c r="S9">
+        <v>6</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>21</v>
+      </c>
+      <c r="W9">
+        <v>4</v>
+      </c>
+      <c r="Y9">
+        <v>3</v>
+      </c>
+      <c r="Z9">
+        <v>16</v>
+      </c>
+      <c r="AA9">
+        <v>3</v>
+      </c>
+      <c r="AC9">
+        <v>3</v>
+      </c>
+      <c r="AD9">
+        <v>13</v>
+      </c>
+      <c r="AE9">
+        <v>3</v>
+      </c>
+      <c r="AG9">
+        <v>3</v>
+      </c>
+      <c r="AH9">
+        <v>10</v>
+      </c>
+      <c r="AI9">
+        <v>3</v>
+      </c>
+      <c r="AK9">
+        <v>3</v>
+      </c>
+      <c r="AL9">
+        <v>12</v>
+      </c>
+      <c r="AM9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>26</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>42</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>9</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>4</v>
+      </c>
+      <c r="R10">
+        <v>17</v>
+      </c>
+      <c r="S10">
+        <v>4</v>
+      </c>
+      <c r="U10">
+        <v>4</v>
+      </c>
+      <c r="V10">
+        <v>26</v>
+      </c>
+      <c r="W10">
+        <v>4</v>
+      </c>
+      <c r="Y10">
+        <v>4</v>
+      </c>
+      <c r="Z10">
+        <v>28</v>
+      </c>
+      <c r="AA10">
+        <v>3</v>
+      </c>
+      <c r="AC10">
+        <v>4</v>
+      </c>
+      <c r="AD10">
+        <v>4</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <v>4</v>
+      </c>
+      <c r="AH10">
+        <v>11</v>
+      </c>
+      <c r="AI10">
+        <v>2</v>
+      </c>
+      <c r="AK10">
+        <v>4</v>
+      </c>
+      <c r="AL10">
+        <v>5</v>
+      </c>
+      <c r="AM10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>29</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>36</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>23</v>
+      </c>
+      <c r="O11">
+        <v>4</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>17</v>
+      </c>
+      <c r="S11">
+        <v>3</v>
+      </c>
+      <c r="U11">
+        <v>5</v>
+      </c>
+      <c r="V11">
+        <v>15</v>
+      </c>
+      <c r="W11">
+        <v>5</v>
+      </c>
+      <c r="Y11">
+        <v>5</v>
+      </c>
+      <c r="Z11">
+        <v>14</v>
+      </c>
+      <c r="AA11">
+        <v>3</v>
+      </c>
+      <c r="AC11">
+        <v>5</v>
+      </c>
+      <c r="AD11">
+        <v>7</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>5</v>
+      </c>
+      <c r="AH11">
+        <v>8</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>5</v>
+      </c>
+      <c r="AL11">
+        <v>11</v>
+      </c>
+      <c r="AM11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>35</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>46</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>6</v>
+      </c>
+      <c r="N12">
+        <v>21</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <v>6</v>
+      </c>
+      <c r="R12">
+        <v>16</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <v>6</v>
+      </c>
+      <c r="V12">
+        <v>14</v>
+      </c>
+      <c r="W12">
+        <v>2</v>
+      </c>
+      <c r="Y12">
+        <v>6</v>
+      </c>
+      <c r="Z12">
+        <v>10</v>
+      </c>
+      <c r="AA12">
+        <v>2</v>
+      </c>
+      <c r="AC12">
+        <v>6</v>
+      </c>
+      <c r="AD12">
+        <v>4</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>6</v>
+      </c>
+      <c r="AH12">
+        <v>7</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
+      </c>
+      <c r="AK12">
+        <v>6</v>
+      </c>
+      <c r="AL12">
+        <v>17</v>
+      </c>
+      <c r="AM12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>41</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <v>47</v>
+      </c>
+      <c r="K13">
+        <v>6</v>
+      </c>
+      <c r="M13">
+        <v>7</v>
+      </c>
+      <c r="N13">
+        <v>21</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <v>7</v>
+      </c>
+      <c r="R13">
+        <v>16</v>
+      </c>
+      <c r="S13">
+        <v>5</v>
+      </c>
+      <c r="U13">
+        <v>7</v>
+      </c>
+      <c r="V13">
+        <v>19</v>
+      </c>
+      <c r="W13">
+        <v>4</v>
+      </c>
+      <c r="Y13">
+        <v>7</v>
+      </c>
+      <c r="Z13">
+        <v>3</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <v>7</v>
+      </c>
+      <c r="AD13">
+        <v>6</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AG13">
+        <v>7</v>
+      </c>
+      <c r="AH13">
+        <v>8</v>
+      </c>
+      <c r="AI13">
+        <v>2</v>
+      </c>
+      <c r="AK13">
+        <v>7</v>
+      </c>
+      <c r="AL13">
+        <v>17</v>
+      </c>
+      <c r="AM13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>39</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>44</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>8</v>
+      </c>
+      <c r="N14">
+        <v>24</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <v>8</v>
+      </c>
+      <c r="R14">
+        <v>21</v>
+      </c>
+      <c r="S14">
+        <v>3</v>
+      </c>
+      <c r="U14">
+        <v>8</v>
+      </c>
+      <c r="V14">
+        <v>23</v>
+      </c>
+      <c r="W14">
+        <v>4</v>
+      </c>
+      <c r="Y14">
+        <v>8</v>
+      </c>
+      <c r="Z14">
+        <v>12</v>
+      </c>
+      <c r="AA14">
+        <v>3</v>
+      </c>
+      <c r="AC14">
+        <v>8</v>
+      </c>
+      <c r="AD14">
+        <v>28</v>
+      </c>
+      <c r="AE14">
+        <v>3</v>
+      </c>
+      <c r="AG14">
+        <v>8</v>
+      </c>
+      <c r="AH14">
+        <v>16</v>
+      </c>
+      <c r="AI14">
+        <v>2</v>
+      </c>
+      <c r="AK14">
+        <v>8</v>
+      </c>
+      <c r="AL14">
+        <v>16</v>
+      </c>
+      <c r="AM14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>32</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+      <c r="J15">
+        <v>32</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>9</v>
+      </c>
+      <c r="N15">
+        <v>29</v>
+      </c>
+      <c r="O15">
+        <v>5</v>
+      </c>
+      <c r="Q15">
+        <v>9</v>
+      </c>
+      <c r="R15">
+        <v>25</v>
+      </c>
+      <c r="S15">
+        <v>4</v>
+      </c>
+      <c r="U15">
+        <v>9</v>
+      </c>
+      <c r="V15">
+        <v>12</v>
+      </c>
+      <c r="W15">
+        <v>2</v>
+      </c>
+      <c r="Y15">
+        <v>9</v>
+      </c>
+      <c r="Z15">
+        <v>10</v>
+      </c>
+      <c r="AA15">
+        <v>3</v>
+      </c>
+      <c r="AC15">
+        <v>9</v>
+      </c>
+      <c r="AD15">
+        <v>12</v>
+      </c>
+      <c r="AE15">
+        <v>3</v>
+      </c>
+      <c r="AG15">
+        <v>9</v>
+      </c>
+      <c r="AH15">
+        <v>22</v>
+      </c>
+      <c r="AI15">
+        <v>3</v>
+      </c>
+      <c r="AK15">
+        <v>9</v>
+      </c>
+      <c r="AL15">
+        <v>25</v>
+      </c>
+      <c r="AM15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>24</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>41</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="M16">
+        <v>10</v>
+      </c>
+      <c r="N16">
+        <v>33</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="Q16">
+        <v>10</v>
+      </c>
+      <c r="R16">
+        <v>17</v>
+      </c>
+      <c r="S16">
+        <v>3</v>
+      </c>
+      <c r="U16">
+        <v>10</v>
+      </c>
+      <c r="V16">
+        <v>12</v>
+      </c>
+      <c r="W16">
+        <v>3</v>
+      </c>
+      <c r="Y16">
+        <v>10</v>
+      </c>
+      <c r="Z16">
+        <v>10</v>
+      </c>
+      <c r="AA16">
+        <v>2</v>
+      </c>
+      <c r="AC16">
+        <v>10</v>
+      </c>
+      <c r="AD16">
+        <v>17</v>
+      </c>
+      <c r="AE16">
+        <v>3</v>
+      </c>
+      <c r="AG16">
+        <v>10</v>
+      </c>
+      <c r="AH16">
+        <v>15</v>
+      </c>
+      <c r="AI16">
+        <v>3</v>
+      </c>
+      <c r="AK16">
+        <v>10</v>
+      </c>
+      <c r="AL16">
+        <v>16</v>
+      </c>
+      <c r="AM16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>33</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>11</v>
+      </c>
+      <c r="J17">
+        <v>41</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>11</v>
+      </c>
+      <c r="N17">
+        <v>26</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="Q17">
+        <v>11</v>
+      </c>
+      <c r="R17">
+        <v>12</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>11</v>
+      </c>
+      <c r="V17">
+        <v>22</v>
+      </c>
+      <c r="W17">
+        <v>3</v>
+      </c>
+      <c r="Y17">
+        <v>11</v>
+      </c>
+      <c r="Z17">
+        <v>5</v>
+      </c>
+      <c r="AA17">
+        <v>2</v>
+      </c>
+      <c r="AC17">
+        <v>11</v>
+      </c>
+      <c r="AD17">
+        <v>18</v>
+      </c>
+      <c r="AE17">
+        <v>3</v>
+      </c>
+      <c r="AG17">
+        <v>11</v>
+      </c>
+      <c r="AH17">
+        <v>16</v>
+      </c>
+      <c r="AI17">
+        <v>3</v>
+      </c>
+      <c r="AK17">
+        <v>11</v>
+      </c>
+      <c r="AL17">
+        <v>35</v>
+      </c>
+      <c r="AM17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>35</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>12</v>
+      </c>
+      <c r="J18">
+        <v>45</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <v>12</v>
+      </c>
+      <c r="N18">
+        <v>29</v>
+      </c>
+      <c r="O18">
+        <v>6</v>
+      </c>
+      <c r="Q18">
+        <v>12</v>
+      </c>
+      <c r="R18">
+        <v>17</v>
+      </c>
+      <c r="S18">
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <v>12</v>
+      </c>
+      <c r="V18">
+        <v>18</v>
+      </c>
+      <c r="W18">
+        <v>3</v>
+      </c>
+      <c r="Y18">
+        <v>12</v>
+      </c>
+      <c r="Z18">
+        <v>9</v>
+      </c>
+      <c r="AA18">
+        <v>2</v>
+      </c>
+      <c r="AC18">
+        <v>12</v>
+      </c>
+      <c r="AD18">
+        <v>20</v>
+      </c>
+      <c r="AE18">
+        <v>2</v>
+      </c>
+      <c r="AG18">
+        <v>12</v>
+      </c>
+      <c r="AH18">
+        <v>16</v>
+      </c>
+      <c r="AI18">
+        <v>3</v>
+      </c>
+      <c r="AK18">
+        <v>12</v>
+      </c>
+      <c r="AL18">
+        <v>24</v>
+      </c>
+      <c r="AM18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>13</v>
+      </c>
+      <c r="F19">
+        <v>37</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>13</v>
+      </c>
+      <c r="J19">
+        <v>45</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="M19">
+        <v>13</v>
+      </c>
+      <c r="N19">
+        <v>24</v>
+      </c>
+      <c r="O19">
+        <v>4</v>
+      </c>
+      <c r="Q19">
+        <v>13</v>
+      </c>
+      <c r="R19">
+        <v>11</v>
+      </c>
+      <c r="S19">
+        <v>2</v>
+      </c>
+      <c r="U19">
+        <v>13</v>
+      </c>
+      <c r="V19">
+        <v>22</v>
+      </c>
+      <c r="W19">
+        <v>4</v>
+      </c>
+      <c r="Y19">
+        <v>13</v>
+      </c>
+      <c r="Z19">
+        <v>10</v>
+      </c>
+      <c r="AA19">
+        <v>3</v>
+      </c>
+      <c r="AC19">
+        <v>13</v>
+      </c>
+      <c r="AD19">
+        <v>26</v>
+      </c>
+      <c r="AE19">
+        <v>3</v>
+      </c>
+      <c r="AG19">
+        <v>13</v>
+      </c>
+      <c r="AH19">
+        <v>16</v>
+      </c>
+      <c r="AI19">
+        <v>3</v>
+      </c>
+      <c r="AK19">
+        <v>13</v>
+      </c>
+      <c r="AL19">
+        <v>28</v>
+      </c>
+      <c r="AM19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>14</v>
+      </c>
+      <c r="F20">
+        <v>33</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>14</v>
+      </c>
+      <c r="J20">
+        <v>55</v>
+      </c>
+      <c r="K20">
+        <v>6</v>
+      </c>
+      <c r="M20">
+        <v>14</v>
+      </c>
+      <c r="N20">
+        <v>29</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="Q20">
+        <v>14</v>
+      </c>
+      <c r="R20">
+        <v>22</v>
+      </c>
+      <c r="S20">
+        <v>2</v>
+      </c>
+      <c r="U20">
+        <v>14</v>
+      </c>
+      <c r="V20">
+        <v>19</v>
+      </c>
+      <c r="W20">
+        <v>3</v>
+      </c>
+      <c r="Y20">
+        <v>14</v>
+      </c>
+      <c r="Z20">
+        <v>23</v>
+      </c>
+      <c r="AA20">
+        <v>3</v>
+      </c>
+      <c r="AC20">
+        <v>14</v>
+      </c>
+      <c r="AD20">
+        <v>15</v>
+      </c>
+      <c r="AE20">
+        <v>3</v>
+      </c>
+      <c r="AG20">
+        <v>14</v>
+      </c>
+      <c r="AH20">
+        <v>18</v>
+      </c>
+      <c r="AI20">
+        <v>3</v>
+      </c>
+      <c r="AK20">
+        <v>14</v>
+      </c>
+      <c r="AL20">
+        <v>20</v>
+      </c>
+      <c r="AM20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>27</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>15</v>
+      </c>
+      <c r="J21">
+        <v>72</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="M21">
+        <v>15</v>
+      </c>
+      <c r="N21">
+        <v>24</v>
+      </c>
+      <c r="O21">
+        <v>3</v>
+      </c>
+      <c r="Q21">
+        <v>15</v>
+      </c>
+      <c r="R21">
+        <v>27</v>
+      </c>
+      <c r="S21">
+        <v>4</v>
+      </c>
+      <c r="U21">
+        <v>15</v>
+      </c>
+      <c r="V21">
+        <v>21</v>
+      </c>
+      <c r="W21">
+        <v>3</v>
+      </c>
+      <c r="Y21">
+        <v>15</v>
+      </c>
+      <c r="Z21">
+        <v>12</v>
+      </c>
+      <c r="AA21">
+        <v>2</v>
+      </c>
+      <c r="AC21">
+        <v>15</v>
+      </c>
+      <c r="AD21">
+        <v>19</v>
+      </c>
+      <c r="AE21">
+        <v>3</v>
+      </c>
+      <c r="AG21">
+        <v>15</v>
+      </c>
+      <c r="AH21">
+        <v>12</v>
+      </c>
+      <c r="AI21">
+        <v>1</v>
+      </c>
+      <c r="AK21">
+        <v>15</v>
+      </c>
+      <c r="AL21">
+        <v>24</v>
+      </c>
+      <c r="AM21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>34</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>16</v>
+      </c>
+      <c r="F22">
+        <v>33</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>16</v>
+      </c>
+      <c r="J22">
+        <v>52</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <v>16</v>
+      </c>
+      <c r="N22">
+        <v>26</v>
+      </c>
+      <c r="O22">
+        <v>3</v>
+      </c>
+      <c r="Q22">
+        <v>16</v>
+      </c>
+      <c r="R22">
+        <v>15</v>
+      </c>
+      <c r="S22">
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <v>16</v>
+      </c>
+      <c r="V22">
+        <v>17</v>
+      </c>
+      <c r="W22">
+        <v>2</v>
+      </c>
+      <c r="Y22">
+        <v>16</v>
+      </c>
+      <c r="Z22">
+        <v>20</v>
+      </c>
+      <c r="AA22">
+        <v>3</v>
+      </c>
+      <c r="AC22">
+        <v>16</v>
+      </c>
+      <c r="AD22">
+        <v>18</v>
+      </c>
+      <c r="AE22">
+        <v>4</v>
+      </c>
+      <c r="AG22">
+        <v>16</v>
+      </c>
+      <c r="AH22">
+        <v>14</v>
+      </c>
+      <c r="AI22">
+        <v>2</v>
+      </c>
+      <c r="AK22">
+        <v>16</v>
+      </c>
+      <c r="AL22">
+        <v>29</v>
+      </c>
+      <c r="AM22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>17</v>
+      </c>
+      <c r="F23">
+        <v>19</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>17</v>
+      </c>
+      <c r="J23">
+        <v>44</v>
+      </c>
+      <c r="K23">
+        <v>9</v>
+      </c>
+      <c r="M23">
+        <v>17</v>
+      </c>
+      <c r="N23">
+        <v>28</v>
+      </c>
+      <c r="O23">
+        <v>4</v>
+      </c>
+      <c r="Q23">
+        <v>17</v>
+      </c>
+      <c r="R23">
+        <v>30</v>
+      </c>
+      <c r="S23">
+        <v>3</v>
+      </c>
+      <c r="U23">
+        <v>17</v>
+      </c>
+      <c r="V23">
+        <v>12</v>
+      </c>
+      <c r="W23">
+        <v>2</v>
+      </c>
+      <c r="Y23">
+        <v>17</v>
+      </c>
+      <c r="Z23">
+        <v>16</v>
+      </c>
+      <c r="AA23">
+        <v>3</v>
+      </c>
+      <c r="AC23">
+        <v>17</v>
+      </c>
+      <c r="AD23">
+        <v>19</v>
+      </c>
+      <c r="AE23">
+        <v>3</v>
+      </c>
+      <c r="AG23">
+        <v>17</v>
+      </c>
+      <c r="AH23">
+        <v>16</v>
+      </c>
+      <c r="AI23">
+        <v>3</v>
+      </c>
+      <c r="AK23">
+        <v>17</v>
+      </c>
+      <c r="AL23">
+        <v>27</v>
+      </c>
+      <c r="AM23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>18</v>
+      </c>
+      <c r="F24">
+        <v>34</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>18</v>
+      </c>
+      <c r="J24">
+        <v>36</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <v>18</v>
+      </c>
+      <c r="N24">
+        <v>28</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="Q24">
+        <v>18</v>
+      </c>
+      <c r="R24">
+        <v>21</v>
+      </c>
+      <c r="S24">
+        <v>4</v>
+      </c>
+      <c r="U24">
+        <v>18</v>
+      </c>
+      <c r="V24">
+        <v>22</v>
+      </c>
+      <c r="W24">
+        <v>3</v>
+      </c>
+      <c r="Y24">
+        <v>18</v>
+      </c>
+      <c r="Z24">
+        <v>28</v>
+      </c>
+      <c r="AA24">
+        <v>3</v>
+      </c>
+      <c r="AC24">
+        <v>18</v>
+      </c>
+      <c r="AD24">
+        <v>20</v>
+      </c>
+      <c r="AE24">
+        <v>2</v>
+      </c>
+      <c r="AG24">
+        <v>18</v>
+      </c>
+      <c r="AH24">
+        <v>16</v>
+      </c>
+      <c r="AI24">
+        <v>2</v>
+      </c>
+      <c r="AK24">
+        <v>18</v>
+      </c>
+      <c r="AL24">
+        <v>24</v>
+      </c>
+      <c r="AM24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>19</v>
+      </c>
+      <c r="F25">
+        <v>39</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>19</v>
+      </c>
+      <c r="J25">
+        <v>40</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <v>19</v>
+      </c>
+      <c r="N25">
+        <v>36</v>
+      </c>
+      <c r="O25">
+        <v>3</v>
+      </c>
+      <c r="Q25">
+        <v>19</v>
+      </c>
+      <c r="R25">
+        <v>17</v>
+      </c>
+      <c r="S25">
+        <v>4</v>
+      </c>
+      <c r="U25">
+        <v>19</v>
+      </c>
+      <c r="V25">
+        <v>20</v>
+      </c>
+      <c r="W25">
+        <v>3</v>
+      </c>
+      <c r="Y25">
+        <v>19</v>
+      </c>
+      <c r="Z25">
+        <v>23</v>
+      </c>
+      <c r="AA25">
+        <v>3</v>
+      </c>
+      <c r="AC25">
+        <v>19</v>
+      </c>
+      <c r="AD25">
+        <v>25</v>
+      </c>
+      <c r="AE25">
+        <v>4</v>
+      </c>
+      <c r="AG25">
+        <v>19</v>
+      </c>
+      <c r="AH25">
+        <v>16</v>
+      </c>
+      <c r="AI25">
+        <v>2</v>
+      </c>
+      <c r="AK25">
+        <v>19</v>
+      </c>
+      <c r="AL25">
+        <v>21</v>
+      </c>
+      <c r="AM25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>18</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <v>31</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>20</v>
+      </c>
+      <c r="J26">
+        <v>51</v>
+      </c>
+      <c r="K26">
+        <v>5</v>
+      </c>
+      <c r="M26">
+        <v>20</v>
+      </c>
+      <c r="N26">
+        <v>26</v>
+      </c>
+      <c r="O26">
+        <v>3</v>
+      </c>
+      <c r="Q26">
+        <v>20</v>
+      </c>
+      <c r="R26">
+        <v>13</v>
+      </c>
+      <c r="S26">
+        <v>4</v>
+      </c>
+      <c r="U26">
+        <v>20</v>
+      </c>
+      <c r="V26">
+        <v>16</v>
+      </c>
+      <c r="W26">
+        <v>2</v>
+      </c>
+      <c r="Y26">
+        <v>20</v>
+      </c>
+      <c r="Z26">
+        <v>27</v>
+      </c>
+      <c r="AA26">
+        <v>2</v>
+      </c>
+      <c r="AC26">
+        <v>20</v>
+      </c>
+      <c r="AD26">
+        <v>29</v>
+      </c>
+      <c r="AE26">
+        <v>4</v>
+      </c>
+      <c r="AG26">
+        <v>20</v>
+      </c>
+      <c r="AH26">
+        <v>10</v>
+      </c>
+      <c r="AI26">
+        <v>3</v>
+      </c>
+      <c r="AK26">
+        <v>20</v>
+      </c>
+      <c r="AL26">
+        <v>25</v>
+      </c>
+      <c r="AM26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>21</v>
+      </c>
+      <c r="F27">
+        <v>43</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+      <c r="I27">
+        <v>21</v>
+      </c>
+      <c r="J27">
+        <v>47</v>
+      </c>
+      <c r="K27">
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <v>21</v>
+      </c>
+      <c r="N27">
+        <v>27</v>
+      </c>
+      <c r="O27">
+        <v>3</v>
+      </c>
+      <c r="Q27">
+        <v>21</v>
+      </c>
+      <c r="R27">
+        <v>27</v>
+      </c>
+      <c r="S27">
+        <v>3</v>
+      </c>
+      <c r="U27">
+        <v>21</v>
+      </c>
+      <c r="V27">
+        <v>22</v>
+      </c>
+      <c r="W27">
+        <v>3</v>
+      </c>
+      <c r="Y27">
+        <v>21</v>
+      </c>
+      <c r="Z27">
+        <v>26</v>
+      </c>
+      <c r="AA27">
+        <v>3</v>
+      </c>
+      <c r="AC27">
+        <v>21</v>
+      </c>
+      <c r="AD27">
+        <v>25</v>
+      </c>
+      <c r="AE27">
+        <v>3</v>
+      </c>
+      <c r="AG27">
+        <v>21</v>
+      </c>
+      <c r="AH27">
+        <v>18</v>
+      </c>
+      <c r="AI27">
+        <v>3</v>
+      </c>
+      <c r="AK27">
+        <v>21</v>
+      </c>
+      <c r="AL27">
+        <v>21</v>
+      </c>
+      <c r="AM27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>17</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>22</v>
+      </c>
+      <c r="F28">
+        <v>40</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <v>22</v>
+      </c>
+      <c r="J28">
+        <v>45</v>
+      </c>
+      <c r="K28">
+        <v>7</v>
+      </c>
+      <c r="M28">
+        <v>22</v>
+      </c>
+      <c r="N28">
+        <v>31</v>
+      </c>
+      <c r="O28">
+        <v>4</v>
+      </c>
+      <c r="Q28">
+        <v>22</v>
+      </c>
+      <c r="R28">
+        <v>24</v>
+      </c>
+      <c r="S28">
+        <v>3</v>
+      </c>
+      <c r="U28">
+        <v>22</v>
+      </c>
+      <c r="V28">
+        <v>19</v>
+      </c>
+      <c r="W28">
+        <v>3</v>
+      </c>
+      <c r="Y28">
+        <v>22</v>
+      </c>
+      <c r="Z28">
+        <v>31</v>
+      </c>
+      <c r="AA28">
+        <v>3</v>
+      </c>
+      <c r="AC28">
+        <v>22</v>
+      </c>
+      <c r="AD28">
+        <v>16</v>
+      </c>
+      <c r="AE28">
+        <v>3</v>
+      </c>
+      <c r="AG28">
+        <v>22</v>
+      </c>
+      <c r="AH28">
+        <v>17</v>
+      </c>
+      <c r="AI28">
+        <v>6</v>
+      </c>
+      <c r="AK28">
+        <v>22</v>
+      </c>
+      <c r="AL28">
+        <v>26</v>
+      </c>
+      <c r="AM28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>23</v>
+      </c>
+      <c r="F29">
+        <v>48</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>23</v>
+      </c>
+      <c r="J29">
+        <v>36</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="M29">
+        <v>23</v>
+      </c>
+      <c r="N29">
+        <v>26</v>
+      </c>
+      <c r="O29">
+        <v>3</v>
+      </c>
+      <c r="Q29">
+        <v>23</v>
+      </c>
+      <c r="R29">
+        <v>19</v>
+      </c>
+      <c r="S29">
+        <v>3</v>
+      </c>
+      <c r="U29">
+        <v>23</v>
+      </c>
+      <c r="V29">
+        <v>13</v>
+      </c>
+      <c r="W29">
+        <v>2</v>
+      </c>
+      <c r="Y29">
+        <v>23</v>
+      </c>
+      <c r="Z29">
+        <v>35</v>
+      </c>
+      <c r="AA29">
+        <v>4</v>
+      </c>
+      <c r="AC29">
+        <v>23</v>
+      </c>
+      <c r="AD29">
+        <v>23</v>
+      </c>
+      <c r="AE29">
+        <v>3</v>
+      </c>
+      <c r="AG29">
+        <v>23</v>
+      </c>
+      <c r="AH29">
+        <v>16</v>
+      </c>
+      <c r="AI29">
+        <v>3</v>
+      </c>
+      <c r="AK29">
+        <v>23</v>
+      </c>
+      <c r="AL29">
+        <v>29</v>
+      </c>
+      <c r="AM29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>24</v>
+      </c>
+      <c r="F30">
+        <v>36</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>24</v>
+      </c>
+      <c r="J30">
+        <v>36</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="M30">
+        <v>24</v>
+      </c>
+      <c r="N30">
+        <v>24</v>
+      </c>
+      <c r="O30">
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <v>24</v>
+      </c>
+      <c r="R30">
+        <v>21</v>
+      </c>
+      <c r="S30">
+        <v>4</v>
+      </c>
+      <c r="U30">
+        <v>24</v>
+      </c>
+      <c r="V30">
+        <v>24</v>
+      </c>
+      <c r="W30">
+        <v>3</v>
+      </c>
+      <c r="Y30">
+        <v>24</v>
+      </c>
+      <c r="Z30">
+        <v>25</v>
+      </c>
+      <c r="AA30">
+        <v>5</v>
+      </c>
+      <c r="AC30">
+        <v>24</v>
+      </c>
+      <c r="AD30">
+        <v>23</v>
+      </c>
+      <c r="AE30">
+        <v>4</v>
+      </c>
+      <c r="AG30">
+        <v>24</v>
+      </c>
+      <c r="AH30">
+        <v>17</v>
+      </c>
+      <c r="AI30">
+        <v>2</v>
+      </c>
+      <c r="AK30">
+        <v>24</v>
+      </c>
+      <c r="AL30">
+        <v>32</v>
+      </c>
+      <c r="AM30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>24</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>25</v>
+      </c>
+      <c r="F31">
+        <v>33</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>25</v>
+      </c>
+      <c r="J31">
+        <v>48</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="M31">
+        <v>25</v>
+      </c>
+      <c r="N31">
+        <v>35</v>
+      </c>
+      <c r="O31">
+        <v>4</v>
+      </c>
+      <c r="Q31">
+        <v>25</v>
+      </c>
+      <c r="R31">
+        <v>27</v>
+      </c>
+      <c r="S31">
+        <v>5</v>
+      </c>
+      <c r="U31">
+        <v>25</v>
+      </c>
+      <c r="V31">
+        <v>29</v>
+      </c>
+      <c r="W31">
+        <v>3</v>
+      </c>
+      <c r="Y31">
+        <v>25</v>
+      </c>
+      <c r="Z31">
+        <v>25</v>
+      </c>
+      <c r="AA31">
+        <v>3</v>
+      </c>
+      <c r="AC31">
+        <v>25</v>
+      </c>
+      <c r="AD31">
+        <v>18</v>
+      </c>
+      <c r="AE31">
+        <v>2</v>
+      </c>
+      <c r="AG31">
+        <v>25</v>
+      </c>
+      <c r="AH31">
+        <v>22</v>
+      </c>
+      <c r="AI31">
+        <v>3</v>
+      </c>
+      <c r="AK31">
+        <v>25</v>
+      </c>
+      <c r="AL31">
+        <v>25</v>
+      </c>
+      <c r="AM31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>17</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>26</v>
+      </c>
+      <c r="F32">
+        <v>34</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <v>26</v>
+      </c>
+      <c r="J32">
+        <v>53</v>
+      </c>
+      <c r="K32">
+        <v>5</v>
+      </c>
+      <c r="M32">
+        <v>26</v>
+      </c>
+      <c r="N32">
+        <v>33</v>
+      </c>
+      <c r="O32">
+        <v>4</v>
+      </c>
+      <c r="Q32">
+        <v>26</v>
+      </c>
+      <c r="R32">
+        <v>32</v>
+      </c>
+      <c r="S32">
+        <v>4</v>
+      </c>
+      <c r="U32">
+        <v>26</v>
+      </c>
+      <c r="V32">
+        <v>25</v>
+      </c>
+      <c r="W32">
+        <v>4</v>
+      </c>
+      <c r="Y32">
+        <v>26</v>
+      </c>
+      <c r="Z32">
+        <v>29</v>
+      </c>
+      <c r="AA32">
+        <v>4</v>
+      </c>
+      <c r="AC32">
+        <v>26</v>
+      </c>
+      <c r="AD32">
+        <v>19</v>
+      </c>
+      <c r="AE32">
+        <v>3</v>
+      </c>
+      <c r="AG32">
+        <v>26</v>
+      </c>
+      <c r="AH32">
+        <v>17</v>
+      </c>
+      <c r="AI32">
+        <v>2</v>
+      </c>
+      <c r="AK32">
+        <v>26</v>
+      </c>
+      <c r="AL32">
+        <v>19</v>
+      </c>
+      <c r="AM32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>27</v>
+      </c>
+      <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>27</v>
+      </c>
+      <c r="F33">
+        <v>33</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>27</v>
+      </c>
+      <c r="J33">
+        <v>42</v>
+      </c>
+      <c r="K33">
+        <v>5</v>
+      </c>
+      <c r="M33">
+        <v>27</v>
+      </c>
+      <c r="N33">
+        <v>27</v>
+      </c>
+      <c r="O33">
+        <v>5</v>
+      </c>
+      <c r="Q33">
+        <v>27</v>
+      </c>
+      <c r="R33">
+        <v>35</v>
+      </c>
+      <c r="S33">
+        <v>3</v>
+      </c>
+      <c r="U33">
+        <v>27</v>
+      </c>
+      <c r="V33">
+        <v>21</v>
+      </c>
+      <c r="W33">
+        <v>5</v>
+      </c>
+      <c r="Y33">
+        <v>27</v>
+      </c>
+      <c r="Z33">
+        <v>29</v>
+      </c>
+      <c r="AA33">
+        <v>4</v>
+      </c>
+      <c r="AC33">
+        <v>27</v>
+      </c>
+      <c r="AD33">
+        <v>22</v>
+      </c>
+      <c r="AE33">
+        <v>3</v>
+      </c>
+      <c r="AG33">
+        <v>27</v>
+      </c>
+      <c r="AH33">
+        <v>20</v>
+      </c>
+      <c r="AI33">
+        <v>3</v>
+      </c>
+      <c r="AK33">
+        <v>27</v>
+      </c>
+      <c r="AL33">
+        <v>29</v>
+      </c>
+      <c r="AM33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>28</v>
+      </c>
+      <c r="B34">
+        <v>19</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>28</v>
+      </c>
+      <c r="F34">
+        <v>39</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>28</v>
+      </c>
+      <c r="J34">
+        <v>64</v>
+      </c>
+      <c r="K34">
+        <v>6</v>
+      </c>
+      <c r="M34">
+        <v>28</v>
+      </c>
+      <c r="N34">
+        <v>31</v>
+      </c>
+      <c r="O34">
+        <v>3</v>
+      </c>
+      <c r="Q34">
+        <v>28</v>
+      </c>
+      <c r="R34">
+        <v>31</v>
+      </c>
+      <c r="S34">
+        <v>3</v>
+      </c>
+      <c r="U34">
+        <v>28</v>
+      </c>
+      <c r="V34">
+        <v>18</v>
+      </c>
+      <c r="W34">
+        <v>3</v>
+      </c>
+      <c r="Y34">
+        <v>28</v>
+      </c>
+      <c r="Z34">
+        <v>36</v>
+      </c>
+      <c r="AA34">
+        <v>4</v>
+      </c>
+      <c r="AC34">
+        <v>28</v>
+      </c>
+      <c r="AD34">
+        <v>18</v>
+      </c>
+      <c r="AE34">
+        <v>3</v>
+      </c>
+      <c r="AG34">
+        <v>28</v>
+      </c>
+      <c r="AH34">
+        <v>13</v>
+      </c>
+      <c r="AI34">
+        <v>5</v>
+      </c>
+      <c r="AK34">
+        <v>28</v>
+      </c>
+      <c r="AL34">
+        <v>36</v>
+      </c>
+      <c r="AM34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>29</v>
+      </c>
+      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>29</v>
+      </c>
+      <c r="F35">
+        <v>40</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="I35">
+        <v>29</v>
+      </c>
+      <c r="J35">
+        <v>45</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
+      </c>
+      <c r="M35">
+        <v>29</v>
+      </c>
+      <c r="N35">
+        <v>36</v>
+      </c>
+      <c r="O35">
+        <v>4</v>
+      </c>
+      <c r="Q35">
+        <v>29</v>
+      </c>
+      <c r="R35">
+        <v>31</v>
+      </c>
+      <c r="S35">
+        <v>4</v>
+      </c>
+      <c r="U35">
+        <v>29</v>
+      </c>
+      <c r="V35">
+        <v>21</v>
+      </c>
+      <c r="W35">
+        <v>5</v>
+      </c>
+      <c r="Y35">
+        <v>29</v>
+      </c>
+      <c r="Z35">
+        <v>35</v>
+      </c>
+      <c r="AA35">
+        <v>3</v>
+      </c>
+      <c r="AC35">
+        <v>29</v>
+      </c>
+      <c r="AD35">
+        <v>22</v>
+      </c>
+      <c r="AE35">
+        <v>3</v>
+      </c>
+      <c r="AG35">
+        <v>29</v>
+      </c>
+      <c r="AH35">
+        <v>24</v>
+      </c>
+      <c r="AI35">
+        <v>4</v>
+      </c>
+      <c r="AK35">
+        <v>29</v>
+      </c>
+      <c r="AL35">
+        <v>30</v>
+      </c>
+      <c r="AM35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>30</v>
+      </c>
+      <c r="B36">
+        <v>25</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>30</v>
+      </c>
+      <c r="F36">
+        <v>35</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <v>30</v>
+      </c>
+      <c r="J36">
+        <v>32</v>
+      </c>
+      <c r="K36">
+        <v>4</v>
+      </c>
+      <c r="M36">
+        <v>30</v>
+      </c>
+      <c r="N36">
+        <v>34</v>
+      </c>
+      <c r="O36">
+        <v>3</v>
+      </c>
+      <c r="Q36">
+        <v>30</v>
+      </c>
+      <c r="R36">
+        <v>34</v>
+      </c>
+      <c r="S36">
+        <v>3</v>
+      </c>
+      <c r="U36">
+        <v>30</v>
+      </c>
+      <c r="V36">
+        <v>23</v>
+      </c>
+      <c r="W36">
+        <v>3</v>
+      </c>
+      <c r="Y36">
+        <v>30</v>
+      </c>
+      <c r="Z36">
+        <v>24</v>
+      </c>
+      <c r="AA36">
+        <v>3</v>
+      </c>
+      <c r="AC36">
+        <v>30</v>
+      </c>
+      <c r="AD36">
+        <v>16</v>
+      </c>
+      <c r="AE36">
+        <v>2</v>
+      </c>
+      <c r="AG36">
+        <v>30</v>
+      </c>
+      <c r="AH36">
+        <v>15</v>
+      </c>
+      <c r="AI36">
+        <v>4</v>
+      </c>
+      <c r="AK36">
+        <v>30</v>
+      </c>
+      <c r="AL36">
+        <v>32</v>
+      </c>
+      <c r="AM36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>31</v>
+      </c>
+      <c r="B37">
+        <v>32</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>31</v>
+      </c>
+      <c r="F37">
+        <v>36</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="I37">
+        <v>31</v>
+      </c>
+      <c r="J37">
+        <v>35</v>
+      </c>
+      <c r="K37">
+        <v>4</v>
+      </c>
+      <c r="M37">
+        <v>31</v>
+      </c>
+      <c r="N37">
+        <v>34</v>
+      </c>
+      <c r="O37">
+        <v>3</v>
+      </c>
+      <c r="Q37">
+        <v>31</v>
+      </c>
+      <c r="R37">
+        <v>22</v>
+      </c>
+      <c r="S37">
+        <v>4</v>
+      </c>
+      <c r="U37">
+        <v>31</v>
+      </c>
+      <c r="V37">
+        <v>23</v>
+      </c>
+      <c r="W37">
+        <v>4</v>
+      </c>
+      <c r="Y37">
+        <v>31</v>
+      </c>
+      <c r="Z37">
+        <v>29</v>
+      </c>
+      <c r="AA37">
+        <v>4</v>
+      </c>
+      <c r="AC37">
+        <v>31</v>
+      </c>
+      <c r="AD37">
+        <v>22</v>
+      </c>
+      <c r="AE37">
+        <v>3</v>
+      </c>
+      <c r="AG37">
+        <v>31</v>
+      </c>
+      <c r="AH37">
+        <v>24</v>
+      </c>
+      <c r="AI37">
+        <v>3</v>
+      </c>
+      <c r="AK37">
+        <v>31</v>
+      </c>
+      <c r="AL37">
+        <v>30</v>
+      </c>
+      <c r="AM37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>32</v>
+      </c>
+      <c r="B38">
+        <v>28</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>32</v>
+      </c>
+      <c r="F38">
+        <v>37</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>32</v>
+      </c>
+      <c r="J38">
+        <v>46</v>
+      </c>
+      <c r="K38">
+        <v>5</v>
+      </c>
+      <c r="M38">
+        <v>32</v>
+      </c>
+      <c r="N38">
+        <v>32</v>
+      </c>
+      <c r="O38">
+        <v>4</v>
+      </c>
+      <c r="Q38">
+        <v>32</v>
+      </c>
+      <c r="R38">
+        <v>29</v>
+      </c>
+      <c r="S38">
+        <v>4</v>
+      </c>
+      <c r="U38">
+        <v>32</v>
+      </c>
+      <c r="V38">
+        <v>23</v>
+      </c>
+      <c r="W38">
+        <v>4</v>
+      </c>
+      <c r="Y38">
+        <v>32</v>
+      </c>
+      <c r="Z38">
+        <v>22</v>
+      </c>
+      <c r="AA38">
+        <v>3</v>
+      </c>
+      <c r="AC38">
+        <v>32</v>
+      </c>
+      <c r="AD38">
+        <v>24</v>
+      </c>
+      <c r="AE38">
+        <v>3</v>
+      </c>
+      <c r="AG38">
+        <v>32</v>
+      </c>
+      <c r="AH38">
+        <v>19</v>
+      </c>
+      <c r="AI38">
+        <v>3</v>
+      </c>
+      <c r="AK38">
+        <v>32</v>
+      </c>
+      <c r="AL38">
+        <v>19</v>
+      </c>
+      <c r="AM38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>33</v>
+      </c>
+      <c r="B39">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>33</v>
+      </c>
+      <c r="F39">
+        <v>44</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>33</v>
+      </c>
+      <c r="J39">
+        <v>45</v>
+      </c>
+      <c r="K39">
+        <v>5</v>
+      </c>
+      <c r="M39">
+        <v>33</v>
+      </c>
+      <c r="N39">
+        <v>45</v>
+      </c>
+      <c r="O39">
+        <v>5</v>
+      </c>
+      <c r="Q39">
+        <v>33</v>
+      </c>
+      <c r="R39">
+        <v>42</v>
+      </c>
+      <c r="S39">
+        <v>5</v>
+      </c>
+      <c r="U39">
+        <v>33</v>
+      </c>
+      <c r="V39">
+        <v>12</v>
+      </c>
+      <c r="W39">
+        <v>2</v>
+      </c>
+      <c r="Y39">
+        <v>33</v>
+      </c>
+      <c r="Z39">
+        <v>24</v>
+      </c>
+      <c r="AA39">
+        <v>3</v>
+      </c>
+      <c r="AC39">
+        <v>33</v>
+      </c>
+      <c r="AD39">
+        <v>27</v>
+      </c>
+      <c r="AE39">
+        <v>3</v>
+      </c>
+      <c r="AG39">
+        <v>33</v>
+      </c>
+      <c r="AH39">
+        <v>19</v>
+      </c>
+      <c r="AI39">
+        <v>3</v>
+      </c>
+      <c r="AK39">
+        <v>33</v>
+      </c>
+      <c r="AL39">
+        <v>29</v>
+      </c>
+      <c r="AM39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>34</v>
+      </c>
+      <c r="B40">
+        <v>14</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>34</v>
+      </c>
+      <c r="F40">
+        <v>32</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+      <c r="I40">
+        <v>34</v>
+      </c>
+      <c r="J40">
+        <v>50</v>
+      </c>
+      <c r="K40">
+        <v>6</v>
+      </c>
+      <c r="M40">
+        <v>34</v>
+      </c>
+      <c r="N40">
+        <v>22</v>
+      </c>
+      <c r="O40">
+        <v>2</v>
+      </c>
+      <c r="Q40">
+        <v>34</v>
+      </c>
+      <c r="R40">
+        <v>39</v>
+      </c>
+      <c r="S40">
+        <v>4</v>
+      </c>
+      <c r="U40">
+        <v>34</v>
+      </c>
+      <c r="V40">
+        <v>25</v>
+      </c>
+      <c r="W40">
+        <v>3</v>
+      </c>
+      <c r="Y40">
+        <v>34</v>
+      </c>
+      <c r="Z40">
+        <v>17</v>
+      </c>
+      <c r="AA40">
+        <v>2</v>
+      </c>
+      <c r="AC40">
+        <v>34</v>
+      </c>
+      <c r="AD40">
+        <v>13</v>
+      </c>
+      <c r="AE40">
+        <v>2</v>
+      </c>
+      <c r="AG40">
+        <v>34</v>
+      </c>
+      <c r="AH40">
+        <v>19</v>
+      </c>
+      <c r="AI40">
+        <v>3</v>
+      </c>
+      <c r="AK40">
+        <v>34</v>
+      </c>
+      <c r="AL40">
+        <v>30</v>
+      </c>
+      <c r="AM40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>35</v>
+      </c>
+      <c r="B41">
+        <v>31</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>35</v>
+      </c>
+      <c r="F41">
+        <v>33</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <v>35</v>
+      </c>
+      <c r="J41">
+        <v>39</v>
+      </c>
+      <c r="K41">
+        <v>4</v>
+      </c>
+      <c r="M41">
+        <v>35</v>
+      </c>
+      <c r="N41">
+        <v>31</v>
+      </c>
+      <c r="O41">
+        <v>4</v>
+      </c>
+      <c r="Q41">
+        <v>35</v>
+      </c>
+      <c r="R41">
+        <v>34</v>
+      </c>
+      <c r="S41">
+        <v>4</v>
+      </c>
+      <c r="U41">
+        <v>35</v>
+      </c>
+      <c r="V41">
+        <v>19</v>
+      </c>
+      <c r="W41">
+        <v>4</v>
+      </c>
+      <c r="Y41">
+        <v>35</v>
+      </c>
+      <c r="Z41">
+        <v>19</v>
+      </c>
+      <c r="AA41">
+        <v>4</v>
+      </c>
+      <c r="AC41">
+        <v>35</v>
+      </c>
+      <c r="AD41">
+        <v>19</v>
+      </c>
+      <c r="AE41">
+        <v>4</v>
+      </c>
+      <c r="AG41">
+        <v>35</v>
+      </c>
+      <c r="AH41">
+        <v>25</v>
+      </c>
+      <c r="AI41">
+        <v>3</v>
+      </c>
+      <c r="AK41">
+        <v>35</v>
+      </c>
+      <c r="AL41">
+        <v>27</v>
+      </c>
+      <c r="AM41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>36</v>
+      </c>
+      <c r="B42">
+        <v>26</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>36</v>
+      </c>
+      <c r="F42">
+        <v>38</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="I42">
+        <v>36</v>
+      </c>
+      <c r="J42">
+        <v>34</v>
+      </c>
+      <c r="K42">
+        <v>3</v>
+      </c>
+      <c r="M42">
+        <v>36</v>
+      </c>
+      <c r="N42">
+        <v>30</v>
+      </c>
+      <c r="O42">
+        <v>3</v>
+      </c>
+      <c r="Q42">
+        <v>36</v>
+      </c>
+      <c r="R42">
+        <v>45</v>
+      </c>
+      <c r="S42">
+        <v>4</v>
+      </c>
+      <c r="U42">
+        <v>36</v>
+      </c>
+      <c r="V42">
+        <v>16</v>
+      </c>
+      <c r="W42">
+        <v>3</v>
+      </c>
+      <c r="Y42">
+        <v>36</v>
+      </c>
+      <c r="Z42">
+        <v>25</v>
+      </c>
+      <c r="AA42">
+        <v>3</v>
+      </c>
+      <c r="AC42">
+        <v>36</v>
+      </c>
+      <c r="AD42">
+        <v>24</v>
+      </c>
+      <c r="AE42">
+        <v>3</v>
+      </c>
+      <c r="AG42">
+        <v>36</v>
+      </c>
+      <c r="AH42">
+        <v>12</v>
+      </c>
+      <c r="AI42">
+        <v>1</v>
+      </c>
+      <c r="AK42">
+        <v>36</v>
+      </c>
+      <c r="AL42">
+        <v>23</v>
+      </c>
+      <c r="AM42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>37</v>
+      </c>
+      <c r="B43">
+        <v>18</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>37</v>
+      </c>
+      <c r="F43">
+        <v>38</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+      <c r="I43">
+        <v>37</v>
+      </c>
+      <c r="J43">
+        <v>48</v>
+      </c>
+      <c r="K43">
+        <v>6</v>
+      </c>
+      <c r="M43">
+        <v>37</v>
+      </c>
+      <c r="N43">
+        <v>18</v>
+      </c>
+      <c r="O43">
+        <v>4</v>
+      </c>
+      <c r="Q43">
+        <v>37</v>
+      </c>
+      <c r="R43">
+        <v>31</v>
+      </c>
+      <c r="S43">
+        <v>4</v>
+      </c>
+      <c r="U43">
+        <v>37</v>
+      </c>
+      <c r="V43">
+        <v>25</v>
+      </c>
+      <c r="W43">
+        <v>3</v>
+      </c>
+      <c r="Y43">
+        <v>37</v>
+      </c>
+      <c r="Z43">
+        <v>19</v>
+      </c>
+      <c r="AA43">
+        <v>4</v>
+      </c>
+      <c r="AC43">
+        <v>37</v>
+      </c>
+      <c r="AD43">
+        <v>24</v>
+      </c>
+      <c r="AE43">
+        <v>3</v>
+      </c>
+      <c r="AG43">
+        <v>37</v>
+      </c>
+      <c r="AH43">
+        <v>26</v>
+      </c>
+      <c r="AI43">
+        <v>3</v>
+      </c>
+      <c r="AK43">
+        <v>37</v>
+      </c>
+      <c r="AL43">
+        <v>22</v>
+      </c>
+      <c r="AM43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>38</v>
+      </c>
+      <c r="B44">
+        <v>19</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>38</v>
+      </c>
+      <c r="F44">
+        <v>23</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>38</v>
+      </c>
+      <c r="J44">
+        <v>51</v>
+      </c>
+      <c r="K44">
+        <v>5</v>
+      </c>
+      <c r="M44">
+        <v>38</v>
+      </c>
+      <c r="N44">
+        <v>19</v>
+      </c>
+      <c r="O44">
+        <v>3</v>
+      </c>
+      <c r="Q44">
+        <v>38</v>
+      </c>
+      <c r="R44">
+        <v>30</v>
+      </c>
+      <c r="S44">
+        <v>3</v>
+      </c>
+      <c r="U44">
+        <v>38</v>
+      </c>
+      <c r="V44">
+        <v>21</v>
+      </c>
+      <c r="W44">
+        <v>3</v>
+      </c>
+      <c r="Y44">
+        <v>38</v>
+      </c>
+      <c r="Z44">
+        <v>36</v>
+      </c>
+      <c r="AA44">
+        <v>4</v>
+      </c>
+      <c r="AC44">
+        <v>38</v>
+      </c>
+      <c r="AD44">
+        <v>27</v>
+      </c>
+      <c r="AE44">
+        <v>4</v>
+      </c>
+      <c r="AG44">
+        <v>38</v>
+      </c>
+      <c r="AH44">
+        <v>16</v>
+      </c>
+      <c r="AI44">
+        <v>3</v>
+      </c>
+      <c r="AK44">
+        <v>38</v>
+      </c>
+      <c r="AL44">
+        <v>22</v>
+      </c>
+      <c r="AM44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>39</v>
+      </c>
+      <c r="B45">
+        <v>22</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>39</v>
+      </c>
+      <c r="F45">
+        <v>29</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>39</v>
+      </c>
+      <c r="J45">
+        <v>41</v>
+      </c>
+      <c r="K45">
+        <v>4</v>
+      </c>
+      <c r="M45">
+        <v>39</v>
+      </c>
+      <c r="N45">
+        <v>37</v>
+      </c>
+      <c r="O45">
+        <v>3</v>
+      </c>
+      <c r="Q45">
+        <v>39</v>
+      </c>
+      <c r="R45">
+        <v>33</v>
+      </c>
+      <c r="S45">
+        <v>5</v>
+      </c>
+      <c r="U45">
+        <v>39</v>
+      </c>
+      <c r="V45">
+        <v>18</v>
+      </c>
+      <c r="W45">
+        <v>2</v>
+      </c>
+      <c r="Y45">
+        <v>39</v>
+      </c>
+      <c r="Z45">
+        <v>30</v>
+      </c>
+      <c r="AA45">
+        <v>3</v>
+      </c>
+      <c r="AC45">
+        <v>39</v>
+      </c>
+      <c r="AD45">
+        <v>20</v>
+      </c>
+      <c r="AE45">
+        <v>3</v>
+      </c>
+      <c r="AG45">
+        <v>39</v>
+      </c>
+      <c r="AH45">
+        <v>16</v>
+      </c>
+      <c r="AI45">
+        <v>3</v>
+      </c>
+      <c r="AK45">
+        <v>39</v>
+      </c>
+      <c r="AL45">
+        <v>36</v>
+      </c>
+      <c r="AM45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>40</v>
+      </c>
+      <c r="B46">
+        <v>28</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>40</v>
+      </c>
+      <c r="F46">
+        <v>27</v>
+      </c>
+      <c r="G46">
+        <v>5</v>
+      </c>
+      <c r="I46">
+        <v>40</v>
+      </c>
+      <c r="J46">
+        <v>43</v>
+      </c>
+      <c r="K46">
+        <v>4</v>
+      </c>
+      <c r="M46">
+        <v>40</v>
+      </c>
+      <c r="N46">
+        <v>28</v>
+      </c>
+      <c r="O46">
+        <v>5</v>
+      </c>
+      <c r="Q46">
+        <v>40</v>
+      </c>
+      <c r="R46">
+        <v>28</v>
+      </c>
+      <c r="S46">
+        <v>3</v>
+      </c>
+      <c r="U46">
+        <v>40</v>
+      </c>
+      <c r="V46">
+        <v>22</v>
+      </c>
+      <c r="W46">
+        <v>5</v>
+      </c>
+      <c r="Y46">
+        <v>40</v>
+      </c>
+      <c r="Z46">
+        <v>24</v>
+      </c>
+      <c r="AA46">
+        <v>3</v>
+      </c>
+      <c r="AC46">
+        <v>40</v>
+      </c>
+      <c r="AD46">
+        <v>19</v>
+      </c>
+      <c r="AE46">
+        <v>3</v>
+      </c>
+      <c r="AG46">
+        <v>40</v>
+      </c>
+      <c r="AH46">
+        <v>13</v>
+      </c>
+      <c r="AI46">
+        <v>3</v>
+      </c>
+      <c r="AK46">
+        <v>40</v>
+      </c>
+      <c r="AL46">
+        <v>30</v>
+      </c>
+      <c r="AM46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>41</v>
+      </c>
+      <c r="B47">
+        <v>15</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>41</v>
+      </c>
+      <c r="F47">
+        <v>25</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="I47">
+        <v>41</v>
+      </c>
+      <c r="J47">
+        <v>53</v>
+      </c>
+      <c r="K47">
+        <v>3</v>
+      </c>
+      <c r="M47">
+        <v>41</v>
+      </c>
+      <c r="N47">
+        <v>21</v>
+      </c>
+      <c r="O47">
+        <v>3</v>
+      </c>
+      <c r="Q47">
+        <v>41</v>
+      </c>
+      <c r="R47">
+        <v>23</v>
+      </c>
+      <c r="S47">
+        <v>3</v>
+      </c>
+      <c r="U47">
+        <v>41</v>
+      </c>
+      <c r="V47">
+        <v>25</v>
+      </c>
+      <c r="W47">
+        <v>3</v>
+      </c>
+      <c r="Y47">
+        <v>41</v>
+      </c>
+      <c r="Z47">
+        <v>26</v>
+      </c>
+      <c r="AA47">
+        <v>3</v>
+      </c>
+      <c r="AC47">
+        <v>41</v>
+      </c>
+      <c r="AD47">
+        <v>30</v>
+      </c>
+      <c r="AE47">
+        <v>4</v>
+      </c>
+      <c r="AG47">
+        <v>41</v>
+      </c>
+      <c r="AH47">
+        <v>23</v>
+      </c>
+      <c r="AI47">
+        <v>5</v>
+      </c>
+      <c r="AK47">
+        <v>41</v>
+      </c>
+      <c r="AL47">
+        <v>34</v>
+      </c>
+      <c r="AM47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>42</v>
+      </c>
+      <c r="B48">
+        <v>23</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>42</v>
+      </c>
+      <c r="F48">
+        <v>30</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+      <c r="I48">
+        <v>42</v>
+      </c>
+      <c r="J48">
+        <v>39</v>
+      </c>
+      <c r="K48">
+        <v>5</v>
+      </c>
+      <c r="M48">
+        <v>42</v>
+      </c>
+      <c r="N48">
+        <v>31</v>
+      </c>
+      <c r="O48">
+        <v>6</v>
+      </c>
+      <c r="Q48">
+        <v>42</v>
+      </c>
+      <c r="R48">
+        <v>21</v>
+      </c>
+      <c r="S48">
+        <v>3</v>
+      </c>
+      <c r="U48">
+        <v>42</v>
+      </c>
+      <c r="V48">
+        <v>18</v>
+      </c>
+      <c r="W48">
+        <v>4</v>
+      </c>
+      <c r="Y48">
+        <v>42</v>
+      </c>
+      <c r="Z48">
+        <v>26</v>
+      </c>
+      <c r="AA48">
+        <v>3</v>
+      </c>
+      <c r="AC48">
+        <v>42</v>
+      </c>
+      <c r="AD48">
+        <v>28</v>
+      </c>
+      <c r="AE48">
+        <v>3</v>
+      </c>
+      <c r="AG48">
+        <v>42</v>
+      </c>
+      <c r="AH48">
+        <v>26</v>
+      </c>
+      <c r="AI48">
+        <v>4</v>
+      </c>
+      <c r="AK48">
+        <v>42</v>
+      </c>
+      <c r="AL48">
+        <v>18</v>
+      </c>
+      <c r="AM48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>43</v>
+      </c>
+      <c r="B49">
+        <v>19</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>43</v>
+      </c>
+      <c r="F49">
+        <v>30</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>43</v>
+      </c>
+      <c r="J49">
+        <v>54</v>
+      </c>
+      <c r="K49">
+        <v>5</v>
+      </c>
+      <c r="M49">
+        <v>43</v>
+      </c>
+      <c r="N49">
+        <v>27</v>
+      </c>
+      <c r="O49">
+        <v>3</v>
+      </c>
+      <c r="Q49">
+        <v>43</v>
+      </c>
+      <c r="R49">
+        <v>28</v>
+      </c>
+      <c r="S49">
+        <v>3</v>
+      </c>
+      <c r="U49">
+        <v>43</v>
+      </c>
+      <c r="V49">
+        <v>20</v>
+      </c>
+      <c r="W49">
+        <v>3</v>
+      </c>
+      <c r="Y49">
+        <v>43</v>
+      </c>
+      <c r="Z49">
+        <v>27</v>
+      </c>
+      <c r="AA49">
+        <v>4</v>
+      </c>
+      <c r="AC49">
+        <v>43</v>
+      </c>
+      <c r="AD49">
+        <v>18</v>
+      </c>
+      <c r="AE49">
+        <v>3</v>
+      </c>
+      <c r="AG49">
+        <v>43</v>
+      </c>
+      <c r="AH49">
+        <v>21</v>
+      </c>
+      <c r="AI49">
+        <v>3</v>
+      </c>
+      <c r="AK49">
+        <v>43</v>
+      </c>
+      <c r="AL49">
+        <v>20</v>
+      </c>
+      <c r="AM49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>44</v>
+      </c>
+      <c r="B50">
+        <v>21</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>44</v>
+      </c>
+      <c r="F50">
+        <v>37</v>
+      </c>
+      <c r="G50">
+        <v>4</v>
+      </c>
+      <c r="I50">
+        <v>44</v>
+      </c>
+      <c r="J50">
+        <v>49</v>
+      </c>
+      <c r="K50">
+        <v>5</v>
+      </c>
+      <c r="M50">
+        <v>44</v>
+      </c>
+      <c r="N50">
+        <v>33</v>
+      </c>
+      <c r="O50">
+        <v>3</v>
+      </c>
+      <c r="Q50">
+        <v>44</v>
+      </c>
+      <c r="R50">
+        <v>34</v>
+      </c>
+      <c r="S50">
+        <v>4</v>
+      </c>
+      <c r="U50">
+        <v>44</v>
+      </c>
+      <c r="V50">
+        <v>17</v>
+      </c>
+      <c r="W50">
+        <v>3</v>
+      </c>
+      <c r="Y50">
+        <v>44</v>
+      </c>
+      <c r="Z50">
+        <v>29</v>
+      </c>
+      <c r="AA50">
+        <v>3</v>
+      </c>
+      <c r="AC50">
+        <v>44</v>
+      </c>
+      <c r="AD50">
+        <v>28</v>
+      </c>
+      <c r="AE50">
+        <v>3</v>
+      </c>
+      <c r="AG50">
+        <v>44</v>
+      </c>
+      <c r="AH50">
+        <v>21</v>
+      </c>
+      <c r="AI50">
+        <v>4</v>
+      </c>
+      <c r="AK50">
+        <v>44</v>
+      </c>
+      <c r="AL50">
+        <v>33</v>
+      </c>
+      <c r="AM50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>45</v>
+      </c>
+      <c r="B51">
+        <v>34</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <v>45</v>
+      </c>
+      <c r="F51">
+        <v>36</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <v>45</v>
+      </c>
+      <c r="J51">
+        <v>52</v>
+      </c>
+      <c r="K51">
+        <v>5</v>
+      </c>
+      <c r="M51">
+        <v>45</v>
+      </c>
+      <c r="N51">
+        <v>34</v>
+      </c>
+      <c r="O51">
+        <v>4</v>
+      </c>
+      <c r="Q51">
+        <v>45</v>
+      </c>
+      <c r="R51">
+        <v>29</v>
+      </c>
+      <c r="S51">
+        <v>3</v>
+      </c>
+      <c r="U51">
+        <v>45</v>
+      </c>
+      <c r="V51">
+        <v>17</v>
+      </c>
+      <c r="W51">
+        <v>2</v>
+      </c>
+      <c r="Y51">
+        <v>45</v>
+      </c>
+      <c r="Z51">
+        <v>23</v>
+      </c>
+      <c r="AA51">
+        <v>3</v>
+      </c>
+      <c r="AC51">
+        <v>45</v>
+      </c>
+      <c r="AD51">
+        <v>31</v>
+      </c>
+      <c r="AE51">
+        <v>4</v>
+      </c>
+      <c r="AG51">
+        <v>45</v>
+      </c>
+      <c r="AH51">
+        <v>19</v>
+      </c>
+      <c r="AI51">
+        <v>3</v>
+      </c>
+      <c r="AK51">
+        <v>45</v>
+      </c>
+      <c r="AL51">
+        <v>24</v>
+      </c>
+      <c r="AM51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>46</v>
+      </c>
+      <c r="B52">
+        <v>28</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>46</v>
+      </c>
+      <c r="F52">
+        <v>37</v>
+      </c>
+      <c r="G52">
+        <v>5</v>
+      </c>
+      <c r="I52">
+        <v>46</v>
+      </c>
+      <c r="J52">
+        <v>48</v>
+      </c>
+      <c r="K52">
+        <v>4</v>
+      </c>
+      <c r="M52">
+        <v>46</v>
+      </c>
+      <c r="N52">
+        <v>27</v>
+      </c>
+      <c r="O52">
+        <v>4</v>
+      </c>
+      <c r="Q52">
+        <v>46</v>
+      </c>
+      <c r="R52">
+        <v>43</v>
+      </c>
+      <c r="S52">
+        <v>4</v>
+      </c>
+      <c r="U52">
+        <v>46</v>
+      </c>
+      <c r="V52">
+        <v>27</v>
+      </c>
+      <c r="W52">
+        <v>3</v>
+      </c>
+      <c r="Y52">
+        <v>46</v>
+      </c>
+      <c r="Z52">
+        <v>31</v>
+      </c>
+      <c r="AA52">
+        <v>4</v>
+      </c>
+      <c r="AC52">
+        <v>46</v>
+      </c>
+      <c r="AD52">
+        <v>35</v>
+      </c>
+      <c r="AE52">
+        <v>4</v>
+      </c>
+      <c r="AG52">
+        <v>46</v>
+      </c>
+      <c r="AH52">
+        <v>16</v>
+      </c>
+      <c r="AI52">
+        <v>3</v>
+      </c>
+      <c r="AK52">
+        <v>46</v>
+      </c>
+      <c r="AL52">
+        <v>33</v>
+      </c>
+      <c r="AM52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>47</v>
+      </c>
+      <c r="B53">
+        <v>15</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>47</v>
+      </c>
+      <c r="F53">
+        <v>30</v>
+      </c>
+      <c r="G53">
+        <v>5</v>
+      </c>
+      <c r="I53">
+        <v>47</v>
+      </c>
+      <c r="J53">
+        <v>43</v>
+      </c>
+      <c r="K53">
+        <v>5</v>
+      </c>
+      <c r="M53">
+        <v>47</v>
+      </c>
+      <c r="N53">
+        <v>33</v>
+      </c>
+      <c r="O53">
+        <v>3</v>
+      </c>
+      <c r="Q53">
+        <v>47</v>
+      </c>
+      <c r="R53">
+        <v>33</v>
+      </c>
+      <c r="S53">
+        <v>3</v>
+      </c>
+      <c r="U53">
+        <v>47</v>
+      </c>
+      <c r="V53">
+        <v>16</v>
+      </c>
+      <c r="W53">
+        <v>3</v>
+      </c>
+      <c r="Y53">
+        <v>47</v>
+      </c>
+      <c r="Z53">
+        <v>24</v>
+      </c>
+      <c r="AA53">
+        <v>3</v>
+      </c>
+      <c r="AC53">
+        <v>47</v>
+      </c>
+      <c r="AD53">
+        <v>26</v>
+      </c>
+      <c r="AE53">
+        <v>4</v>
+      </c>
+      <c r="AG53">
+        <v>47</v>
+      </c>
+      <c r="AH53">
+        <v>23</v>
+      </c>
+      <c r="AI53">
+        <v>3</v>
+      </c>
+      <c r="AK53">
+        <v>47</v>
+      </c>
+      <c r="AL53">
+        <v>28</v>
+      </c>
+      <c r="AM53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>48</v>
+      </c>
+      <c r="B54">
+        <v>29</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>48</v>
+      </c>
+      <c r="F54">
+        <v>37</v>
+      </c>
+      <c r="G54">
+        <v>5</v>
+      </c>
+      <c r="I54">
+        <v>48</v>
+      </c>
+      <c r="J54">
+        <v>42</v>
+      </c>
+      <c r="K54">
+        <v>4</v>
+      </c>
+      <c r="M54">
+        <v>48</v>
+      </c>
+      <c r="N54">
+        <v>31</v>
+      </c>
+      <c r="O54">
+        <v>5</v>
+      </c>
+      <c r="Q54">
+        <v>48</v>
+      </c>
+      <c r="R54">
+        <v>39</v>
+      </c>
+      <c r="S54">
+        <v>4</v>
+      </c>
+      <c r="U54">
+        <v>48</v>
+      </c>
+      <c r="V54">
+        <v>22</v>
+      </c>
+      <c r="W54">
+        <v>3</v>
+      </c>
+      <c r="Y54">
+        <v>48</v>
+      </c>
+      <c r="Z54">
+        <v>26</v>
+      </c>
+      <c r="AA54">
+        <v>3</v>
+      </c>
+      <c r="AC54">
+        <v>48</v>
+      </c>
+      <c r="AD54">
+        <v>31</v>
+      </c>
+      <c r="AE54">
+        <v>3</v>
+      </c>
+      <c r="AG54">
+        <v>48</v>
+      </c>
+      <c r="AH54">
+        <v>25</v>
+      </c>
+      <c r="AI54">
+        <v>3</v>
+      </c>
+      <c r="AK54">
+        <v>48</v>
+      </c>
+      <c r="AL54">
+        <v>18</v>
+      </c>
+      <c r="AM54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>49</v>
+      </c>
+      <c r="B55">
+        <v>26</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>49</v>
+      </c>
+      <c r="F55">
+        <v>32</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+      <c r="I55">
+        <v>49</v>
+      </c>
+      <c r="J55">
+        <v>43</v>
+      </c>
+      <c r="K55">
+        <v>5</v>
+      </c>
+      <c r="M55">
+        <v>49</v>
+      </c>
+      <c r="N55">
+        <v>31</v>
+      </c>
+      <c r="O55">
+        <v>4</v>
+      </c>
+      <c r="Q55">
+        <v>49</v>
+      </c>
+      <c r="R55">
+        <v>33</v>
+      </c>
+      <c r="S55">
+        <v>5</v>
+      </c>
+      <c r="U55">
+        <v>49</v>
+      </c>
+      <c r="V55">
+        <v>23</v>
+      </c>
+      <c r="W55">
+        <v>4</v>
+      </c>
+      <c r="Y55">
+        <v>49</v>
+      </c>
+      <c r="Z55">
+        <v>35</v>
+      </c>
+      <c r="AA55">
+        <v>4</v>
+      </c>
+      <c r="AC55">
+        <v>49</v>
+      </c>
+      <c r="AD55">
+        <v>18</v>
+      </c>
+      <c r="AE55">
+        <v>4</v>
+      </c>
+      <c r="AG55">
+        <v>49</v>
+      </c>
+      <c r="AH55">
+        <v>22</v>
+      </c>
+      <c r="AI55">
+        <v>4</v>
+      </c>
+      <c r="AK55">
+        <v>49</v>
+      </c>
+      <c r="AL55">
+        <v>28</v>
+      </c>
+      <c r="AM55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <f>AVERAGE(B41:B55)</f>
+        <v>23.6</v>
+      </c>
+      <c r="F57">
+        <f>AVERAGE(F41:F55)</f>
+        <v>32.133333333333333</v>
+      </c>
+      <c r="J57">
+        <f>AVERAGE(J41:J55)</f>
+        <v>45.266666666666666</v>
+      </c>
+      <c r="N57">
+        <f>AVERAGE(N41:N55)</f>
+        <v>28.733333333333334</v>
+      </c>
+      <c r="R57">
+        <f>AVERAGE(R41:R55)</f>
+        <v>32.266666666666666</v>
+      </c>
+      <c r="V57">
+        <f>AVERAGE(V41:V55)</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="Z57">
+        <f>AVERAGE(Z41:Z55)</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="AD57">
+        <f>AVERAGE(AD41:AD55)</f>
+        <v>25.2</v>
+      </c>
+      <c r="AH57">
+        <f>AVERAGE(AH41:AH55)</f>
+        <v>20.266666666666666</v>
+      </c>
+      <c r="AL57">
+        <f>AVERAGE(AL41:AL55)</f>
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <f>MEDIAN(B41:B55)</f>
+        <v>23</v>
+      </c>
+      <c r="F58">
+        <f>MEDIAN(F41:F55)</f>
+        <v>32</v>
+      </c>
+      <c r="J58">
+        <f>MEDIAN(J41:J55)</f>
+        <v>43</v>
+      </c>
+      <c r="N58">
+        <f>MEDIAN(N41:N55)</f>
+        <v>31</v>
+      </c>
+      <c r="R58">
+        <f>MEDIAN(R41:R55)</f>
+        <v>33</v>
+      </c>
+      <c r="V58">
+        <f>MEDIAN(V41:V55)</f>
+        <v>20</v>
+      </c>
+      <c r="Z58">
+        <f>MEDIAN(Z41:Z55)</f>
+        <v>26</v>
+      </c>
+      <c r="AD58">
+        <f>MEDIAN(AD41:AD55)</f>
+        <v>26</v>
+      </c>
+      <c r="AH58">
+        <f>MEDIAN(AH41:AH55)</f>
+        <v>21</v>
+      </c>
+      <c r="AL58">
+        <f>MEDIAN(AL41:AL55)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <f>STDEV(B41:B55)</f>
+        <v>5.8162334399997615</v>
+      </c>
+      <c r="F59">
+        <f>STDEV(F41:F55)</f>
+        <v>4.9261208538429795</v>
+      </c>
+      <c r="J59">
+        <f>STDEV(J41:J55)</f>
+        <v>5.9337613542780669</v>
+      </c>
+      <c r="N59">
+        <f>STDEV(N41:N55)</f>
+        <v>5.5480584334478955</v>
+      </c>
+      <c r="R59">
+        <f>STDEV(R41:R55)</f>
+        <v>6.5297852367512954</v>
+      </c>
+      <c r="V59">
+        <f>STDEV(V41:V55)</f>
+        <v>3.5213633723318054</v>
+      </c>
+      <c r="Z59">
+        <f>STDEV(Z41:Z55)</f>
+        <v>4.9377071987869456</v>
+      </c>
+      <c r="AD59">
+        <f>STDEV(AD41:AD55)</f>
+        <v>5.4537012333696016</v>
+      </c>
+      <c r="AH59">
+        <f>STDEV(AH41:AH55)</f>
+        <v>4.6822867835929838</v>
+      </c>
+      <c r="AL59">
+        <f>STDEV(AL41:AL55)</f>
+        <v>5.9377725501355201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AD61" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AW105"/>
+  <sheetViews>
+    <sheetView topLeftCell="AD1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AR105" sqref="AR105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14413,15 +19318,6 @@
         <f t="shared" ref="I54:I87" si="10">AV54</f>
         <v>22</v>
       </c>
-      <c r="K54">
-        <v>50</v>
-      </c>
-      <c r="L54">
-        <v>47</v>
-      </c>
-      <c r="M54">
-        <v>5</v>
-      </c>
       <c r="AQ54">
         <v>50</v>
       </c>
@@ -14450,14 +19346,33 @@
         <f t="shared" si="10"/>
         <v>23</v>
       </c>
-      <c r="K55">
-        <v>51</v>
-      </c>
       <c r="L55">
-        <v>35</v>
-      </c>
-      <c r="M55">
-        <v>3</v>
+        <f>AVERAGE(L39:L53)</f>
+        <v>32.666666666666664</v>
+      </c>
+      <c r="P55">
+        <f>AVERAGE(P39:P53)</f>
+        <v>43.93333333333333</v>
+      </c>
+      <c r="T55">
+        <f>AVERAGE(T39:T53)</f>
+        <v>42.6</v>
+      </c>
+      <c r="X55">
+        <f>AVERAGE(X39:X53)</f>
+        <v>42.266666666666666</v>
+      </c>
+      <c r="AB55">
+        <f>AVERAGE(AB39:AB53)</f>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="AF55">
+        <f>AVERAGE(AF39:AF53)</f>
+        <v>43.866666666666667</v>
+      </c>
+      <c r="AN55">
+        <f>AVERAGE(AN39:AN53)</f>
+        <v>31.6</v>
       </c>
       <c r="AQ55">
         <v>51</v>
@@ -14487,15 +19402,6 @@
         <f t="shared" si="10"/>
         <v>18</v>
       </c>
-      <c r="K56">
-        <v>52</v>
-      </c>
-      <c r="L56">
-        <v>30</v>
-      </c>
-      <c r="M56">
-        <v>4</v>
-      </c>
       <c r="AQ56">
         <v>52</v>
       </c>
@@ -14524,15 +19430,6 @@
         <f t="shared" si="10"/>
         <v>26</v>
       </c>
-      <c r="K57">
-        <v>53</v>
-      </c>
-      <c r="L57">
-        <v>36</v>
-      </c>
-      <c r="M57">
-        <v>5</v>
-      </c>
       <c r="AQ57">
         <v>53</v>
       </c>
@@ -15394,11 +20291,11 @@
     </row>
     <row r="88" spans="8:49" x14ac:dyDescent="0.3">
       <c r="H88">
-        <f t="shared" ref="H88:H112" si="11">AR88</f>
+        <f t="shared" ref="H88:H103" si="11">AR88</f>
         <v>32</v>
       </c>
       <c r="I88">
-        <f t="shared" ref="I88:I112" si="12">AV88</f>
+        <f t="shared" ref="I88:I103" si="12">AV88</f>
         <v>25</v>
       </c>
       <c r="AQ88">
@@ -15838,6 +20735,16 @@
       </c>
       <c r="AW103">
         <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="8:49" x14ac:dyDescent="0.3">
+      <c r="AR105">
+        <f>AVERAGE(AR54:AR103)</f>
+        <v>36.1</v>
+      </c>
+      <c r="AV105">
+        <f>AVERAGE(AV54:AV103)</f>
+        <v>25.74</v>
       </c>
     </row>
   </sheetData>
@@ -15847,7 +20754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO102"/>
   <sheetViews>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="65">
   <si>
     <t>Pnt Xover</t>
   </si>
@@ -217,11 +217,20 @@
   <si>
     <t>Xover: 90%</t>
   </si>
+  <si>
+    <t xml:space="preserve">Mut: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xover: </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -259,10 +268,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2373,11 +2384,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="791903320"/>
-        <c:axId val="791900576"/>
+        <c:axId val="1585208688"/>
+        <c:axId val="1585211040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="791903320"/>
+        <c:axId val="1585208688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2419,7 +2430,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="791900576"/>
+        <c:crossAx val="1585211040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2427,7 +2438,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="791900576"/>
+        <c:axId val="1585211040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2478,7 +2489,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="791903320"/>
+        <c:crossAx val="1585208688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2889,11 +2900,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="791897048"/>
-        <c:axId val="791899400"/>
+        <c:axId val="1585211824"/>
+        <c:axId val="1585209472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="791897048"/>
+        <c:axId val="1585211824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2935,7 +2946,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="791899400"/>
+        <c:crossAx val="1585209472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2943,7 +2954,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="791899400"/>
+        <c:axId val="1585209472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2994,7 +3005,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="791897048"/>
+        <c:crossAx val="1585211824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3375,11 +3386,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="791895480"/>
-        <c:axId val="791896264"/>
+        <c:axId val="1585086776"/>
+        <c:axId val="1585087168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="791895480"/>
+        <c:axId val="1585086776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3421,7 +3432,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="791896264"/>
+        <c:crossAx val="1585087168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3429,7 +3440,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="791896264"/>
+        <c:axId val="1585087168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3480,7 +3491,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="791895480"/>
+        <c:crossAx val="1585086776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5607,11 +5618,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="791897440"/>
-        <c:axId val="791899792"/>
+        <c:axId val="1585090696"/>
+        <c:axId val="1585084424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="791897440"/>
+        <c:axId val="1585090696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5653,7 +5664,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="791899792"/>
+        <c:crossAx val="1585084424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5661,7 +5672,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="791899792"/>
+        <c:axId val="1585084424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5712,7 +5723,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="791897440"/>
+        <c:crossAx val="1585090696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8036,7 +8047,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F9D750E-EDF1-437F-82E2-A651B7C726A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F9D750E-EDF1-437F-82E2-A651B7C726A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8077,7 +8088,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C5FA76-4716-46CF-A386-97C83E70700A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C5FA76-4716-46CF-A386-97C83E70700A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8113,7 +8124,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E242ABE2-DF26-4730-B37A-F8EA8C4059CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E242ABE2-DF26-4730-B37A-F8EA8C4059CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8149,7 +8160,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5840B41-17D0-4972-AA5C-E1F29FD09A19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C5840B41-17D0-4972-AA5C-E1F29FD09A19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8467,83 +8478,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI6"/>
+  <dimension ref="A1:CE64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BI7" sqref="BI7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="M1" t="s">
         <v>28</v>
       </c>
       <c r="Y1" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>28</v>
       </c>
+      <c r="AW1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="M2" t="s">
         <v>27</v>
       </c>
       <c r="Y2" t="s">
         <v>27</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>27</v>
       </c>
+      <c r="AW2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>58</v>
       </c>
-      <c r="I3" t="s">
+      <c r="M3" t="s">
         <v>59</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Y3" t="s">
         <v>60</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AK3" t="s">
         <v>58</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AW3" t="s">
         <v>58</v>
       </c>
+      <c r="BI3" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>57</v>
       </c>
-      <c r="I4" t="s">
+      <c r="M4" t="s">
         <v>57</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Y4" t="s">
         <v>57</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AK4" t="s">
         <v>61</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AW4" t="s">
         <v>62</v>
       </c>
+      <c r="BI4" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -8592,9 +8619,7394 @@
       <c r="BI6" t="s">
         <v>37</v>
       </c>
+      <c r="BM6" t="s">
+        <v>37</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>37</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>37</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>6</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>3</v>
+      </c>
+      <c r="AA7">
+        <v>2</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>4</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>8</v>
+      </c>
+      <c r="AI7">
+        <v>2</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>8</v>
+      </c>
+      <c r="AM7">
+        <v>2</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>7</v>
+      </c>
+      <c r="AQ7">
+        <v>2</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>5</v>
+      </c>
+      <c r="AU7">
+        <v>1</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>4</v>
+      </c>
+      <c r="AY7">
+        <v>1</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>4</v>
+      </c>
+      <c r="BC7">
+        <v>2</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>4</v>
+      </c>
+      <c r="BG7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>7</v>
+      </c>
+      <c r="AA8">
+        <v>2</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>4</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>12</v>
+      </c>
+      <c r="AI8">
+        <v>4</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>6</v>
+      </c>
+      <c r="AM8">
+        <v>2</v>
+      </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
+      <c r="AP8">
+        <v>9</v>
+      </c>
+      <c r="AQ8">
+        <v>3</v>
+      </c>
+      <c r="AS8">
+        <v>1</v>
+      </c>
+      <c r="AT8">
+        <v>7</v>
+      </c>
+      <c r="AU8">
+        <v>2</v>
+      </c>
+      <c r="AW8">
+        <v>1</v>
+      </c>
+      <c r="AX8">
+        <v>10</v>
+      </c>
+      <c r="AY8">
+        <v>3</v>
+      </c>
+      <c r="BA8">
+        <v>1</v>
+      </c>
+      <c r="BB8">
+        <v>2</v>
+      </c>
+      <c r="BC8">
+        <v>1</v>
+      </c>
+      <c r="BE8">
+        <v>1</v>
+      </c>
+      <c r="BF8">
+        <v>4</v>
+      </c>
+      <c r="BG8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>10</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="R9">
+        <v>9</v>
+      </c>
+      <c r="S9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <v>11</v>
+      </c>
+      <c r="W9">
+        <v>3</v>
+      </c>
+      <c r="Y9">
+        <v>2</v>
+      </c>
+      <c r="Z9">
+        <v>3</v>
+      </c>
+      <c r="AA9">
+        <v>2</v>
+      </c>
+      <c r="AC9">
+        <v>2</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <v>2</v>
+      </c>
+      <c r="AH9">
+        <v>10</v>
+      </c>
+      <c r="AI9">
+        <v>3</v>
+      </c>
+      <c r="AK9">
+        <v>2</v>
+      </c>
+      <c r="AL9">
+        <v>4</v>
+      </c>
+      <c r="AM9">
+        <v>2</v>
+      </c>
+      <c r="AO9">
+        <v>2</v>
+      </c>
+      <c r="AP9">
+        <v>20</v>
+      </c>
+      <c r="AQ9">
+        <v>4</v>
+      </c>
+      <c r="AS9">
+        <v>2</v>
+      </c>
+      <c r="AT9">
+        <v>5</v>
+      </c>
+      <c r="AU9">
+        <v>2</v>
+      </c>
+      <c r="AW9">
+        <v>2</v>
+      </c>
+      <c r="AX9">
+        <v>4</v>
+      </c>
+      <c r="AY9">
+        <v>1</v>
+      </c>
+      <c r="BA9">
+        <v>2</v>
+      </c>
+      <c r="BB9">
+        <v>3</v>
+      </c>
+      <c r="BC9">
+        <v>1</v>
+      </c>
+      <c r="BE9">
+        <v>2</v>
+      </c>
+      <c r="BF9">
+        <v>12</v>
+      </c>
+      <c r="BG9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>19</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>6</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>12</v>
+      </c>
+      <c r="S10">
+        <v>4</v>
+      </c>
+      <c r="U10">
+        <v>3</v>
+      </c>
+      <c r="V10">
+        <v>8</v>
+      </c>
+      <c r="W10">
+        <v>2</v>
+      </c>
+      <c r="Y10">
+        <v>3</v>
+      </c>
+      <c r="Z10">
+        <v>15</v>
+      </c>
+      <c r="AA10">
+        <v>4</v>
+      </c>
+      <c r="AC10">
+        <v>3</v>
+      </c>
+      <c r="AD10">
+        <v>8</v>
+      </c>
+      <c r="AE10">
+        <v>2</v>
+      </c>
+      <c r="AG10">
+        <v>3</v>
+      </c>
+      <c r="AH10">
+        <v>16</v>
+      </c>
+      <c r="AI10">
+        <v>3</v>
+      </c>
+      <c r="AK10">
+        <v>3</v>
+      </c>
+      <c r="AL10">
+        <v>6</v>
+      </c>
+      <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
+        <v>3</v>
+      </c>
+      <c r="AP10">
+        <v>29</v>
+      </c>
+      <c r="AQ10">
+        <v>4</v>
+      </c>
+      <c r="AS10">
+        <v>3</v>
+      </c>
+      <c r="AT10">
+        <v>8</v>
+      </c>
+      <c r="AU10">
+        <v>4</v>
+      </c>
+      <c r="AW10">
+        <v>3</v>
+      </c>
+      <c r="AX10">
+        <v>9</v>
+      </c>
+      <c r="AY10">
+        <v>3</v>
+      </c>
+      <c r="BA10">
+        <v>3</v>
+      </c>
+      <c r="BB10">
+        <v>6</v>
+      </c>
+      <c r="BC10">
+        <v>2</v>
+      </c>
+      <c r="BE10">
+        <v>3</v>
+      </c>
+      <c r="BF10">
+        <v>16</v>
+      </c>
+      <c r="BG10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>38</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>9</v>
+      </c>
+      <c r="O11">
+        <v>4</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <v>13</v>
+      </c>
+      <c r="S11">
+        <v>4</v>
+      </c>
+      <c r="U11">
+        <v>4</v>
+      </c>
+      <c r="V11">
+        <v>17</v>
+      </c>
+      <c r="W11">
+        <v>3</v>
+      </c>
+      <c r="Y11">
+        <v>4</v>
+      </c>
+      <c r="Z11">
+        <v>21</v>
+      </c>
+      <c r="AA11">
+        <v>3</v>
+      </c>
+      <c r="AC11">
+        <v>4</v>
+      </c>
+      <c r="AD11">
+        <v>27</v>
+      </c>
+      <c r="AE11">
+        <v>5</v>
+      </c>
+      <c r="AG11">
+        <v>4</v>
+      </c>
+      <c r="AH11">
+        <v>20</v>
+      </c>
+      <c r="AI11">
+        <v>3</v>
+      </c>
+      <c r="AK11">
+        <v>4</v>
+      </c>
+      <c r="AL11">
+        <v>3</v>
+      </c>
+      <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
+        <v>4</v>
+      </c>
+      <c r="AP11">
+        <v>36</v>
+      </c>
+      <c r="AQ11">
+        <v>4</v>
+      </c>
+      <c r="AS11">
+        <v>4</v>
+      </c>
+      <c r="AT11">
+        <v>12</v>
+      </c>
+      <c r="AU11">
+        <v>5</v>
+      </c>
+      <c r="AW11">
+        <v>4</v>
+      </c>
+      <c r="AX11">
+        <v>15</v>
+      </c>
+      <c r="AY11">
+        <v>3</v>
+      </c>
+      <c r="BA11">
+        <v>4</v>
+      </c>
+      <c r="BB11">
+        <v>7</v>
+      </c>
+      <c r="BC11">
+        <v>2</v>
+      </c>
+      <c r="BE11">
+        <v>4</v>
+      </c>
+      <c r="BF11">
+        <v>33</v>
+      </c>
+      <c r="BG11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>45</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>23</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+      <c r="R12">
+        <v>17</v>
+      </c>
+      <c r="S12">
+        <v>3</v>
+      </c>
+      <c r="U12">
+        <v>5</v>
+      </c>
+      <c r="V12">
+        <v>22</v>
+      </c>
+      <c r="W12">
+        <v>4</v>
+      </c>
+      <c r="Y12">
+        <v>5</v>
+      </c>
+      <c r="Z12">
+        <v>39</v>
+      </c>
+      <c r="AA12">
+        <v>4</v>
+      </c>
+      <c r="AC12">
+        <v>5</v>
+      </c>
+      <c r="AD12">
+        <v>29</v>
+      </c>
+      <c r="AE12">
+        <v>3</v>
+      </c>
+      <c r="AG12">
+        <v>5</v>
+      </c>
+      <c r="AH12">
+        <v>49</v>
+      </c>
+      <c r="AI12">
+        <v>5</v>
+      </c>
+      <c r="AK12">
+        <v>5</v>
+      </c>
+      <c r="AL12">
+        <v>14</v>
+      </c>
+      <c r="AM12">
+        <v>3</v>
+      </c>
+      <c r="AO12">
+        <v>5</v>
+      </c>
+      <c r="AP12">
+        <v>38</v>
+      </c>
+      <c r="AQ12">
+        <v>5</v>
+      </c>
+      <c r="AS12">
+        <v>5</v>
+      </c>
+      <c r="AT12">
+        <v>10</v>
+      </c>
+      <c r="AU12">
+        <v>2</v>
+      </c>
+      <c r="AW12">
+        <v>5</v>
+      </c>
+      <c r="AX12">
+        <v>19</v>
+      </c>
+      <c r="AY12">
+        <v>4</v>
+      </c>
+      <c r="BA12">
+        <v>5</v>
+      </c>
+      <c r="BB12">
+        <v>4</v>
+      </c>
+      <c r="BC12">
+        <v>2</v>
+      </c>
+      <c r="BE12">
+        <v>5</v>
+      </c>
+      <c r="BF12">
+        <v>37</v>
+      </c>
+      <c r="BG12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>52</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>6</v>
+      </c>
+      <c r="N13">
+        <v>11</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
+        <v>6</v>
+      </c>
+      <c r="R13">
+        <v>40</v>
+      </c>
+      <c r="S13">
+        <v>4</v>
+      </c>
+      <c r="U13">
+        <v>6</v>
+      </c>
+      <c r="V13">
+        <v>43</v>
+      </c>
+      <c r="W13">
+        <v>5</v>
+      </c>
+      <c r="Y13">
+        <v>6</v>
+      </c>
+      <c r="Z13">
+        <v>35</v>
+      </c>
+      <c r="AA13">
+        <v>5</v>
+      </c>
+      <c r="AC13">
+        <v>6</v>
+      </c>
+      <c r="AD13">
+        <v>33</v>
+      </c>
+      <c r="AE13">
+        <v>4</v>
+      </c>
+      <c r="AG13">
+        <v>6</v>
+      </c>
+      <c r="AH13">
+        <v>52</v>
+      </c>
+      <c r="AI13">
+        <v>4</v>
+      </c>
+      <c r="AK13">
+        <v>6</v>
+      </c>
+      <c r="AL13">
+        <v>4</v>
+      </c>
+      <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
+        <v>6</v>
+      </c>
+      <c r="AP13">
+        <v>48</v>
+      </c>
+      <c r="AQ13">
+        <v>4</v>
+      </c>
+      <c r="AS13">
+        <v>6</v>
+      </c>
+      <c r="AT13">
+        <v>18</v>
+      </c>
+      <c r="AU13">
+        <v>3</v>
+      </c>
+      <c r="AW13">
+        <v>6</v>
+      </c>
+      <c r="AX13">
+        <v>37</v>
+      </c>
+      <c r="AY13">
+        <v>4</v>
+      </c>
+      <c r="BA13">
+        <v>6</v>
+      </c>
+      <c r="BB13">
+        <v>1</v>
+      </c>
+      <c r="BC13">
+        <v>1</v>
+      </c>
+      <c r="BE13">
+        <v>6</v>
+      </c>
+      <c r="BF13">
+        <v>50</v>
+      </c>
+      <c r="BG13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>38</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>48</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <v>25</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>7</v>
+      </c>
+      <c r="N14">
+        <v>32</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="Q14">
+        <v>7</v>
+      </c>
+      <c r="R14">
+        <v>37</v>
+      </c>
+      <c r="S14">
+        <v>3</v>
+      </c>
+      <c r="U14">
+        <v>7</v>
+      </c>
+      <c r="V14">
+        <v>44</v>
+      </c>
+      <c r="W14">
+        <v>5</v>
+      </c>
+      <c r="Y14">
+        <v>7</v>
+      </c>
+      <c r="Z14">
+        <v>54</v>
+      </c>
+      <c r="AA14">
+        <v>5</v>
+      </c>
+      <c r="AC14">
+        <v>7</v>
+      </c>
+      <c r="AD14">
+        <v>53</v>
+      </c>
+      <c r="AE14">
+        <v>4</v>
+      </c>
+      <c r="AG14">
+        <v>7</v>
+      </c>
+      <c r="AH14">
+        <v>48</v>
+      </c>
+      <c r="AI14">
+        <v>5</v>
+      </c>
+      <c r="AK14">
+        <v>7</v>
+      </c>
+      <c r="AL14">
+        <v>3</v>
+      </c>
+      <c r="AM14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
+        <v>7</v>
+      </c>
+      <c r="AP14">
+        <v>39</v>
+      </c>
+      <c r="AQ14">
+        <v>5</v>
+      </c>
+      <c r="AS14">
+        <v>7</v>
+      </c>
+      <c r="AT14">
+        <v>16</v>
+      </c>
+      <c r="AU14">
+        <v>3</v>
+      </c>
+      <c r="AW14">
+        <v>7</v>
+      </c>
+      <c r="AX14">
+        <v>47</v>
+      </c>
+      <c r="AY14">
+        <v>4</v>
+      </c>
+      <c r="BA14">
+        <v>7</v>
+      </c>
+      <c r="BB14">
+        <v>4</v>
+      </c>
+      <c r="BC14">
+        <v>2</v>
+      </c>
+      <c r="BE14">
+        <v>7</v>
+      </c>
+      <c r="BF14">
+        <v>54</v>
+      </c>
+      <c r="BG14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>45</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>55</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>20</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>8</v>
+      </c>
+      <c r="N15">
+        <v>18</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <v>8</v>
+      </c>
+      <c r="R15">
+        <v>62</v>
+      </c>
+      <c r="S15">
+        <v>5</v>
+      </c>
+      <c r="U15">
+        <v>8</v>
+      </c>
+      <c r="V15">
+        <v>49</v>
+      </c>
+      <c r="W15">
+        <v>4</v>
+      </c>
+      <c r="Y15">
+        <v>8</v>
+      </c>
+      <c r="Z15">
+        <v>43</v>
+      </c>
+      <c r="AA15">
+        <v>6</v>
+      </c>
+      <c r="AC15">
+        <v>8</v>
+      </c>
+      <c r="AD15">
+        <v>30</v>
+      </c>
+      <c r="AE15">
+        <v>3</v>
+      </c>
+      <c r="AG15">
+        <v>8</v>
+      </c>
+      <c r="AH15">
+        <v>52</v>
+      </c>
+      <c r="AI15">
+        <v>5</v>
+      </c>
+      <c r="AK15">
+        <v>8</v>
+      </c>
+      <c r="AL15">
+        <v>2</v>
+      </c>
+      <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
+        <v>8</v>
+      </c>
+      <c r="AP15">
+        <v>36</v>
+      </c>
+      <c r="AQ15">
+        <v>6</v>
+      </c>
+      <c r="AS15">
+        <v>8</v>
+      </c>
+      <c r="AT15">
+        <v>34</v>
+      </c>
+      <c r="AU15">
+        <v>4</v>
+      </c>
+      <c r="AW15">
+        <v>8</v>
+      </c>
+      <c r="AX15">
+        <v>44</v>
+      </c>
+      <c r="AY15">
+        <v>6</v>
+      </c>
+      <c r="BA15">
+        <v>8</v>
+      </c>
+      <c r="BB15">
+        <v>5</v>
+      </c>
+      <c r="BC15">
+        <v>2</v>
+      </c>
+      <c r="BE15">
+        <v>8</v>
+      </c>
+      <c r="BF15">
+        <v>49</v>
+      </c>
+      <c r="BG15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>48</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>9</v>
+      </c>
+      <c r="J16">
+        <v>40</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="M16">
+        <v>9</v>
+      </c>
+      <c r="N16">
+        <v>26</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="Q16">
+        <v>9</v>
+      </c>
+      <c r="R16">
+        <v>48</v>
+      </c>
+      <c r="S16">
+        <v>7</v>
+      </c>
+      <c r="U16">
+        <v>9</v>
+      </c>
+      <c r="V16">
+        <v>46</v>
+      </c>
+      <c r="W16">
+        <v>4</v>
+      </c>
+      <c r="Y16">
+        <v>9</v>
+      </c>
+      <c r="Z16">
+        <v>45</v>
+      </c>
+      <c r="AA16">
+        <v>4</v>
+      </c>
+      <c r="AC16">
+        <v>9</v>
+      </c>
+      <c r="AD16">
+        <v>52</v>
+      </c>
+      <c r="AE16">
+        <v>5</v>
+      </c>
+      <c r="AG16">
+        <v>9</v>
+      </c>
+      <c r="AH16">
+        <v>38</v>
+      </c>
+      <c r="AI16">
+        <v>3</v>
+      </c>
+      <c r="AK16">
+        <v>9</v>
+      </c>
+      <c r="AL16">
+        <v>7</v>
+      </c>
+      <c r="AM16">
+        <v>3</v>
+      </c>
+      <c r="AO16">
+        <v>9</v>
+      </c>
+      <c r="AP16">
+        <v>37</v>
+      </c>
+      <c r="AQ16">
+        <v>5</v>
+      </c>
+      <c r="AS16">
+        <v>9</v>
+      </c>
+      <c r="AT16">
+        <v>25</v>
+      </c>
+      <c r="AU16">
+        <v>4</v>
+      </c>
+      <c r="AW16">
+        <v>9</v>
+      </c>
+      <c r="AX16">
+        <v>66</v>
+      </c>
+      <c r="AY16">
+        <v>5</v>
+      </c>
+      <c r="BA16">
+        <v>9</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>9</v>
+      </c>
+      <c r="BF16">
+        <v>41</v>
+      </c>
+      <c r="BG16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>51</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>43</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>37</v>
+      </c>
+      <c r="K17">
+        <v>6</v>
+      </c>
+      <c r="M17">
+        <v>10</v>
+      </c>
+      <c r="N17">
+        <v>25</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="Q17">
+        <v>10</v>
+      </c>
+      <c r="R17">
+        <v>49</v>
+      </c>
+      <c r="S17">
+        <v>5</v>
+      </c>
+      <c r="U17">
+        <v>10</v>
+      </c>
+      <c r="V17">
+        <v>43</v>
+      </c>
+      <c r="W17">
+        <v>3</v>
+      </c>
+      <c r="Y17">
+        <v>10</v>
+      </c>
+      <c r="Z17">
+        <v>57</v>
+      </c>
+      <c r="AA17">
+        <v>5</v>
+      </c>
+      <c r="AC17">
+        <v>10</v>
+      </c>
+      <c r="AD17">
+        <v>50</v>
+      </c>
+      <c r="AE17">
+        <v>4</v>
+      </c>
+      <c r="AG17">
+        <v>10</v>
+      </c>
+      <c r="AH17">
+        <v>41</v>
+      </c>
+      <c r="AI17">
+        <v>5</v>
+      </c>
+      <c r="AK17">
+        <v>10</v>
+      </c>
+      <c r="AL17">
+        <v>16</v>
+      </c>
+      <c r="AM17">
+        <v>3</v>
+      </c>
+      <c r="AO17">
+        <v>10</v>
+      </c>
+      <c r="AP17">
+        <v>39</v>
+      </c>
+      <c r="AQ17">
+        <v>5</v>
+      </c>
+      <c r="AS17">
+        <v>10</v>
+      </c>
+      <c r="AT17">
+        <v>31</v>
+      </c>
+      <c r="AU17">
+        <v>4</v>
+      </c>
+      <c r="AW17">
+        <v>10</v>
+      </c>
+      <c r="AX17">
+        <v>36</v>
+      </c>
+      <c r="AY17">
+        <v>3</v>
+      </c>
+      <c r="BA17">
+        <v>10</v>
+      </c>
+      <c r="BB17">
+        <v>1</v>
+      </c>
+      <c r="BC17">
+        <v>1</v>
+      </c>
+      <c r="BE17">
+        <v>10</v>
+      </c>
+      <c r="BF17">
+        <v>43</v>
+      </c>
+      <c r="BG17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>46</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <v>47</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="I18">
+        <v>11</v>
+      </c>
+      <c r="J18">
+        <v>28</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>11</v>
+      </c>
+      <c r="N18">
+        <v>11</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
+      </c>
+      <c r="Q18">
+        <v>11</v>
+      </c>
+      <c r="R18">
+        <v>43</v>
+      </c>
+      <c r="S18">
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <v>11</v>
+      </c>
+      <c r="V18">
+        <v>46</v>
+      </c>
+      <c r="W18">
+        <v>5</v>
+      </c>
+      <c r="Y18">
+        <v>11</v>
+      </c>
+      <c r="Z18">
+        <v>33</v>
+      </c>
+      <c r="AA18">
+        <v>4</v>
+      </c>
+      <c r="AC18">
+        <v>11</v>
+      </c>
+      <c r="AD18">
+        <v>55</v>
+      </c>
+      <c r="AE18">
+        <v>4</v>
+      </c>
+      <c r="AG18">
+        <v>11</v>
+      </c>
+      <c r="AH18">
+        <v>54</v>
+      </c>
+      <c r="AI18">
+        <v>5</v>
+      </c>
+      <c r="AK18">
+        <v>11</v>
+      </c>
+      <c r="AL18">
+        <v>29</v>
+      </c>
+      <c r="AM18">
+        <v>4</v>
+      </c>
+      <c r="AO18">
+        <v>11</v>
+      </c>
+      <c r="AP18">
+        <v>48</v>
+      </c>
+      <c r="AQ18">
+        <v>4</v>
+      </c>
+      <c r="AS18">
+        <v>11</v>
+      </c>
+      <c r="AT18">
+        <v>36</v>
+      </c>
+      <c r="AU18">
+        <v>4</v>
+      </c>
+      <c r="AW18">
+        <v>11</v>
+      </c>
+      <c r="AX18">
+        <v>41</v>
+      </c>
+      <c r="AY18">
+        <v>3</v>
+      </c>
+      <c r="BA18">
+        <v>11</v>
+      </c>
+      <c r="BB18">
+        <v>1</v>
+      </c>
+      <c r="BC18">
+        <v>1</v>
+      </c>
+      <c r="BE18">
+        <v>11</v>
+      </c>
+      <c r="BF18">
+        <v>54</v>
+      </c>
+      <c r="BG18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>40</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>12</v>
+      </c>
+      <c r="J19">
+        <v>42</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <v>12</v>
+      </c>
+      <c r="N19">
+        <v>11</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="Q19">
+        <v>12</v>
+      </c>
+      <c r="R19">
+        <v>49</v>
+      </c>
+      <c r="S19">
+        <v>5</v>
+      </c>
+      <c r="U19">
+        <v>12</v>
+      </c>
+      <c r="V19">
+        <v>38</v>
+      </c>
+      <c r="W19">
+        <v>4</v>
+      </c>
+      <c r="Y19">
+        <v>12</v>
+      </c>
+      <c r="Z19">
+        <v>45</v>
+      </c>
+      <c r="AA19">
+        <v>6</v>
+      </c>
+      <c r="AC19">
+        <v>12</v>
+      </c>
+      <c r="AD19">
+        <v>54</v>
+      </c>
+      <c r="AE19">
+        <v>5</v>
+      </c>
+      <c r="AG19">
+        <v>12</v>
+      </c>
+      <c r="AH19">
+        <v>38</v>
+      </c>
+      <c r="AI19">
+        <v>3</v>
+      </c>
+      <c r="AK19">
+        <v>12</v>
+      </c>
+      <c r="AL19">
+        <v>18</v>
+      </c>
+      <c r="AM19">
+        <v>3</v>
+      </c>
+      <c r="AO19">
+        <v>12</v>
+      </c>
+      <c r="AP19">
+        <v>55</v>
+      </c>
+      <c r="AQ19">
+        <v>5</v>
+      </c>
+      <c r="AS19">
+        <v>12</v>
+      </c>
+      <c r="AT19">
+        <v>55</v>
+      </c>
+      <c r="AU19">
+        <v>6</v>
+      </c>
+      <c r="AW19">
+        <v>12</v>
+      </c>
+      <c r="AX19">
+        <v>45</v>
+      </c>
+      <c r="AY19">
+        <v>4</v>
+      </c>
+      <c r="BA19">
+        <v>12</v>
+      </c>
+      <c r="BB19">
+        <v>5</v>
+      </c>
+      <c r="BC19">
+        <v>3</v>
+      </c>
+      <c r="BE19">
+        <v>12</v>
+      </c>
+      <c r="BF19">
+        <v>42</v>
+      </c>
+      <c r="BG19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>39</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>13</v>
+      </c>
+      <c r="F20">
+        <v>44</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>13</v>
+      </c>
+      <c r="J20">
+        <v>53</v>
+      </c>
+      <c r="K20">
+        <v>6</v>
+      </c>
+      <c r="M20">
+        <v>13</v>
+      </c>
+      <c r="N20">
+        <v>18</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <v>13</v>
+      </c>
+      <c r="R20">
+        <v>38</v>
+      </c>
+      <c r="S20">
+        <v>5</v>
+      </c>
+      <c r="U20">
+        <v>13</v>
+      </c>
+      <c r="V20">
+        <v>53</v>
+      </c>
+      <c r="W20">
+        <v>6</v>
+      </c>
+      <c r="Y20">
+        <v>13</v>
+      </c>
+      <c r="Z20">
+        <v>52</v>
+      </c>
+      <c r="AA20">
+        <v>3</v>
+      </c>
+      <c r="AC20">
+        <v>13</v>
+      </c>
+      <c r="AD20">
+        <v>44</v>
+      </c>
+      <c r="AE20">
+        <v>5</v>
+      </c>
+      <c r="AG20">
+        <v>13</v>
+      </c>
+      <c r="AH20">
+        <v>47</v>
+      </c>
+      <c r="AI20">
+        <v>5</v>
+      </c>
+      <c r="AK20">
+        <v>13</v>
+      </c>
+      <c r="AL20">
+        <v>18</v>
+      </c>
+      <c r="AM20">
+        <v>3</v>
+      </c>
+      <c r="AO20">
+        <v>13</v>
+      </c>
+      <c r="AP20">
+        <v>46</v>
+      </c>
+      <c r="AQ20">
+        <v>4</v>
+      </c>
+      <c r="AS20">
+        <v>13</v>
+      </c>
+      <c r="AT20">
+        <v>45</v>
+      </c>
+      <c r="AU20">
+        <v>4</v>
+      </c>
+      <c r="AW20">
+        <v>13</v>
+      </c>
+      <c r="AX20">
+        <v>46</v>
+      </c>
+      <c r="AY20">
+        <v>5</v>
+      </c>
+      <c r="BA20">
+        <v>13</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20">
+        <v>0</v>
+      </c>
+      <c r="BE20">
+        <v>13</v>
+      </c>
+      <c r="BF20">
+        <v>40</v>
+      </c>
+      <c r="BG20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>39</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>14</v>
+      </c>
+      <c r="F21">
+        <v>48</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>14</v>
+      </c>
+      <c r="J21">
+        <v>37</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>14</v>
+      </c>
+      <c r="N21">
+        <v>16</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="Q21">
+        <v>14</v>
+      </c>
+      <c r="R21">
+        <v>38</v>
+      </c>
+      <c r="S21">
+        <v>5</v>
+      </c>
+      <c r="U21">
+        <v>14</v>
+      </c>
+      <c r="V21">
+        <v>54</v>
+      </c>
+      <c r="W21">
+        <v>6</v>
+      </c>
+      <c r="Y21">
+        <v>14</v>
+      </c>
+      <c r="Z21">
+        <v>50</v>
+      </c>
+      <c r="AA21">
+        <v>4</v>
+      </c>
+      <c r="AC21">
+        <v>14</v>
+      </c>
+      <c r="AD21">
+        <v>41</v>
+      </c>
+      <c r="AE21">
+        <v>3</v>
+      </c>
+      <c r="AG21">
+        <v>14</v>
+      </c>
+      <c r="AH21">
+        <v>45</v>
+      </c>
+      <c r="AI21">
+        <v>4</v>
+      </c>
+      <c r="AK21">
+        <v>14</v>
+      </c>
+      <c r="AL21">
+        <v>39</v>
+      </c>
+      <c r="AM21">
+        <v>5</v>
+      </c>
+      <c r="AO21">
+        <v>14</v>
+      </c>
+      <c r="AP21">
+        <v>39</v>
+      </c>
+      <c r="AQ21">
+        <v>4</v>
+      </c>
+      <c r="AS21">
+        <v>14</v>
+      </c>
+      <c r="AT21">
+        <v>55</v>
+      </c>
+      <c r="AU21">
+        <v>5</v>
+      </c>
+      <c r="AW21">
+        <v>14</v>
+      </c>
+      <c r="AX21">
+        <v>47</v>
+      </c>
+      <c r="AY21">
+        <v>5</v>
+      </c>
+      <c r="BA21">
+        <v>14</v>
+      </c>
+      <c r="BB21">
+        <v>2</v>
+      </c>
+      <c r="BC21">
+        <v>1</v>
+      </c>
+      <c r="BE21">
+        <v>14</v>
+      </c>
+      <c r="BF21">
+        <v>61</v>
+      </c>
+      <c r="BG21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>45</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <v>39</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+      <c r="I22">
+        <v>15</v>
+      </c>
+      <c r="J22">
+        <v>44</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <v>15</v>
+      </c>
+      <c r="N22">
+        <v>19</v>
+      </c>
+      <c r="O22">
+        <v>3</v>
+      </c>
+      <c r="Q22">
+        <v>15</v>
+      </c>
+      <c r="R22">
+        <v>51</v>
+      </c>
+      <c r="S22">
+        <v>5</v>
+      </c>
+      <c r="U22">
+        <v>15</v>
+      </c>
+      <c r="V22">
+        <v>42</v>
+      </c>
+      <c r="W22">
+        <v>3</v>
+      </c>
+      <c r="Y22">
+        <v>15</v>
+      </c>
+      <c r="Z22">
+        <v>51</v>
+      </c>
+      <c r="AA22">
+        <v>4</v>
+      </c>
+      <c r="AC22">
+        <v>15</v>
+      </c>
+      <c r="AD22">
+        <v>52</v>
+      </c>
+      <c r="AE22">
+        <v>5</v>
+      </c>
+      <c r="AG22">
+        <v>15</v>
+      </c>
+      <c r="AH22">
+        <v>45</v>
+      </c>
+      <c r="AI22">
+        <v>5</v>
+      </c>
+      <c r="AK22">
+        <v>15</v>
+      </c>
+      <c r="AL22">
+        <v>42</v>
+      </c>
+      <c r="AM22">
+        <v>4</v>
+      </c>
+      <c r="AO22">
+        <v>15</v>
+      </c>
+      <c r="AP22">
+        <v>48</v>
+      </c>
+      <c r="AQ22">
+        <v>4</v>
+      </c>
+      <c r="AS22">
+        <v>15</v>
+      </c>
+      <c r="AT22">
+        <v>54</v>
+      </c>
+      <c r="AU22">
+        <v>6</v>
+      </c>
+      <c r="AW22">
+        <v>15</v>
+      </c>
+      <c r="AX22">
+        <v>56</v>
+      </c>
+      <c r="AY22">
+        <v>7</v>
+      </c>
+      <c r="BA22">
+        <v>15</v>
+      </c>
+      <c r="BB22">
+        <v>1</v>
+      </c>
+      <c r="BC22">
+        <v>1</v>
+      </c>
+      <c r="BE22">
+        <v>15</v>
+      </c>
+      <c r="BF22">
+        <v>36</v>
+      </c>
+      <c r="BG22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>40</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>16</v>
+      </c>
+      <c r="F23">
+        <v>38</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>16</v>
+      </c>
+      <c r="J23">
+        <v>44</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <v>16</v>
+      </c>
+      <c r="N23">
+        <v>23</v>
+      </c>
+      <c r="O23">
+        <v>4</v>
+      </c>
+      <c r="Q23">
+        <v>16</v>
+      </c>
+      <c r="R23">
+        <v>47</v>
+      </c>
+      <c r="S23">
+        <v>4</v>
+      </c>
+      <c r="U23">
+        <v>16</v>
+      </c>
+      <c r="V23">
+        <v>54</v>
+      </c>
+      <c r="W23">
+        <v>5</v>
+      </c>
+      <c r="Y23">
+        <v>16</v>
+      </c>
+      <c r="Z23">
+        <v>50</v>
+      </c>
+      <c r="AA23">
+        <v>5</v>
+      </c>
+      <c r="AC23">
+        <v>16</v>
+      </c>
+      <c r="AD23">
+        <v>59</v>
+      </c>
+      <c r="AE23">
+        <v>4</v>
+      </c>
+      <c r="AG23">
+        <v>16</v>
+      </c>
+      <c r="AH23">
+        <v>50</v>
+      </c>
+      <c r="AI23">
+        <v>6</v>
+      </c>
+      <c r="AK23">
+        <v>16</v>
+      </c>
+      <c r="AL23">
+        <v>53</v>
+      </c>
+      <c r="AM23">
+        <v>4</v>
+      </c>
+      <c r="AO23">
+        <v>16</v>
+      </c>
+      <c r="AP23">
+        <v>37</v>
+      </c>
+      <c r="AQ23">
+        <v>5</v>
+      </c>
+      <c r="AS23">
+        <v>16</v>
+      </c>
+      <c r="AT23">
+        <v>59</v>
+      </c>
+      <c r="AU23">
+        <v>4</v>
+      </c>
+      <c r="AW23">
+        <v>16</v>
+      </c>
+      <c r="AX23">
+        <v>37</v>
+      </c>
+      <c r="AY23">
+        <v>5</v>
+      </c>
+      <c r="BA23">
+        <v>16</v>
+      </c>
+      <c r="BB23">
+        <v>2</v>
+      </c>
+      <c r="BC23">
+        <v>2</v>
+      </c>
+      <c r="BE23">
+        <v>16</v>
+      </c>
+      <c r="BF23">
+        <v>54</v>
+      </c>
+      <c r="BG23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>40</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>17</v>
+      </c>
+      <c r="F24">
+        <v>39</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>17</v>
+      </c>
+      <c r="J24">
+        <v>59</v>
+      </c>
+      <c r="K24">
+        <v>5</v>
+      </c>
+      <c r="M24">
+        <v>17</v>
+      </c>
+      <c r="N24">
+        <v>10</v>
+      </c>
+      <c r="O24">
+        <v>2</v>
+      </c>
+      <c r="Q24">
+        <v>17</v>
+      </c>
+      <c r="R24">
+        <v>41</v>
+      </c>
+      <c r="S24">
+        <v>4</v>
+      </c>
+      <c r="U24">
+        <v>17</v>
+      </c>
+      <c r="V24">
+        <v>46</v>
+      </c>
+      <c r="W24">
+        <v>4</v>
+      </c>
+      <c r="Y24">
+        <v>17</v>
+      </c>
+      <c r="Z24">
+        <v>48</v>
+      </c>
+      <c r="AA24">
+        <v>4</v>
+      </c>
+      <c r="AC24">
+        <v>17</v>
+      </c>
+      <c r="AD24">
+        <v>38</v>
+      </c>
+      <c r="AE24">
+        <v>3</v>
+      </c>
+      <c r="AG24">
+        <v>17</v>
+      </c>
+      <c r="AH24">
+        <v>50</v>
+      </c>
+      <c r="AI24">
+        <v>4</v>
+      </c>
+      <c r="AK24">
+        <v>17</v>
+      </c>
+      <c r="AL24">
+        <v>47</v>
+      </c>
+      <c r="AM24">
+        <v>6</v>
+      </c>
+      <c r="AO24">
+        <v>17</v>
+      </c>
+      <c r="AP24">
+        <v>57</v>
+      </c>
+      <c r="AQ24">
+        <v>6</v>
+      </c>
+      <c r="AS24">
+        <v>17</v>
+      </c>
+      <c r="AT24">
+        <v>37</v>
+      </c>
+      <c r="AU24">
+        <v>4</v>
+      </c>
+      <c r="AW24">
+        <v>17</v>
+      </c>
+      <c r="AX24">
+        <v>44</v>
+      </c>
+      <c r="AY24">
+        <v>3</v>
+      </c>
+      <c r="BA24">
+        <v>17</v>
+      </c>
+      <c r="BB24">
+        <v>4</v>
+      </c>
+      <c r="BC24">
+        <v>2</v>
+      </c>
+      <c r="BE24">
+        <v>17</v>
+      </c>
+      <c r="BF24">
+        <v>35</v>
+      </c>
+      <c r="BG24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>18</v>
+      </c>
+      <c r="B25">
+        <v>45</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>18</v>
+      </c>
+      <c r="F25">
+        <v>40</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>18</v>
+      </c>
+      <c r="J25">
+        <v>45</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <v>18</v>
+      </c>
+      <c r="N25">
+        <v>5</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>18</v>
+      </c>
+      <c r="R25">
+        <v>49</v>
+      </c>
+      <c r="S25">
+        <v>5</v>
+      </c>
+      <c r="U25">
+        <v>18</v>
+      </c>
+      <c r="V25">
+        <v>46</v>
+      </c>
+      <c r="W25">
+        <v>6</v>
+      </c>
+      <c r="Y25">
+        <v>18</v>
+      </c>
+      <c r="Z25">
+        <v>48</v>
+      </c>
+      <c r="AA25">
+        <v>4</v>
+      </c>
+      <c r="AC25">
+        <v>18</v>
+      </c>
+      <c r="AD25">
+        <v>36</v>
+      </c>
+      <c r="AE25">
+        <v>5</v>
+      </c>
+      <c r="AG25">
+        <v>18</v>
+      </c>
+      <c r="AH25">
+        <v>47</v>
+      </c>
+      <c r="AI25">
+        <v>5</v>
+      </c>
+      <c r="AK25">
+        <v>18</v>
+      </c>
+      <c r="AL25">
+        <v>42</v>
+      </c>
+      <c r="AM25">
+        <v>4</v>
+      </c>
+      <c r="AO25">
+        <v>18</v>
+      </c>
+      <c r="AP25">
+        <v>51</v>
+      </c>
+      <c r="AQ25">
+        <v>5</v>
+      </c>
+      <c r="AS25">
+        <v>18</v>
+      </c>
+      <c r="AT25">
+        <v>42</v>
+      </c>
+      <c r="AU25">
+        <v>5</v>
+      </c>
+      <c r="AW25">
+        <v>18</v>
+      </c>
+      <c r="AX25">
+        <v>49</v>
+      </c>
+      <c r="AY25">
+        <v>5</v>
+      </c>
+      <c r="BA25">
+        <v>18</v>
+      </c>
+      <c r="BB25">
+        <v>4</v>
+      </c>
+      <c r="BC25">
+        <v>2</v>
+      </c>
+      <c r="BE25">
+        <v>18</v>
+      </c>
+      <c r="BF25">
+        <v>51</v>
+      </c>
+      <c r="BG25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <v>45</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>19</v>
+      </c>
+      <c r="F26">
+        <v>41</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>19</v>
+      </c>
+      <c r="J26">
+        <v>38</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="M26">
+        <v>19</v>
+      </c>
+      <c r="N26">
+        <v>23</v>
+      </c>
+      <c r="O26">
+        <v>4</v>
+      </c>
+      <c r="Q26">
+        <v>19</v>
+      </c>
+      <c r="R26">
+        <v>52</v>
+      </c>
+      <c r="S26">
+        <v>6</v>
+      </c>
+      <c r="U26">
+        <v>19</v>
+      </c>
+      <c r="V26">
+        <v>41</v>
+      </c>
+      <c r="W26">
+        <v>5</v>
+      </c>
+      <c r="Y26">
+        <v>19</v>
+      </c>
+      <c r="Z26">
+        <v>51</v>
+      </c>
+      <c r="AA26">
+        <v>5</v>
+      </c>
+      <c r="AC26">
+        <v>19</v>
+      </c>
+      <c r="AD26">
+        <v>59</v>
+      </c>
+      <c r="AE26">
+        <v>8</v>
+      </c>
+      <c r="AG26">
+        <v>19</v>
+      </c>
+      <c r="AH26">
+        <v>33</v>
+      </c>
+      <c r="AI26">
+        <v>3</v>
+      </c>
+      <c r="AK26">
+        <v>19</v>
+      </c>
+      <c r="AL26">
+        <v>59</v>
+      </c>
+      <c r="AM26">
+        <v>7</v>
+      </c>
+      <c r="AO26">
+        <v>19</v>
+      </c>
+      <c r="AP26">
+        <v>57</v>
+      </c>
+      <c r="AQ26">
+        <v>4</v>
+      </c>
+      <c r="AS26">
+        <v>19</v>
+      </c>
+      <c r="AT26">
+        <v>49</v>
+      </c>
+      <c r="AU26">
+        <v>4</v>
+      </c>
+      <c r="AW26">
+        <v>19</v>
+      </c>
+      <c r="AX26">
+        <v>35</v>
+      </c>
+      <c r="AY26">
+        <v>4</v>
+      </c>
+      <c r="BA26">
+        <v>19</v>
+      </c>
+      <c r="BB26">
+        <v>4</v>
+      </c>
+      <c r="BC26">
+        <v>2</v>
+      </c>
+      <c r="BE26">
+        <v>19</v>
+      </c>
+      <c r="BF26">
+        <v>40</v>
+      </c>
+      <c r="BG26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>38</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>42</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>20</v>
+      </c>
+      <c r="J27">
+        <v>38</v>
+      </c>
+      <c r="K27">
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <v>20</v>
+      </c>
+      <c r="N27">
+        <v>21</v>
+      </c>
+      <c r="O27">
+        <v>4</v>
+      </c>
+      <c r="Q27">
+        <v>20</v>
+      </c>
+      <c r="R27">
+        <v>48</v>
+      </c>
+      <c r="S27">
+        <v>5</v>
+      </c>
+      <c r="U27">
+        <v>20</v>
+      </c>
+      <c r="V27">
+        <v>40</v>
+      </c>
+      <c r="W27">
+        <v>3</v>
+      </c>
+      <c r="Y27">
+        <v>20</v>
+      </c>
+      <c r="Z27">
+        <v>45</v>
+      </c>
+      <c r="AA27">
+        <v>6</v>
+      </c>
+      <c r="AC27">
+        <v>20</v>
+      </c>
+      <c r="AD27">
+        <v>53</v>
+      </c>
+      <c r="AE27">
+        <v>5</v>
+      </c>
+      <c r="AG27">
+        <v>20</v>
+      </c>
+      <c r="AH27">
+        <v>40</v>
+      </c>
+      <c r="AI27">
+        <v>6</v>
+      </c>
+      <c r="AK27">
+        <v>20</v>
+      </c>
+      <c r="AL27">
+        <v>54</v>
+      </c>
+      <c r="AM27">
+        <v>4</v>
+      </c>
+      <c r="AO27">
+        <v>20</v>
+      </c>
+      <c r="AP27">
+        <v>45</v>
+      </c>
+      <c r="AQ27">
+        <v>4</v>
+      </c>
+      <c r="AS27">
+        <v>20</v>
+      </c>
+      <c r="AT27">
+        <v>46</v>
+      </c>
+      <c r="AU27">
+        <v>4</v>
+      </c>
+      <c r="AW27">
+        <v>20</v>
+      </c>
+      <c r="AX27">
+        <v>46</v>
+      </c>
+      <c r="AY27">
+        <v>4</v>
+      </c>
+      <c r="BA27">
+        <v>20</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27">
+        <v>0</v>
+      </c>
+      <c r="BE27">
+        <v>20</v>
+      </c>
+      <c r="BF27">
+        <v>35</v>
+      </c>
+      <c r="BG27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>21</v>
+      </c>
+      <c r="B28">
+        <v>51</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>21</v>
+      </c>
+      <c r="F28">
+        <v>37</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <v>21</v>
+      </c>
+      <c r="J28">
+        <v>34</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>21</v>
+      </c>
+      <c r="N28">
+        <v>17</v>
+      </c>
+      <c r="O28">
+        <v>2</v>
+      </c>
+      <c r="Q28">
+        <v>21</v>
+      </c>
+      <c r="R28">
+        <v>49</v>
+      </c>
+      <c r="S28">
+        <v>4</v>
+      </c>
+      <c r="U28">
+        <v>21</v>
+      </c>
+      <c r="V28">
+        <v>43</v>
+      </c>
+      <c r="W28">
+        <v>4</v>
+      </c>
+      <c r="Y28">
+        <v>21</v>
+      </c>
+      <c r="Z28">
+        <v>37</v>
+      </c>
+      <c r="AA28">
+        <v>4</v>
+      </c>
+      <c r="AC28">
+        <v>21</v>
+      </c>
+      <c r="AD28">
+        <v>50</v>
+      </c>
+      <c r="AE28">
+        <v>4</v>
+      </c>
+      <c r="AG28">
+        <v>21</v>
+      </c>
+      <c r="AH28">
+        <v>36</v>
+      </c>
+      <c r="AI28">
+        <v>2</v>
+      </c>
+      <c r="AK28">
+        <v>21</v>
+      </c>
+      <c r="AL28">
+        <v>39</v>
+      </c>
+      <c r="AM28">
+        <v>4</v>
+      </c>
+      <c r="AO28">
+        <v>21</v>
+      </c>
+      <c r="AP28">
+        <v>44</v>
+      </c>
+      <c r="AQ28">
+        <v>4</v>
+      </c>
+      <c r="AS28">
+        <v>21</v>
+      </c>
+      <c r="AT28">
+        <v>55</v>
+      </c>
+      <c r="AU28">
+        <v>5</v>
+      </c>
+      <c r="AW28">
+        <v>21</v>
+      </c>
+      <c r="AX28">
+        <v>58</v>
+      </c>
+      <c r="AY28">
+        <v>5</v>
+      </c>
+      <c r="BA28">
+        <v>21</v>
+      </c>
+      <c r="BB28">
+        <v>1</v>
+      </c>
+      <c r="BC28">
+        <v>1</v>
+      </c>
+      <c r="BE28">
+        <v>21</v>
+      </c>
+      <c r="BF28">
+        <v>37</v>
+      </c>
+      <c r="BG28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>40</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>22</v>
+      </c>
+      <c r="F29">
+        <v>36</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="I29">
+        <v>22</v>
+      </c>
+      <c r="J29">
+        <v>40</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="M29">
+        <v>22</v>
+      </c>
+      <c r="N29">
+        <v>11</v>
+      </c>
+      <c r="O29">
+        <v>3</v>
+      </c>
+      <c r="Q29">
+        <v>22</v>
+      </c>
+      <c r="R29">
+        <v>50</v>
+      </c>
+      <c r="S29">
+        <v>5</v>
+      </c>
+      <c r="U29">
+        <v>22</v>
+      </c>
+      <c r="V29">
+        <v>47</v>
+      </c>
+      <c r="W29">
+        <v>3</v>
+      </c>
+      <c r="Y29">
+        <v>22</v>
+      </c>
+      <c r="Z29">
+        <v>51</v>
+      </c>
+      <c r="AA29">
+        <v>5</v>
+      </c>
+      <c r="AC29">
+        <v>22</v>
+      </c>
+      <c r="AD29">
+        <v>40</v>
+      </c>
+      <c r="AE29">
+        <v>4</v>
+      </c>
+      <c r="AG29">
+        <v>22</v>
+      </c>
+      <c r="AH29">
+        <v>46</v>
+      </c>
+      <c r="AI29">
+        <v>5</v>
+      </c>
+      <c r="AK29">
+        <v>22</v>
+      </c>
+      <c r="AL29">
+        <v>44</v>
+      </c>
+      <c r="AM29">
+        <v>5</v>
+      </c>
+      <c r="AO29">
+        <v>22</v>
+      </c>
+      <c r="AP29">
+        <v>43</v>
+      </c>
+      <c r="AQ29">
+        <v>4</v>
+      </c>
+      <c r="AS29">
+        <v>22</v>
+      </c>
+      <c r="AT29">
+        <v>53</v>
+      </c>
+      <c r="AU29">
+        <v>5</v>
+      </c>
+      <c r="AW29">
+        <v>22</v>
+      </c>
+      <c r="AX29">
+        <v>55</v>
+      </c>
+      <c r="AY29">
+        <v>5</v>
+      </c>
+      <c r="BA29">
+        <v>22</v>
+      </c>
+      <c r="BB29">
+        <v>2</v>
+      </c>
+      <c r="BC29">
+        <v>2</v>
+      </c>
+      <c r="BE29">
+        <v>22</v>
+      </c>
+      <c r="BF29">
+        <v>45</v>
+      </c>
+      <c r="BG29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>23</v>
+      </c>
+      <c r="B30">
+        <v>50</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>23</v>
+      </c>
+      <c r="F30">
+        <v>56</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>23</v>
+      </c>
+      <c r="J30">
+        <v>44</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="M30">
+        <v>23</v>
+      </c>
+      <c r="N30">
+        <v>26</v>
+      </c>
+      <c r="O30">
+        <v>3</v>
+      </c>
+      <c r="Q30">
+        <v>23</v>
+      </c>
+      <c r="R30">
+        <v>48</v>
+      </c>
+      <c r="S30">
+        <v>5</v>
+      </c>
+      <c r="U30">
+        <v>23</v>
+      </c>
+      <c r="V30">
+        <v>54</v>
+      </c>
+      <c r="W30">
+        <v>4</v>
+      </c>
+      <c r="Y30">
+        <v>23</v>
+      </c>
+      <c r="Z30">
+        <v>42</v>
+      </c>
+      <c r="AA30">
+        <v>4</v>
+      </c>
+      <c r="AC30">
+        <v>23</v>
+      </c>
+      <c r="AD30">
+        <v>52</v>
+      </c>
+      <c r="AE30">
+        <v>5</v>
+      </c>
+      <c r="AG30">
+        <v>23</v>
+      </c>
+      <c r="AH30">
+        <v>51</v>
+      </c>
+      <c r="AI30">
+        <v>5</v>
+      </c>
+      <c r="AK30">
+        <v>23</v>
+      </c>
+      <c r="AL30">
+        <v>46</v>
+      </c>
+      <c r="AM30">
+        <v>4</v>
+      </c>
+      <c r="AO30">
+        <v>23</v>
+      </c>
+      <c r="AP30">
+        <v>47</v>
+      </c>
+      <c r="AQ30">
+        <v>6</v>
+      </c>
+      <c r="AS30">
+        <v>23</v>
+      </c>
+      <c r="AT30">
+        <v>47</v>
+      </c>
+      <c r="AU30">
+        <v>4</v>
+      </c>
+      <c r="AW30">
+        <v>23</v>
+      </c>
+      <c r="AX30">
+        <v>56</v>
+      </c>
+      <c r="AY30">
+        <v>6</v>
+      </c>
+      <c r="BA30">
+        <v>23</v>
+      </c>
+      <c r="BB30">
+        <v>5</v>
+      </c>
+      <c r="BC30">
+        <v>2</v>
+      </c>
+      <c r="BE30">
+        <v>23</v>
+      </c>
+      <c r="BF30">
+        <v>50</v>
+      </c>
+      <c r="BG30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>24</v>
+      </c>
+      <c r="B31">
+        <v>43</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>24</v>
+      </c>
+      <c r="F31">
+        <v>62</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>24</v>
+      </c>
+      <c r="J31">
+        <v>43</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="M31">
+        <v>24</v>
+      </c>
+      <c r="N31">
+        <v>14</v>
+      </c>
+      <c r="O31">
+        <v>4</v>
+      </c>
+      <c r="Q31">
+        <v>24</v>
+      </c>
+      <c r="R31">
+        <v>44</v>
+      </c>
+      <c r="S31">
+        <v>6</v>
+      </c>
+      <c r="U31">
+        <v>24</v>
+      </c>
+      <c r="V31">
+        <v>49</v>
+      </c>
+      <c r="W31">
+        <v>5</v>
+      </c>
+      <c r="Y31">
+        <v>24</v>
+      </c>
+      <c r="Z31">
+        <v>40</v>
+      </c>
+      <c r="AA31">
+        <v>4</v>
+      </c>
+      <c r="AC31">
+        <v>24</v>
+      </c>
+      <c r="AD31">
+        <v>42</v>
+      </c>
+      <c r="AE31">
+        <v>4</v>
+      </c>
+      <c r="AG31">
+        <v>24</v>
+      </c>
+      <c r="AH31">
+        <v>47</v>
+      </c>
+      <c r="AI31">
+        <v>5</v>
+      </c>
+      <c r="AK31">
+        <v>24</v>
+      </c>
+      <c r="AL31">
+        <v>40</v>
+      </c>
+      <c r="AM31">
+        <v>3</v>
+      </c>
+      <c r="AO31">
+        <v>24</v>
+      </c>
+      <c r="AP31">
+        <v>42</v>
+      </c>
+      <c r="AQ31">
+        <v>4</v>
+      </c>
+      <c r="AS31">
+        <v>24</v>
+      </c>
+      <c r="AT31">
+        <v>47</v>
+      </c>
+      <c r="AU31">
+        <v>6</v>
+      </c>
+      <c r="AW31">
+        <v>24</v>
+      </c>
+      <c r="AX31">
+        <v>38</v>
+      </c>
+      <c r="AY31">
+        <v>4</v>
+      </c>
+      <c r="BA31">
+        <v>24</v>
+      </c>
+      <c r="BB31">
+        <v>3</v>
+      </c>
+      <c r="BC31">
+        <v>1</v>
+      </c>
+      <c r="BE31">
+        <v>24</v>
+      </c>
+      <c r="BF31">
+        <v>41</v>
+      </c>
+      <c r="BG31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>49</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>25</v>
+      </c>
+      <c r="F32">
+        <v>45</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="I32">
+        <v>25</v>
+      </c>
+      <c r="J32">
+        <v>37</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <v>25</v>
+      </c>
+      <c r="N32">
+        <v>20</v>
+      </c>
+      <c r="O32">
+        <v>3</v>
+      </c>
+      <c r="Q32">
+        <v>25</v>
+      </c>
+      <c r="R32">
+        <v>54</v>
+      </c>
+      <c r="S32">
+        <v>6</v>
+      </c>
+      <c r="U32">
+        <v>25</v>
+      </c>
+      <c r="V32">
+        <v>41</v>
+      </c>
+      <c r="W32">
+        <v>4</v>
+      </c>
+      <c r="Y32">
+        <v>25</v>
+      </c>
+      <c r="Z32">
+        <v>35</v>
+      </c>
+      <c r="AA32">
+        <v>4</v>
+      </c>
+      <c r="AC32">
+        <v>25</v>
+      </c>
+      <c r="AD32">
+        <v>42</v>
+      </c>
+      <c r="AE32">
+        <v>5</v>
+      </c>
+      <c r="AG32">
+        <v>25</v>
+      </c>
+      <c r="AH32">
+        <v>49</v>
+      </c>
+      <c r="AI32">
+        <v>4</v>
+      </c>
+      <c r="AK32">
+        <v>25</v>
+      </c>
+      <c r="AL32">
+        <v>49</v>
+      </c>
+      <c r="AM32">
+        <v>5</v>
+      </c>
+      <c r="AO32">
+        <v>25</v>
+      </c>
+      <c r="AP32">
+        <v>47</v>
+      </c>
+      <c r="AQ32">
+        <v>4</v>
+      </c>
+      <c r="AS32">
+        <v>25</v>
+      </c>
+      <c r="AT32">
+        <v>57</v>
+      </c>
+      <c r="AU32">
+        <v>7</v>
+      </c>
+      <c r="AW32">
+        <v>25</v>
+      </c>
+      <c r="AX32">
+        <v>46</v>
+      </c>
+      <c r="AY32">
+        <v>5</v>
+      </c>
+      <c r="BA32">
+        <v>25</v>
+      </c>
+      <c r="BB32">
+        <v>2</v>
+      </c>
+      <c r="BC32">
+        <v>1</v>
+      </c>
+      <c r="BE32">
+        <v>25</v>
+      </c>
+      <c r="BF32">
+        <v>40</v>
+      </c>
+      <c r="BG32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>54</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>26</v>
+      </c>
+      <c r="F33">
+        <v>51</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <v>26</v>
+      </c>
+      <c r="J33">
+        <v>42</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+      <c r="M33">
+        <v>26</v>
+      </c>
+      <c r="N33">
+        <v>13</v>
+      </c>
+      <c r="O33">
+        <v>3</v>
+      </c>
+      <c r="Q33">
+        <v>26</v>
+      </c>
+      <c r="R33">
+        <v>43</v>
+      </c>
+      <c r="S33">
+        <v>4</v>
+      </c>
+      <c r="U33">
+        <v>26</v>
+      </c>
+      <c r="V33">
+        <v>37</v>
+      </c>
+      <c r="W33">
+        <v>4</v>
+      </c>
+      <c r="Y33">
+        <v>26</v>
+      </c>
+      <c r="Z33">
+        <v>33</v>
+      </c>
+      <c r="AA33">
+        <v>3</v>
+      </c>
+      <c r="AC33">
+        <v>26</v>
+      </c>
+      <c r="AD33">
+        <v>43</v>
+      </c>
+      <c r="AE33">
+        <v>5</v>
+      </c>
+      <c r="AG33">
+        <v>26</v>
+      </c>
+      <c r="AH33">
+        <v>51</v>
+      </c>
+      <c r="AI33">
+        <v>4</v>
+      </c>
+      <c r="AK33">
+        <v>26</v>
+      </c>
+      <c r="AL33">
+        <v>45</v>
+      </c>
+      <c r="AM33">
+        <v>4</v>
+      </c>
+      <c r="AO33">
+        <v>26</v>
+      </c>
+      <c r="AP33">
+        <v>50</v>
+      </c>
+      <c r="AQ33">
+        <v>4</v>
+      </c>
+      <c r="AS33">
+        <v>26</v>
+      </c>
+      <c r="AT33">
+        <v>54</v>
+      </c>
+      <c r="AU33">
+        <v>5</v>
+      </c>
+      <c r="AW33">
+        <v>26</v>
+      </c>
+      <c r="AX33">
+        <v>52</v>
+      </c>
+      <c r="AY33">
+        <v>4</v>
+      </c>
+      <c r="BA33">
+        <v>26</v>
+      </c>
+      <c r="BB33">
+        <v>4</v>
+      </c>
+      <c r="BC33">
+        <v>2</v>
+      </c>
+      <c r="BE33">
+        <v>26</v>
+      </c>
+      <c r="BF33">
+        <v>44</v>
+      </c>
+      <c r="BG33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>27</v>
+      </c>
+      <c r="B34">
+        <v>51</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>27</v>
+      </c>
+      <c r="F34">
+        <v>37</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>27</v>
+      </c>
+      <c r="J34">
+        <v>53</v>
+      </c>
+      <c r="K34">
+        <v>6</v>
+      </c>
+      <c r="M34">
+        <v>27</v>
+      </c>
+      <c r="N34">
+        <v>8</v>
+      </c>
+      <c r="O34">
+        <v>3</v>
+      </c>
+      <c r="Q34">
+        <v>27</v>
+      </c>
+      <c r="R34">
+        <v>46</v>
+      </c>
+      <c r="S34">
+        <v>4</v>
+      </c>
+      <c r="U34">
+        <v>27</v>
+      </c>
+      <c r="V34">
+        <v>34</v>
+      </c>
+      <c r="W34">
+        <v>3</v>
+      </c>
+      <c r="Y34">
+        <v>27</v>
+      </c>
+      <c r="Z34">
+        <v>39</v>
+      </c>
+      <c r="AA34">
+        <v>3</v>
+      </c>
+      <c r="AC34">
+        <v>27</v>
+      </c>
+      <c r="AD34">
+        <v>47</v>
+      </c>
+      <c r="AE34">
+        <v>3</v>
+      </c>
+      <c r="AG34">
+        <v>27</v>
+      </c>
+      <c r="AH34">
+        <v>42</v>
+      </c>
+      <c r="AI34">
+        <v>4</v>
+      </c>
+      <c r="AK34">
+        <v>27</v>
+      </c>
+      <c r="AL34">
+        <v>37</v>
+      </c>
+      <c r="AM34">
+        <v>4</v>
+      </c>
+      <c r="AO34">
+        <v>27</v>
+      </c>
+      <c r="AP34">
+        <v>52</v>
+      </c>
+      <c r="AQ34">
+        <v>4</v>
+      </c>
+      <c r="AS34">
+        <v>27</v>
+      </c>
+      <c r="AT34">
+        <v>41</v>
+      </c>
+      <c r="AU34">
+        <v>5</v>
+      </c>
+      <c r="AW34">
+        <v>27</v>
+      </c>
+      <c r="AX34">
+        <v>46</v>
+      </c>
+      <c r="AY34">
+        <v>5</v>
+      </c>
+      <c r="BA34">
+        <v>27</v>
+      </c>
+      <c r="BB34">
+        <v>2</v>
+      </c>
+      <c r="BC34">
+        <v>1</v>
+      </c>
+      <c r="BE34">
+        <v>27</v>
+      </c>
+      <c r="BF34">
+        <v>43</v>
+      </c>
+      <c r="BG34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>28</v>
+      </c>
+      <c r="B35">
+        <v>42</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>28</v>
+      </c>
+      <c r="F35">
+        <v>61</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>28</v>
+      </c>
+      <c r="J35">
+        <v>46</v>
+      </c>
+      <c r="K35">
+        <v>4</v>
+      </c>
+      <c r="M35">
+        <v>28</v>
+      </c>
+      <c r="N35">
+        <v>18</v>
+      </c>
+      <c r="O35">
+        <v>3</v>
+      </c>
+      <c r="Q35">
+        <v>28</v>
+      </c>
+      <c r="R35">
+        <v>43</v>
+      </c>
+      <c r="S35">
+        <v>7</v>
+      </c>
+      <c r="U35">
+        <v>28</v>
+      </c>
+      <c r="V35">
+        <v>32</v>
+      </c>
+      <c r="W35">
+        <v>3</v>
+      </c>
+      <c r="Y35">
+        <v>28</v>
+      </c>
+      <c r="Z35">
+        <v>48</v>
+      </c>
+      <c r="AA35">
+        <v>4</v>
+      </c>
+      <c r="AC35">
+        <v>28</v>
+      </c>
+      <c r="AD35">
+        <v>46</v>
+      </c>
+      <c r="AE35">
+        <v>4</v>
+      </c>
+      <c r="AG35">
+        <v>28</v>
+      </c>
+      <c r="AH35">
+        <v>47</v>
+      </c>
+      <c r="AI35">
+        <v>5</v>
+      </c>
+      <c r="AK35">
+        <v>28</v>
+      </c>
+      <c r="AL35">
+        <v>54</v>
+      </c>
+      <c r="AM35">
+        <v>5</v>
+      </c>
+      <c r="AO35">
+        <v>28</v>
+      </c>
+      <c r="AP35">
+        <v>51</v>
+      </c>
+      <c r="AQ35">
+        <v>5</v>
+      </c>
+      <c r="AS35">
+        <v>28</v>
+      </c>
+      <c r="AT35">
+        <v>39</v>
+      </c>
+      <c r="AU35">
+        <v>3</v>
+      </c>
+      <c r="AW35">
+        <v>28</v>
+      </c>
+      <c r="AX35">
+        <v>50</v>
+      </c>
+      <c r="AY35">
+        <v>6</v>
+      </c>
+      <c r="BA35">
+        <v>28</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>0</v>
+      </c>
+      <c r="BE35">
+        <v>28</v>
+      </c>
+      <c r="BF35">
+        <v>43</v>
+      </c>
+      <c r="BG35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>29</v>
+      </c>
+      <c r="B36">
+        <v>41</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>29</v>
+      </c>
+      <c r="F36">
+        <v>45</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <v>29</v>
+      </c>
+      <c r="J36">
+        <v>53</v>
+      </c>
+      <c r="K36">
+        <v>5</v>
+      </c>
+      <c r="M36">
+        <v>29</v>
+      </c>
+      <c r="N36">
+        <v>8</v>
+      </c>
+      <c r="O36">
+        <v>2</v>
+      </c>
+      <c r="Q36">
+        <v>29</v>
+      </c>
+      <c r="R36">
+        <v>56</v>
+      </c>
+      <c r="S36">
+        <v>4</v>
+      </c>
+      <c r="U36">
+        <v>29</v>
+      </c>
+      <c r="V36">
+        <v>55</v>
+      </c>
+      <c r="W36">
+        <v>8</v>
+      </c>
+      <c r="Y36">
+        <v>29</v>
+      </c>
+      <c r="Z36">
+        <v>53</v>
+      </c>
+      <c r="AA36">
+        <v>6</v>
+      </c>
+      <c r="AC36">
+        <v>29</v>
+      </c>
+      <c r="AD36">
+        <v>31</v>
+      </c>
+      <c r="AE36">
+        <v>3</v>
+      </c>
+      <c r="AG36">
+        <v>29</v>
+      </c>
+      <c r="AH36">
+        <v>44</v>
+      </c>
+      <c r="AI36">
+        <v>4</v>
+      </c>
+      <c r="AK36">
+        <v>29</v>
+      </c>
+      <c r="AL36">
+        <v>50</v>
+      </c>
+      <c r="AM36">
+        <v>5</v>
+      </c>
+      <c r="AO36">
+        <v>29</v>
+      </c>
+      <c r="AP36">
+        <v>47</v>
+      </c>
+      <c r="AQ36">
+        <v>6</v>
+      </c>
+      <c r="AS36">
+        <v>29</v>
+      </c>
+      <c r="AT36">
+        <v>42</v>
+      </c>
+      <c r="AU36">
+        <v>5</v>
+      </c>
+      <c r="AW36">
+        <v>29</v>
+      </c>
+      <c r="AX36">
+        <v>51</v>
+      </c>
+      <c r="AY36">
+        <v>4</v>
+      </c>
+      <c r="BA36">
+        <v>29</v>
+      </c>
+      <c r="BB36">
+        <v>2</v>
+      </c>
+      <c r="BC36">
+        <v>2</v>
+      </c>
+      <c r="BE36">
+        <v>29</v>
+      </c>
+      <c r="BF36">
+        <v>49</v>
+      </c>
+      <c r="BG36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>30</v>
+      </c>
+      <c r="B37">
+        <v>41</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>30</v>
+      </c>
+      <c r="F37">
+        <v>42</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>30</v>
+      </c>
+      <c r="J37">
+        <v>55</v>
+      </c>
+      <c r="K37">
+        <v>5</v>
+      </c>
+      <c r="M37">
+        <v>30</v>
+      </c>
+      <c r="N37">
+        <v>20</v>
+      </c>
+      <c r="O37">
+        <v>2</v>
+      </c>
+      <c r="Q37">
+        <v>30</v>
+      </c>
+      <c r="R37">
+        <v>58</v>
+      </c>
+      <c r="S37">
+        <v>4</v>
+      </c>
+      <c r="U37">
+        <v>30</v>
+      </c>
+      <c r="V37">
+        <v>39</v>
+      </c>
+      <c r="W37">
+        <v>5</v>
+      </c>
+      <c r="Y37">
+        <v>30</v>
+      </c>
+      <c r="Z37">
+        <v>53</v>
+      </c>
+      <c r="AA37">
+        <v>6</v>
+      </c>
+      <c r="AC37">
+        <v>30</v>
+      </c>
+      <c r="AD37">
+        <v>39</v>
+      </c>
+      <c r="AE37">
+        <v>4</v>
+      </c>
+      <c r="AG37">
+        <v>30</v>
+      </c>
+      <c r="AH37">
+        <v>52</v>
+      </c>
+      <c r="AI37">
+        <v>4</v>
+      </c>
+      <c r="AK37">
+        <v>30</v>
+      </c>
+      <c r="AL37">
+        <v>38</v>
+      </c>
+      <c r="AM37">
+        <v>4</v>
+      </c>
+      <c r="AO37">
+        <v>30</v>
+      </c>
+      <c r="AP37">
+        <v>52</v>
+      </c>
+      <c r="AQ37">
+        <v>4</v>
+      </c>
+      <c r="AS37">
+        <v>30</v>
+      </c>
+      <c r="AT37">
+        <v>40</v>
+      </c>
+      <c r="AU37">
+        <v>6</v>
+      </c>
+      <c r="AW37">
+        <v>30</v>
+      </c>
+      <c r="AX37">
+        <v>55</v>
+      </c>
+      <c r="AY37">
+        <v>5</v>
+      </c>
+      <c r="BA37">
+        <v>30</v>
+      </c>
+      <c r="BB37">
+        <v>2</v>
+      </c>
+      <c r="BC37">
+        <v>1</v>
+      </c>
+      <c r="BE37">
+        <v>30</v>
+      </c>
+      <c r="BF37">
+        <v>44</v>
+      </c>
+      <c r="BG37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>31</v>
+      </c>
+      <c r="B38">
+        <v>39</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>31</v>
+      </c>
+      <c r="F38">
+        <v>54</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>31</v>
+      </c>
+      <c r="J38">
+        <v>42</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>31</v>
+      </c>
+      <c r="N38">
+        <v>13</v>
+      </c>
+      <c r="O38">
+        <v>2</v>
+      </c>
+      <c r="Q38">
+        <v>31</v>
+      </c>
+      <c r="R38">
+        <v>43</v>
+      </c>
+      <c r="S38">
+        <v>4</v>
+      </c>
+      <c r="U38">
+        <v>31</v>
+      </c>
+      <c r="V38">
+        <v>43</v>
+      </c>
+      <c r="W38">
+        <v>6</v>
+      </c>
+      <c r="Y38">
+        <v>31</v>
+      </c>
+      <c r="Z38">
+        <v>45</v>
+      </c>
+      <c r="AA38">
+        <v>5</v>
+      </c>
+      <c r="AC38">
+        <v>31</v>
+      </c>
+      <c r="AD38">
+        <v>38</v>
+      </c>
+      <c r="AE38">
+        <v>5</v>
+      </c>
+      <c r="AG38">
+        <v>31</v>
+      </c>
+      <c r="AH38">
+        <v>41</v>
+      </c>
+      <c r="AI38">
+        <v>4</v>
+      </c>
+      <c r="AK38">
+        <v>31</v>
+      </c>
+      <c r="AL38">
+        <v>49</v>
+      </c>
+      <c r="AM38">
+        <v>5</v>
+      </c>
+      <c r="AO38">
+        <v>31</v>
+      </c>
+      <c r="AP38">
+        <v>45</v>
+      </c>
+      <c r="AQ38">
+        <v>4</v>
+      </c>
+      <c r="AS38">
+        <v>31</v>
+      </c>
+      <c r="AT38">
+        <v>48</v>
+      </c>
+      <c r="AU38">
+        <v>4</v>
+      </c>
+      <c r="AW38">
+        <v>31</v>
+      </c>
+      <c r="AX38">
+        <v>45</v>
+      </c>
+      <c r="AY38">
+        <v>6</v>
+      </c>
+      <c r="BA38">
+        <v>31</v>
+      </c>
+      <c r="BB38">
+        <v>2</v>
+      </c>
+      <c r="BC38">
+        <v>2</v>
+      </c>
+      <c r="BE38">
+        <v>31</v>
+      </c>
+      <c r="BF38">
+        <v>52</v>
+      </c>
+      <c r="BG38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>32</v>
+      </c>
+      <c r="B39">
+        <v>51</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>32</v>
+      </c>
+      <c r="F39">
+        <v>52</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="I39">
+        <v>32</v>
+      </c>
+      <c r="J39">
+        <v>40</v>
+      </c>
+      <c r="K39">
+        <v>4</v>
+      </c>
+      <c r="M39">
+        <v>32</v>
+      </c>
+      <c r="N39">
+        <v>11</v>
+      </c>
+      <c r="O39">
+        <v>2</v>
+      </c>
+      <c r="Q39">
+        <v>32</v>
+      </c>
+      <c r="R39">
+        <v>37</v>
+      </c>
+      <c r="S39">
+        <v>4</v>
+      </c>
+      <c r="U39">
+        <v>32</v>
+      </c>
+      <c r="V39">
+        <v>49</v>
+      </c>
+      <c r="W39">
+        <v>6</v>
+      </c>
+      <c r="Y39">
+        <v>32</v>
+      </c>
+      <c r="Z39">
+        <v>54</v>
+      </c>
+      <c r="AA39">
+        <v>5</v>
+      </c>
+      <c r="AC39">
+        <v>32</v>
+      </c>
+      <c r="AD39">
+        <v>56</v>
+      </c>
+      <c r="AE39">
+        <v>5</v>
+      </c>
+      <c r="AG39">
+        <v>32</v>
+      </c>
+      <c r="AH39">
+        <v>53</v>
+      </c>
+      <c r="AI39">
+        <v>5</v>
+      </c>
+      <c r="AK39">
+        <v>32</v>
+      </c>
+      <c r="AL39">
+        <v>48</v>
+      </c>
+      <c r="AM39">
+        <v>5</v>
+      </c>
+      <c r="AO39">
+        <v>32</v>
+      </c>
+      <c r="AP39">
+        <v>36</v>
+      </c>
+      <c r="AQ39">
+        <v>5</v>
+      </c>
+      <c r="AS39">
+        <v>32</v>
+      </c>
+      <c r="AT39">
+        <v>41</v>
+      </c>
+      <c r="AU39">
+        <v>4</v>
+      </c>
+      <c r="AW39">
+        <v>32</v>
+      </c>
+      <c r="AX39">
+        <v>48</v>
+      </c>
+      <c r="AY39">
+        <v>5</v>
+      </c>
+      <c r="BA39">
+        <v>32</v>
+      </c>
+      <c r="BB39">
+        <v>0</v>
+      </c>
+      <c r="BC39">
+        <v>0</v>
+      </c>
+      <c r="BE39">
+        <v>32</v>
+      </c>
+      <c r="BF39">
+        <v>44</v>
+      </c>
+      <c r="BG39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>33</v>
+      </c>
+      <c r="B40">
+        <v>34</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>33</v>
+      </c>
+      <c r="F40">
+        <v>48</v>
+      </c>
+      <c r="G40">
+        <v>6</v>
+      </c>
+      <c r="I40">
+        <v>33</v>
+      </c>
+      <c r="J40">
+        <v>46</v>
+      </c>
+      <c r="K40">
+        <v>5</v>
+      </c>
+      <c r="M40">
+        <v>33</v>
+      </c>
+      <c r="N40">
+        <v>9</v>
+      </c>
+      <c r="O40">
+        <v>2</v>
+      </c>
+      <c r="Q40">
+        <v>33</v>
+      </c>
+      <c r="R40">
+        <v>48</v>
+      </c>
+      <c r="S40">
+        <v>5</v>
+      </c>
+      <c r="U40">
+        <v>33</v>
+      </c>
+      <c r="V40">
+        <v>52</v>
+      </c>
+      <c r="W40">
+        <v>5</v>
+      </c>
+      <c r="Y40">
+        <v>33</v>
+      </c>
+      <c r="Z40">
+        <v>43</v>
+      </c>
+      <c r="AA40">
+        <v>5</v>
+      </c>
+      <c r="AC40">
+        <v>33</v>
+      </c>
+      <c r="AD40">
+        <v>44</v>
+      </c>
+      <c r="AE40">
+        <v>4</v>
+      </c>
+      <c r="AG40">
+        <v>33</v>
+      </c>
+      <c r="AH40">
+        <v>51</v>
+      </c>
+      <c r="AI40">
+        <v>6</v>
+      </c>
+      <c r="AK40">
+        <v>33</v>
+      </c>
+      <c r="AL40">
+        <v>38</v>
+      </c>
+      <c r="AM40">
+        <v>4</v>
+      </c>
+      <c r="AO40">
+        <v>33</v>
+      </c>
+      <c r="AP40">
+        <v>48</v>
+      </c>
+      <c r="AQ40">
+        <v>5</v>
+      </c>
+      <c r="AS40">
+        <v>33</v>
+      </c>
+      <c r="AT40">
+        <v>41</v>
+      </c>
+      <c r="AU40">
+        <v>5</v>
+      </c>
+      <c r="AW40">
+        <v>33</v>
+      </c>
+      <c r="AX40">
+        <v>53</v>
+      </c>
+      <c r="AY40">
+        <v>5</v>
+      </c>
+      <c r="BA40">
+        <v>33</v>
+      </c>
+      <c r="BB40">
+        <v>4</v>
+      </c>
+      <c r="BC40">
+        <v>3</v>
+      </c>
+      <c r="BE40">
+        <v>33</v>
+      </c>
+      <c r="BF40">
+        <v>39</v>
+      </c>
+      <c r="BG40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>34</v>
+      </c>
+      <c r="B41">
+        <v>42</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>34</v>
+      </c>
+      <c r="F41">
+        <v>53</v>
+      </c>
+      <c r="G41">
+        <v>7</v>
+      </c>
+      <c r="I41">
+        <v>34</v>
+      </c>
+      <c r="J41">
+        <v>49</v>
+      </c>
+      <c r="K41">
+        <v>5</v>
+      </c>
+      <c r="M41">
+        <v>34</v>
+      </c>
+      <c r="N41">
+        <v>17</v>
+      </c>
+      <c r="O41">
+        <v>4</v>
+      </c>
+      <c r="Q41">
+        <v>34</v>
+      </c>
+      <c r="R41">
+        <v>47</v>
+      </c>
+      <c r="S41">
+        <v>4</v>
+      </c>
+      <c r="U41">
+        <v>34</v>
+      </c>
+      <c r="V41">
+        <v>51</v>
+      </c>
+      <c r="W41">
+        <v>6</v>
+      </c>
+      <c r="Y41">
+        <v>34</v>
+      </c>
+      <c r="Z41">
+        <v>43</v>
+      </c>
+      <c r="AA41">
+        <v>4</v>
+      </c>
+      <c r="AC41">
+        <v>34</v>
+      </c>
+      <c r="AD41">
+        <v>45</v>
+      </c>
+      <c r="AE41">
+        <v>3</v>
+      </c>
+      <c r="AG41">
+        <v>34</v>
+      </c>
+      <c r="AH41">
+        <v>51</v>
+      </c>
+      <c r="AI41">
+        <v>4</v>
+      </c>
+      <c r="AK41">
+        <v>34</v>
+      </c>
+      <c r="AL41">
+        <v>48</v>
+      </c>
+      <c r="AM41">
+        <v>6</v>
+      </c>
+      <c r="AO41">
+        <v>34</v>
+      </c>
+      <c r="AP41">
+        <v>35</v>
+      </c>
+      <c r="AQ41">
+        <v>3</v>
+      </c>
+      <c r="AS41">
+        <v>34</v>
+      </c>
+      <c r="AT41">
+        <v>32</v>
+      </c>
+      <c r="AU41">
+        <v>4</v>
+      </c>
+      <c r="AW41">
+        <v>34</v>
+      </c>
+      <c r="AX41">
+        <v>47</v>
+      </c>
+      <c r="AY41">
+        <v>3</v>
+      </c>
+      <c r="BA41">
+        <v>34</v>
+      </c>
+      <c r="BB41">
+        <v>1</v>
+      </c>
+      <c r="BC41">
+        <v>1</v>
+      </c>
+      <c r="BE41">
+        <v>34</v>
+      </c>
+      <c r="BF41">
+        <v>43</v>
+      </c>
+      <c r="BG41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>35</v>
+      </c>
+      <c r="B42">
+        <v>46</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>35</v>
+      </c>
+      <c r="F42">
+        <v>42</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
+      <c r="I42">
+        <v>35</v>
+      </c>
+      <c r="J42">
+        <v>43</v>
+      </c>
+      <c r="K42">
+        <v>6</v>
+      </c>
+      <c r="M42">
+        <v>35</v>
+      </c>
+      <c r="N42">
+        <v>18</v>
+      </c>
+      <c r="O42">
+        <v>4</v>
+      </c>
+      <c r="Q42">
+        <v>35</v>
+      </c>
+      <c r="R42">
+        <v>49</v>
+      </c>
+      <c r="S42">
+        <v>5</v>
+      </c>
+      <c r="U42">
+        <v>35</v>
+      </c>
+      <c r="V42">
+        <v>46</v>
+      </c>
+      <c r="W42">
+        <v>4</v>
+      </c>
+      <c r="Y42">
+        <v>35</v>
+      </c>
+      <c r="Z42">
+        <v>48</v>
+      </c>
+      <c r="AA42">
+        <v>6</v>
+      </c>
+      <c r="AC42">
+        <v>35</v>
+      </c>
+      <c r="AD42">
+        <v>50</v>
+      </c>
+      <c r="AE42">
+        <v>6</v>
+      </c>
+      <c r="AG42">
+        <v>35</v>
+      </c>
+      <c r="AH42">
+        <v>42</v>
+      </c>
+      <c r="AI42">
+        <v>4</v>
+      </c>
+      <c r="AK42">
+        <v>35</v>
+      </c>
+      <c r="AL42">
+        <v>50</v>
+      </c>
+      <c r="AM42">
+        <v>4</v>
+      </c>
+      <c r="AO42">
+        <v>35</v>
+      </c>
+      <c r="AP42">
+        <v>36</v>
+      </c>
+      <c r="AQ42">
+        <v>4</v>
+      </c>
+      <c r="AS42">
+        <v>35</v>
+      </c>
+      <c r="AT42">
+        <v>47</v>
+      </c>
+      <c r="AU42">
+        <v>5</v>
+      </c>
+      <c r="AW42">
+        <v>35</v>
+      </c>
+      <c r="AX42">
+        <v>52</v>
+      </c>
+      <c r="AY42">
+        <v>5</v>
+      </c>
+      <c r="BA42">
+        <v>35</v>
+      </c>
+      <c r="BB42">
+        <v>0</v>
+      </c>
+      <c r="BC42">
+        <v>0</v>
+      </c>
+      <c r="BE42">
+        <v>35</v>
+      </c>
+      <c r="BF42">
+        <v>64</v>
+      </c>
+      <c r="BG42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>36</v>
+      </c>
+      <c r="B43">
+        <v>46</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>36</v>
+      </c>
+      <c r="F43">
+        <v>47</v>
+      </c>
+      <c r="G43">
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>36</v>
+      </c>
+      <c r="J43">
+        <v>42</v>
+      </c>
+      <c r="K43">
+        <v>4</v>
+      </c>
+      <c r="M43">
+        <v>36</v>
+      </c>
+      <c r="N43">
+        <v>8</v>
+      </c>
+      <c r="O43">
+        <v>2</v>
+      </c>
+      <c r="Q43">
+        <v>36</v>
+      </c>
+      <c r="R43">
+        <v>40</v>
+      </c>
+      <c r="S43">
+        <v>5</v>
+      </c>
+      <c r="U43">
+        <v>36</v>
+      </c>
+      <c r="V43">
+        <v>34</v>
+      </c>
+      <c r="W43">
+        <v>4</v>
+      </c>
+      <c r="Y43">
+        <v>36</v>
+      </c>
+      <c r="Z43">
+        <v>47</v>
+      </c>
+      <c r="AA43">
+        <v>4</v>
+      </c>
+      <c r="AC43">
+        <v>36</v>
+      </c>
+      <c r="AD43">
+        <v>45</v>
+      </c>
+      <c r="AE43">
+        <v>4</v>
+      </c>
+      <c r="AG43">
+        <v>36</v>
+      </c>
+      <c r="AH43">
+        <v>43</v>
+      </c>
+      <c r="AI43">
+        <v>3</v>
+      </c>
+      <c r="AK43">
+        <v>36</v>
+      </c>
+      <c r="AL43">
+        <v>48</v>
+      </c>
+      <c r="AM43">
+        <v>4</v>
+      </c>
+      <c r="AO43">
+        <v>36</v>
+      </c>
+      <c r="AP43">
+        <v>42</v>
+      </c>
+      <c r="AQ43">
+        <v>3</v>
+      </c>
+      <c r="AS43">
+        <v>36</v>
+      </c>
+      <c r="AT43">
+        <v>58</v>
+      </c>
+      <c r="AU43">
+        <v>5</v>
+      </c>
+      <c r="AW43">
+        <v>36</v>
+      </c>
+      <c r="AX43">
+        <v>38</v>
+      </c>
+      <c r="AY43">
+        <v>4</v>
+      </c>
+      <c r="BA43">
+        <v>36</v>
+      </c>
+      <c r="BB43">
+        <v>5</v>
+      </c>
+      <c r="BC43">
+        <v>3</v>
+      </c>
+      <c r="BE43">
+        <v>36</v>
+      </c>
+      <c r="BF43">
+        <v>45</v>
+      </c>
+      <c r="BG43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>37</v>
+      </c>
+      <c r="B44">
+        <v>40</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>37</v>
+      </c>
+      <c r="F44">
+        <v>51</v>
+      </c>
+      <c r="G44">
+        <v>5</v>
+      </c>
+      <c r="I44">
+        <v>37</v>
+      </c>
+      <c r="J44">
+        <v>60</v>
+      </c>
+      <c r="K44">
+        <v>5</v>
+      </c>
+      <c r="M44">
+        <v>37</v>
+      </c>
+      <c r="N44">
+        <v>19</v>
+      </c>
+      <c r="O44">
+        <v>4</v>
+      </c>
+      <c r="Q44">
+        <v>37</v>
+      </c>
+      <c r="R44">
+        <v>44</v>
+      </c>
+      <c r="S44">
+        <v>4</v>
+      </c>
+      <c r="U44">
+        <v>37</v>
+      </c>
+      <c r="V44">
+        <v>58</v>
+      </c>
+      <c r="W44">
+        <v>5</v>
+      </c>
+      <c r="Y44">
+        <v>37</v>
+      </c>
+      <c r="Z44">
+        <v>54</v>
+      </c>
+      <c r="AA44">
+        <v>5</v>
+      </c>
+      <c r="AC44">
+        <v>37</v>
+      </c>
+      <c r="AD44">
+        <v>47</v>
+      </c>
+      <c r="AE44">
+        <v>4</v>
+      </c>
+      <c r="AG44">
+        <v>37</v>
+      </c>
+      <c r="AH44">
+        <v>53</v>
+      </c>
+      <c r="AI44">
+        <v>6</v>
+      </c>
+      <c r="AK44">
+        <v>37</v>
+      </c>
+      <c r="AL44">
+        <v>66</v>
+      </c>
+      <c r="AM44">
+        <v>5</v>
+      </c>
+      <c r="AO44">
+        <v>37</v>
+      </c>
+      <c r="AP44">
+        <v>53</v>
+      </c>
+      <c r="AQ44">
+        <v>6</v>
+      </c>
+      <c r="AS44">
+        <v>37</v>
+      </c>
+      <c r="AT44">
+        <v>48</v>
+      </c>
+      <c r="AU44">
+        <v>4</v>
+      </c>
+      <c r="AW44">
+        <v>37</v>
+      </c>
+      <c r="AX44">
+        <v>51</v>
+      </c>
+      <c r="AY44">
+        <v>5</v>
+      </c>
+      <c r="BA44">
+        <v>37</v>
+      </c>
+      <c r="BB44">
+        <v>2</v>
+      </c>
+      <c r="BC44">
+        <v>2</v>
+      </c>
+      <c r="BE44">
+        <v>37</v>
+      </c>
+      <c r="BF44">
+        <v>38</v>
+      </c>
+      <c r="BG44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>38</v>
+      </c>
+      <c r="B45">
+        <v>53</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>38</v>
+      </c>
+      <c r="F45">
+        <v>62</v>
+      </c>
+      <c r="G45">
+        <v>6</v>
+      </c>
+      <c r="I45">
+        <v>38</v>
+      </c>
+      <c r="J45">
+        <v>43</v>
+      </c>
+      <c r="K45">
+        <v>4</v>
+      </c>
+      <c r="M45">
+        <v>38</v>
+      </c>
+      <c r="N45">
+        <v>19</v>
+      </c>
+      <c r="O45">
+        <v>3</v>
+      </c>
+      <c r="Q45">
+        <v>38</v>
+      </c>
+      <c r="R45">
+        <v>45</v>
+      </c>
+      <c r="S45">
+        <v>5</v>
+      </c>
+      <c r="U45">
+        <v>38</v>
+      </c>
+      <c r="V45">
+        <v>40</v>
+      </c>
+      <c r="W45">
+        <v>4</v>
+      </c>
+      <c r="Y45">
+        <v>38</v>
+      </c>
+      <c r="Z45">
+        <v>48</v>
+      </c>
+      <c r="AA45">
+        <v>4</v>
+      </c>
+      <c r="AC45">
+        <v>38</v>
+      </c>
+      <c r="AD45">
+        <v>54</v>
+      </c>
+      <c r="AE45">
+        <v>4</v>
+      </c>
+      <c r="AG45">
+        <v>38</v>
+      </c>
+      <c r="AH45">
+        <v>43</v>
+      </c>
+      <c r="AI45">
+        <v>3</v>
+      </c>
+      <c r="AK45">
+        <v>38</v>
+      </c>
+      <c r="AL45">
+        <v>51</v>
+      </c>
+      <c r="AM45">
+        <v>5</v>
+      </c>
+      <c r="AO45">
+        <v>38</v>
+      </c>
+      <c r="AP45">
+        <v>46</v>
+      </c>
+      <c r="AQ45">
+        <v>5</v>
+      </c>
+      <c r="AS45">
+        <v>38</v>
+      </c>
+      <c r="AT45">
+        <v>46</v>
+      </c>
+      <c r="AU45">
+        <v>4</v>
+      </c>
+      <c r="AW45">
+        <v>38</v>
+      </c>
+      <c r="AX45">
+        <v>41</v>
+      </c>
+      <c r="AY45">
+        <v>4</v>
+      </c>
+      <c r="BA45">
+        <v>38</v>
+      </c>
+      <c r="BB45">
+        <v>4</v>
+      </c>
+      <c r="BC45">
+        <v>1</v>
+      </c>
+      <c r="BE45">
+        <v>38</v>
+      </c>
+      <c r="BF45">
+        <v>44</v>
+      </c>
+      <c r="BG45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>39</v>
+      </c>
+      <c r="B46">
+        <v>43</v>
+      </c>
+      <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>39</v>
+      </c>
+      <c r="F46">
+        <v>44</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <v>39</v>
+      </c>
+      <c r="J46">
+        <v>43</v>
+      </c>
+      <c r="K46">
+        <v>4</v>
+      </c>
+      <c r="M46">
+        <v>39</v>
+      </c>
+      <c r="N46">
+        <v>25</v>
+      </c>
+      <c r="O46">
+        <v>4</v>
+      </c>
+      <c r="Q46">
+        <v>39</v>
+      </c>
+      <c r="R46">
+        <v>48</v>
+      </c>
+      <c r="S46">
+        <v>4</v>
+      </c>
+      <c r="U46">
+        <v>39</v>
+      </c>
+      <c r="V46">
+        <v>36</v>
+      </c>
+      <c r="W46">
+        <v>4</v>
+      </c>
+      <c r="Y46">
+        <v>39</v>
+      </c>
+      <c r="Z46">
+        <v>40</v>
+      </c>
+      <c r="AA46">
+        <v>5</v>
+      </c>
+      <c r="AC46">
+        <v>39</v>
+      </c>
+      <c r="AD46">
+        <v>32</v>
+      </c>
+      <c r="AE46">
+        <v>4</v>
+      </c>
+      <c r="AG46">
+        <v>39</v>
+      </c>
+      <c r="AH46">
+        <v>39</v>
+      </c>
+      <c r="AI46">
+        <v>5</v>
+      </c>
+      <c r="AK46">
+        <v>39</v>
+      </c>
+      <c r="AL46">
+        <v>35</v>
+      </c>
+      <c r="AM46">
+        <v>4</v>
+      </c>
+      <c r="AO46">
+        <v>39</v>
+      </c>
+      <c r="AP46">
+        <v>36</v>
+      </c>
+      <c r="AQ46">
+        <v>3</v>
+      </c>
+      <c r="AS46">
+        <v>39</v>
+      </c>
+      <c r="AT46">
+        <v>63</v>
+      </c>
+      <c r="AU46">
+        <v>6</v>
+      </c>
+      <c r="AW46">
+        <v>39</v>
+      </c>
+      <c r="AX46">
+        <v>52</v>
+      </c>
+      <c r="AY46">
+        <v>3</v>
+      </c>
+      <c r="BA46">
+        <v>39</v>
+      </c>
+      <c r="BB46">
+        <v>1</v>
+      </c>
+      <c r="BC46">
+        <v>1</v>
+      </c>
+      <c r="BE46">
+        <v>39</v>
+      </c>
+      <c r="BF46">
+        <v>46</v>
+      </c>
+      <c r="BG46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>40</v>
+      </c>
+      <c r="B47">
+        <v>37</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>40</v>
+      </c>
+      <c r="F47">
+        <v>44</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>40</v>
+      </c>
+      <c r="J47">
+        <v>46</v>
+      </c>
+      <c r="K47">
+        <v>5</v>
+      </c>
+      <c r="M47">
+        <v>40</v>
+      </c>
+      <c r="N47">
+        <v>14</v>
+      </c>
+      <c r="O47">
+        <v>2</v>
+      </c>
+      <c r="Q47">
+        <v>40</v>
+      </c>
+      <c r="R47">
+        <v>43</v>
+      </c>
+      <c r="S47">
+        <v>3</v>
+      </c>
+      <c r="U47">
+        <v>40</v>
+      </c>
+      <c r="V47">
+        <v>50</v>
+      </c>
+      <c r="W47">
+        <v>5</v>
+      </c>
+      <c r="Y47">
+        <v>40</v>
+      </c>
+      <c r="Z47">
+        <v>43</v>
+      </c>
+      <c r="AA47">
+        <v>5</v>
+      </c>
+      <c r="AC47">
+        <v>40</v>
+      </c>
+      <c r="AD47">
+        <v>41</v>
+      </c>
+      <c r="AE47">
+        <v>4</v>
+      </c>
+      <c r="AG47">
+        <v>40</v>
+      </c>
+      <c r="AH47">
+        <v>44</v>
+      </c>
+      <c r="AI47">
+        <v>4</v>
+      </c>
+      <c r="AK47">
+        <v>40</v>
+      </c>
+      <c r="AL47">
+        <v>47</v>
+      </c>
+      <c r="AM47">
+        <v>5</v>
+      </c>
+      <c r="AO47">
+        <v>40</v>
+      </c>
+      <c r="AP47">
+        <v>40</v>
+      </c>
+      <c r="AQ47">
+        <v>5</v>
+      </c>
+      <c r="AS47">
+        <v>40</v>
+      </c>
+      <c r="AT47">
+        <v>52</v>
+      </c>
+      <c r="AU47">
+        <v>5</v>
+      </c>
+      <c r="AW47">
+        <v>40</v>
+      </c>
+      <c r="AX47">
+        <v>39</v>
+      </c>
+      <c r="AY47">
+        <v>4</v>
+      </c>
+      <c r="BA47">
+        <v>40</v>
+      </c>
+      <c r="BB47">
+        <v>0</v>
+      </c>
+      <c r="BC47">
+        <v>0</v>
+      </c>
+      <c r="BE47">
+        <v>40</v>
+      </c>
+      <c r="BF47">
+        <v>49</v>
+      </c>
+      <c r="BG47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:59" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>41</v>
+      </c>
+      <c r="B48">
+        <v>40</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>41</v>
+      </c>
+      <c r="F48">
+        <v>42</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>41</v>
+      </c>
+      <c r="J48">
+        <v>55</v>
+      </c>
+      <c r="K48">
+        <v>5</v>
+      </c>
+      <c r="M48">
+        <v>41</v>
+      </c>
+      <c r="N48">
+        <v>6</v>
+      </c>
+      <c r="O48">
+        <v>2</v>
+      </c>
+      <c r="Q48">
+        <v>41</v>
+      </c>
+      <c r="R48">
+        <v>45</v>
+      </c>
+      <c r="S48">
+        <v>4</v>
+      </c>
+      <c r="U48">
+        <v>41</v>
+      </c>
+      <c r="V48">
+        <v>63</v>
+      </c>
+      <c r="W48">
+        <v>6</v>
+      </c>
+      <c r="Y48">
+        <v>41</v>
+      </c>
+      <c r="Z48">
+        <v>43</v>
+      </c>
+      <c r="AA48">
+        <v>4</v>
+      </c>
+      <c r="AC48">
+        <v>41</v>
+      </c>
+      <c r="AD48">
+        <v>38</v>
+      </c>
+      <c r="AE48">
+        <v>3</v>
+      </c>
+      <c r="AG48">
+        <v>41</v>
+      </c>
+      <c r="AH48">
+        <v>52</v>
+      </c>
+      <c r="AI48">
+        <v>5</v>
+      </c>
+      <c r="AK48">
+        <v>41</v>
+      </c>
+      <c r="AL48">
+        <v>44</v>
+      </c>
+      <c r="AM48">
+        <v>4</v>
+      </c>
+      <c r="AO48">
+        <v>41</v>
+      </c>
+      <c r="AP48">
+        <v>54</v>
+      </c>
+      <c r="AQ48">
+        <v>5</v>
+      </c>
+      <c r="AS48">
+        <v>41</v>
+      </c>
+      <c r="AT48">
+        <v>46</v>
+      </c>
+      <c r="AU48">
+        <v>6</v>
+      </c>
+      <c r="AW48">
+        <v>41</v>
+      </c>
+      <c r="AX48">
+        <v>40</v>
+      </c>
+      <c r="AY48">
+        <v>3</v>
+      </c>
+      <c r="BA48">
+        <v>41</v>
+      </c>
+      <c r="BB48">
+        <v>6</v>
+      </c>
+      <c r="BC48">
+        <v>3</v>
+      </c>
+      <c r="BE48">
+        <v>41</v>
+      </c>
+      <c r="BF48">
+        <v>45</v>
+      </c>
+      <c r="BG48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>42</v>
+      </c>
+      <c r="B49">
+        <v>46</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>42</v>
+      </c>
+      <c r="F49">
+        <v>52</v>
+      </c>
+      <c r="G49">
+        <v>5</v>
+      </c>
+      <c r="I49">
+        <v>42</v>
+      </c>
+      <c r="J49">
+        <v>43</v>
+      </c>
+      <c r="K49">
+        <v>6</v>
+      </c>
+      <c r="M49">
+        <v>42</v>
+      </c>
+      <c r="N49">
+        <v>20</v>
+      </c>
+      <c r="O49">
+        <v>2</v>
+      </c>
+      <c r="Q49">
+        <v>42</v>
+      </c>
+      <c r="R49">
+        <v>53</v>
+      </c>
+      <c r="S49">
+        <v>7</v>
+      </c>
+      <c r="U49">
+        <v>42</v>
+      </c>
+      <c r="V49">
+        <v>43</v>
+      </c>
+      <c r="W49">
+        <v>4</v>
+      </c>
+      <c r="Y49">
+        <v>42</v>
+      </c>
+      <c r="Z49">
+        <v>58</v>
+      </c>
+      <c r="AA49">
+        <v>7</v>
+      </c>
+      <c r="AC49">
+        <v>42</v>
+      </c>
+      <c r="AD49">
+        <v>35</v>
+      </c>
+      <c r="AE49">
+        <v>4</v>
+      </c>
+      <c r="AG49">
+        <v>42</v>
+      </c>
+      <c r="AH49">
+        <v>51</v>
+      </c>
+      <c r="AI49">
+        <v>4</v>
+      </c>
+      <c r="AK49">
+        <v>42</v>
+      </c>
+      <c r="AL49">
+        <v>56</v>
+      </c>
+      <c r="AM49">
+        <v>6</v>
+      </c>
+      <c r="AO49">
+        <v>42</v>
+      </c>
+      <c r="AP49">
+        <v>48</v>
+      </c>
+      <c r="AQ49">
+        <v>3</v>
+      </c>
+      <c r="AS49">
+        <v>42</v>
+      </c>
+      <c r="AT49">
+        <v>41</v>
+      </c>
+      <c r="AU49">
+        <v>4</v>
+      </c>
+      <c r="AW49">
+        <v>42</v>
+      </c>
+      <c r="AX49">
+        <v>53</v>
+      </c>
+      <c r="AY49">
+        <v>5</v>
+      </c>
+      <c r="BA49">
+        <v>42</v>
+      </c>
+      <c r="BB49">
+        <v>2</v>
+      </c>
+      <c r="BC49">
+        <v>1</v>
+      </c>
+      <c r="BE49">
+        <v>42</v>
+      </c>
+      <c r="BF49">
+        <v>47</v>
+      </c>
+      <c r="BG49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>43</v>
+      </c>
+      <c r="B50">
+        <v>54</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>43</v>
+      </c>
+      <c r="F50">
+        <v>49</v>
+      </c>
+      <c r="G50">
+        <v>4</v>
+      </c>
+      <c r="I50">
+        <v>43</v>
+      </c>
+      <c r="J50">
+        <v>52</v>
+      </c>
+      <c r="K50">
+        <v>5</v>
+      </c>
+      <c r="M50">
+        <v>43</v>
+      </c>
+      <c r="N50">
+        <v>12</v>
+      </c>
+      <c r="O50">
+        <v>3</v>
+      </c>
+      <c r="Q50">
+        <v>43</v>
+      </c>
+      <c r="R50">
+        <v>58</v>
+      </c>
+      <c r="S50">
+        <v>5</v>
+      </c>
+      <c r="U50">
+        <v>43</v>
+      </c>
+      <c r="V50">
+        <v>49</v>
+      </c>
+      <c r="W50">
+        <v>6</v>
+      </c>
+      <c r="Y50">
+        <v>43</v>
+      </c>
+      <c r="Z50">
+        <v>50</v>
+      </c>
+      <c r="AA50">
+        <v>5</v>
+      </c>
+      <c r="AC50">
+        <v>43</v>
+      </c>
+      <c r="AD50">
+        <v>51</v>
+      </c>
+      <c r="AE50">
+        <v>5</v>
+      </c>
+      <c r="AG50">
+        <v>43</v>
+      </c>
+      <c r="AH50">
+        <v>52</v>
+      </c>
+      <c r="AI50">
+        <v>4</v>
+      </c>
+      <c r="AK50">
+        <v>43</v>
+      </c>
+      <c r="AL50">
+        <v>50</v>
+      </c>
+      <c r="AM50">
+        <v>4</v>
+      </c>
+      <c r="AO50">
+        <v>43</v>
+      </c>
+      <c r="AP50">
+        <v>55</v>
+      </c>
+      <c r="AQ50">
+        <v>6</v>
+      </c>
+      <c r="AS50">
+        <v>43</v>
+      </c>
+      <c r="AT50">
+        <v>39</v>
+      </c>
+      <c r="AU50">
+        <v>4</v>
+      </c>
+      <c r="AW50">
+        <v>43</v>
+      </c>
+      <c r="AX50">
+        <v>42</v>
+      </c>
+      <c r="AY50">
+        <v>3</v>
+      </c>
+      <c r="BA50">
+        <v>43</v>
+      </c>
+      <c r="BB50">
+        <v>2</v>
+      </c>
+      <c r="BC50">
+        <v>1</v>
+      </c>
+      <c r="BE50">
+        <v>43</v>
+      </c>
+      <c r="BF50">
+        <v>50</v>
+      </c>
+      <c r="BG50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>44</v>
+      </c>
+      <c r="B51">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>44</v>
+      </c>
+      <c r="F51">
+        <v>48</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <v>44</v>
+      </c>
+      <c r="J51">
+        <v>40</v>
+      </c>
+      <c r="K51">
+        <v>5</v>
+      </c>
+      <c r="M51">
+        <v>44</v>
+      </c>
+      <c r="N51">
+        <v>11</v>
+      </c>
+      <c r="O51">
+        <v>2</v>
+      </c>
+      <c r="Q51">
+        <v>44</v>
+      </c>
+      <c r="R51">
+        <v>42</v>
+      </c>
+      <c r="S51">
+        <v>4</v>
+      </c>
+      <c r="U51">
+        <v>44</v>
+      </c>
+      <c r="V51">
+        <v>54</v>
+      </c>
+      <c r="W51">
+        <v>5</v>
+      </c>
+      <c r="Y51">
+        <v>44</v>
+      </c>
+      <c r="Z51">
+        <v>38</v>
+      </c>
+      <c r="AA51">
+        <v>4</v>
+      </c>
+      <c r="AC51">
+        <v>44</v>
+      </c>
+      <c r="AD51">
+        <v>49</v>
+      </c>
+      <c r="AE51">
+        <v>5</v>
+      </c>
+      <c r="AG51">
+        <v>44</v>
+      </c>
+      <c r="AH51">
+        <v>44</v>
+      </c>
+      <c r="AI51">
+        <v>4</v>
+      </c>
+      <c r="AK51">
+        <v>44</v>
+      </c>
+      <c r="AL51">
+        <v>54</v>
+      </c>
+      <c r="AM51">
+        <v>5</v>
+      </c>
+      <c r="AO51">
+        <v>44</v>
+      </c>
+      <c r="AP51">
+        <v>42</v>
+      </c>
+      <c r="AQ51">
+        <v>4</v>
+      </c>
+      <c r="AS51">
+        <v>44</v>
+      </c>
+      <c r="AT51">
+        <v>40</v>
+      </c>
+      <c r="AU51">
+        <v>4</v>
+      </c>
+      <c r="AW51">
+        <v>44</v>
+      </c>
+      <c r="AX51">
+        <v>57</v>
+      </c>
+      <c r="AY51">
+        <v>5</v>
+      </c>
+      <c r="BA51">
+        <v>44</v>
+      </c>
+      <c r="BB51">
+        <v>1</v>
+      </c>
+      <c r="BC51">
+        <v>1</v>
+      </c>
+      <c r="BE51">
+        <v>44</v>
+      </c>
+      <c r="BF51">
+        <v>47</v>
+      </c>
+      <c r="BG51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>45</v>
+      </c>
+      <c r="B52">
+        <v>59</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="E52">
+        <v>45</v>
+      </c>
+      <c r="F52">
+        <v>53</v>
+      </c>
+      <c r="G52">
+        <v>5</v>
+      </c>
+      <c r="I52">
+        <v>45</v>
+      </c>
+      <c r="J52">
+        <v>46</v>
+      </c>
+      <c r="K52">
+        <v>4</v>
+      </c>
+      <c r="M52">
+        <v>45</v>
+      </c>
+      <c r="N52">
+        <v>4</v>
+      </c>
+      <c r="O52">
+        <v>3</v>
+      </c>
+      <c r="Q52">
+        <v>45</v>
+      </c>
+      <c r="R52">
+        <v>43</v>
+      </c>
+      <c r="S52">
+        <v>4</v>
+      </c>
+      <c r="U52">
+        <v>45</v>
+      </c>
+      <c r="V52">
+        <v>50</v>
+      </c>
+      <c r="W52">
+        <v>6</v>
+      </c>
+      <c r="Y52">
+        <v>45</v>
+      </c>
+      <c r="Z52">
+        <v>33</v>
+      </c>
+      <c r="AA52">
+        <v>3</v>
+      </c>
+      <c r="AC52">
+        <v>45</v>
+      </c>
+      <c r="AD52">
+        <v>51</v>
+      </c>
+      <c r="AE52">
+        <v>5</v>
+      </c>
+      <c r="AG52">
+        <v>45</v>
+      </c>
+      <c r="AH52">
+        <v>40</v>
+      </c>
+      <c r="AI52">
+        <v>4</v>
+      </c>
+      <c r="AK52">
+        <v>45</v>
+      </c>
+      <c r="AL52">
+        <v>51</v>
+      </c>
+      <c r="AM52">
+        <v>4</v>
+      </c>
+      <c r="AO52">
+        <v>45</v>
+      </c>
+      <c r="AP52">
+        <v>50</v>
+      </c>
+      <c r="AQ52">
+        <v>6</v>
+      </c>
+      <c r="AS52">
+        <v>45</v>
+      </c>
+      <c r="AT52">
+        <v>44</v>
+      </c>
+      <c r="AU52">
+        <v>4</v>
+      </c>
+      <c r="AW52">
+        <v>45</v>
+      </c>
+      <c r="AX52">
+        <v>33</v>
+      </c>
+      <c r="AY52">
+        <v>3</v>
+      </c>
+      <c r="BA52">
+        <v>45</v>
+      </c>
+      <c r="BB52">
+        <v>2</v>
+      </c>
+      <c r="BC52">
+        <v>1</v>
+      </c>
+      <c r="BE52">
+        <v>45</v>
+      </c>
+      <c r="BF52">
+        <v>46</v>
+      </c>
+      <c r="BG52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>46</v>
+      </c>
+      <c r="B53">
+        <v>46</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>46</v>
+      </c>
+      <c r="F53">
+        <v>58</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+      <c r="I53">
+        <v>46</v>
+      </c>
+      <c r="J53">
+        <v>40</v>
+      </c>
+      <c r="K53">
+        <v>6</v>
+      </c>
+      <c r="M53">
+        <v>46</v>
+      </c>
+      <c r="N53">
+        <v>11</v>
+      </c>
+      <c r="O53">
+        <v>2</v>
+      </c>
+      <c r="Q53">
+        <v>46</v>
+      </c>
+      <c r="R53">
+        <v>48</v>
+      </c>
+      <c r="S53">
+        <v>6</v>
+      </c>
+      <c r="U53">
+        <v>46</v>
+      </c>
+      <c r="V53">
+        <v>44</v>
+      </c>
+      <c r="W53">
+        <v>4</v>
+      </c>
+      <c r="Y53">
+        <v>46</v>
+      </c>
+      <c r="Z53">
+        <v>39</v>
+      </c>
+      <c r="AA53">
+        <v>4</v>
+      </c>
+      <c r="AC53">
+        <v>46</v>
+      </c>
+      <c r="AD53">
+        <v>46</v>
+      </c>
+      <c r="AE53">
+        <v>4</v>
+      </c>
+      <c r="AG53">
+        <v>46</v>
+      </c>
+      <c r="AH53">
+        <v>52</v>
+      </c>
+      <c r="AI53">
+        <v>3</v>
+      </c>
+      <c r="AK53">
+        <v>46</v>
+      </c>
+      <c r="AL53">
+        <v>44</v>
+      </c>
+      <c r="AM53">
+        <v>3</v>
+      </c>
+      <c r="AO53">
+        <v>46</v>
+      </c>
+      <c r="AP53">
+        <v>45</v>
+      </c>
+      <c r="AQ53">
+        <v>3</v>
+      </c>
+      <c r="AS53">
+        <v>46</v>
+      </c>
+      <c r="AT53">
+        <v>47</v>
+      </c>
+      <c r="AU53">
+        <v>4</v>
+      </c>
+      <c r="AW53">
+        <v>46</v>
+      </c>
+      <c r="AX53">
+        <v>40</v>
+      </c>
+      <c r="AY53">
+        <v>4</v>
+      </c>
+      <c r="BA53">
+        <v>46</v>
+      </c>
+      <c r="BB53">
+        <v>0</v>
+      </c>
+      <c r="BC53">
+        <v>0</v>
+      </c>
+      <c r="BE53">
+        <v>46</v>
+      </c>
+      <c r="BF53">
+        <v>42</v>
+      </c>
+      <c r="BG53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>47</v>
+      </c>
+      <c r="B54">
+        <v>42</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>47</v>
+      </c>
+      <c r="F54">
+        <v>38</v>
+      </c>
+      <c r="G54">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>47</v>
+      </c>
+      <c r="J54">
+        <v>45</v>
+      </c>
+      <c r="K54">
+        <v>6</v>
+      </c>
+      <c r="M54">
+        <v>47</v>
+      </c>
+      <c r="N54">
+        <v>13</v>
+      </c>
+      <c r="O54">
+        <v>3</v>
+      </c>
+      <c r="Q54">
+        <v>47</v>
+      </c>
+      <c r="R54">
+        <v>34</v>
+      </c>
+      <c r="S54">
+        <v>5</v>
+      </c>
+      <c r="U54">
+        <v>47</v>
+      </c>
+      <c r="V54">
+        <v>40</v>
+      </c>
+      <c r="W54">
+        <v>4</v>
+      </c>
+      <c r="Y54">
+        <v>47</v>
+      </c>
+      <c r="Z54">
+        <v>48</v>
+      </c>
+      <c r="AA54">
+        <v>5</v>
+      </c>
+      <c r="AC54">
+        <v>47</v>
+      </c>
+      <c r="AD54">
+        <v>43</v>
+      </c>
+      <c r="AE54">
+        <v>7</v>
+      </c>
+      <c r="AG54">
+        <v>47</v>
+      </c>
+      <c r="AH54">
+        <v>36</v>
+      </c>
+      <c r="AI54">
+        <v>4</v>
+      </c>
+      <c r="AK54">
+        <v>47</v>
+      </c>
+      <c r="AL54">
+        <v>47</v>
+      </c>
+      <c r="AM54">
+        <v>3</v>
+      </c>
+      <c r="AO54">
+        <v>47</v>
+      </c>
+      <c r="AP54">
+        <v>45</v>
+      </c>
+      <c r="AQ54">
+        <v>6</v>
+      </c>
+      <c r="AS54">
+        <v>47</v>
+      </c>
+      <c r="AT54">
+        <v>36</v>
+      </c>
+      <c r="AU54">
+        <v>5</v>
+      </c>
+      <c r="AW54">
+        <v>47</v>
+      </c>
+      <c r="AX54">
+        <v>52</v>
+      </c>
+      <c r="AY54">
+        <v>6</v>
+      </c>
+      <c r="BA54">
+        <v>47</v>
+      </c>
+      <c r="BB54">
+        <v>0</v>
+      </c>
+      <c r="BC54">
+        <v>0</v>
+      </c>
+      <c r="BE54">
+        <v>47</v>
+      </c>
+      <c r="BF54">
+        <v>42</v>
+      </c>
+      <c r="BG54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>48</v>
+      </c>
+      <c r="B55">
+        <v>50</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>48</v>
+      </c>
+      <c r="F55">
+        <v>38</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+      <c r="I55">
+        <v>48</v>
+      </c>
+      <c r="J55">
+        <v>40</v>
+      </c>
+      <c r="K55">
+        <v>4</v>
+      </c>
+      <c r="M55">
+        <v>48</v>
+      </c>
+      <c r="N55">
+        <v>6</v>
+      </c>
+      <c r="O55">
+        <v>2</v>
+      </c>
+      <c r="Q55">
+        <v>48</v>
+      </c>
+      <c r="R55">
+        <v>37</v>
+      </c>
+      <c r="S55">
+        <v>3</v>
+      </c>
+      <c r="U55">
+        <v>48</v>
+      </c>
+      <c r="V55">
+        <v>41</v>
+      </c>
+      <c r="W55">
+        <v>4</v>
+      </c>
+      <c r="Y55">
+        <v>48</v>
+      </c>
+      <c r="Z55">
+        <v>61</v>
+      </c>
+      <c r="AA55">
+        <v>6</v>
+      </c>
+      <c r="AC55">
+        <v>48</v>
+      </c>
+      <c r="AD55">
+        <v>47</v>
+      </c>
+      <c r="AE55">
+        <v>5</v>
+      </c>
+      <c r="AG55">
+        <v>48</v>
+      </c>
+      <c r="AH55">
+        <v>43</v>
+      </c>
+      <c r="AI55">
+        <v>5</v>
+      </c>
+      <c r="AK55">
+        <v>48</v>
+      </c>
+      <c r="AL55">
+        <v>52</v>
+      </c>
+      <c r="AM55">
+        <v>5</v>
+      </c>
+      <c r="AO55">
+        <v>48</v>
+      </c>
+      <c r="AP55">
+        <v>54</v>
+      </c>
+      <c r="AQ55">
+        <v>5</v>
+      </c>
+      <c r="AS55">
+        <v>48</v>
+      </c>
+      <c r="AT55">
+        <v>48</v>
+      </c>
+      <c r="AU55">
+        <v>5</v>
+      </c>
+      <c r="AW55">
+        <v>48</v>
+      </c>
+      <c r="AX55">
+        <v>45</v>
+      </c>
+      <c r="AY55">
+        <v>3</v>
+      </c>
+      <c r="BA55">
+        <v>48</v>
+      </c>
+      <c r="BB55">
+        <v>2</v>
+      </c>
+      <c r="BC55">
+        <v>2</v>
+      </c>
+      <c r="BE55">
+        <v>48</v>
+      </c>
+      <c r="BF55">
+        <v>42</v>
+      </c>
+      <c r="BG55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>49</v>
+      </c>
+      <c r="B56">
+        <v>38</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>49</v>
+      </c>
+      <c r="F56">
+        <v>46</v>
+      </c>
+      <c r="G56">
+        <v>4</v>
+      </c>
+      <c r="I56">
+        <v>49</v>
+      </c>
+      <c r="J56">
+        <v>32</v>
+      </c>
+      <c r="K56">
+        <v>4</v>
+      </c>
+      <c r="M56">
+        <v>49</v>
+      </c>
+      <c r="N56">
+        <v>17</v>
+      </c>
+      <c r="O56">
+        <v>4</v>
+      </c>
+      <c r="Q56">
+        <v>49</v>
+      </c>
+      <c r="R56">
+        <v>45</v>
+      </c>
+      <c r="S56">
+        <v>4</v>
+      </c>
+      <c r="U56">
+        <v>49</v>
+      </c>
+      <c r="V56">
+        <v>53</v>
+      </c>
+      <c r="W56">
+        <v>4</v>
+      </c>
+      <c r="Y56">
+        <v>49</v>
+      </c>
+      <c r="Z56">
+        <v>42</v>
+      </c>
+      <c r="AA56">
+        <v>4</v>
+      </c>
+      <c r="AC56">
+        <v>49</v>
+      </c>
+      <c r="AD56">
+        <v>48</v>
+      </c>
+      <c r="AE56">
+        <v>6</v>
+      </c>
+      <c r="AG56">
+        <v>49</v>
+      </c>
+      <c r="AH56">
+        <v>38</v>
+      </c>
+      <c r="AI56">
+        <v>4</v>
+      </c>
+      <c r="AK56">
+        <v>49</v>
+      </c>
+      <c r="AL56">
+        <v>40</v>
+      </c>
+      <c r="AM56">
+        <v>5</v>
+      </c>
+      <c r="AO56">
+        <v>49</v>
+      </c>
+      <c r="AP56">
+        <v>35</v>
+      </c>
+      <c r="AQ56">
+        <v>4</v>
+      </c>
+      <c r="AS56">
+        <v>49</v>
+      </c>
+      <c r="AT56">
+        <v>41</v>
+      </c>
+      <c r="AU56">
+        <v>4</v>
+      </c>
+      <c r="AW56">
+        <v>49</v>
+      </c>
+      <c r="AX56">
+        <v>36</v>
+      </c>
+      <c r="AY56">
+        <v>4</v>
+      </c>
+      <c r="BA56">
+        <v>49</v>
+      </c>
+      <c r="BB56">
+        <v>4</v>
+      </c>
+      <c r="BC56">
+        <v>4</v>
+      </c>
+      <c r="BE56">
+        <v>49</v>
+      </c>
+      <c r="BF56">
+        <v>47</v>
+      </c>
+      <c r="BG56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="B58" s="3">
+        <f>AVERAGE(B42:B56)</f>
+        <v>46.06666666666667</v>
+      </c>
+      <c r="C58" s="3">
+        <f>AVERAGE(C42:C56)</f>
+        <v>4.4666666666666668</v>
+      </c>
+      <c r="F58" s="3">
+        <f>AVERAGE(F42:F56)</f>
+        <v>47.6</v>
+      </c>
+      <c r="G58" s="3">
+        <f>AVERAGE(G42:G56)</f>
+        <v>4.2</v>
+      </c>
+      <c r="J58" s="3">
+        <f>AVERAGE(J42:J56)</f>
+        <v>44.666666666666664</v>
+      </c>
+      <c r="K58" s="3">
+        <f>AVERAGE(K42:K56)</f>
+        <v>4.8666666666666663</v>
+      </c>
+      <c r="N58" s="3">
+        <f>AVERAGE(N42:N56)</f>
+        <v>13.533333333333333</v>
+      </c>
+      <c r="O58" s="3">
+        <f>AVERAGE(O42:O56)</f>
+        <v>2.8</v>
+      </c>
+      <c r="R58" s="3">
+        <f>AVERAGE(R42:R56)</f>
+        <v>44.93333333333333</v>
+      </c>
+      <c r="S58" s="3">
+        <f>AVERAGE(S42:S56)</f>
+        <v>4.5333333333333332</v>
+      </c>
+      <c r="V58" s="3">
+        <f>AVERAGE(V42:V56)</f>
+        <v>46.733333333333334</v>
+      </c>
+      <c r="W58" s="3">
+        <f>AVERAGE(W42:W56)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Z58" s="3">
+        <f>AVERAGE(Z42:Z56)</f>
+        <v>46.133333333333333</v>
+      </c>
+      <c r="AA58" s="3">
+        <f>AVERAGE(AA42:AA56)</f>
+        <v>4.7333333333333334</v>
+      </c>
+      <c r="AD58" s="3">
+        <f>AVERAGE(AD42:AD56)</f>
+        <v>45.133333333333333</v>
+      </c>
+      <c r="AE58" s="3">
+        <f>AVERAGE(AE42:AE56)</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="AH58" s="3">
+        <f>AVERAGE(AH42:AH56)</f>
+        <v>44.8</v>
+      </c>
+      <c r="AI58" s="3">
+        <f>AVERAGE(AI42:AI56)</f>
+        <v>4.1333333333333337</v>
+      </c>
+      <c r="AL58" s="3">
+        <f>AVERAGE(AL42:AL56)</f>
+        <v>49</v>
+      </c>
+      <c r="AM58" s="3">
+        <f>AVERAGE(AM42:AM56)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AP58" s="3">
+        <f>AVERAGE(AP42:AP56)</f>
+        <v>45.4</v>
+      </c>
+      <c r="AQ58" s="3">
+        <f>AVERAGE(AQ42:AQ56)</f>
+        <v>4.5333333333333332</v>
+      </c>
+      <c r="AT58" s="3">
+        <f>AVERAGE(AT42:AT56)</f>
+        <v>46.4</v>
+      </c>
+      <c r="AU58" s="3">
+        <f>AVERAGE(AU42:AU56)</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AX58" s="3">
+        <f>AVERAGE(AX42:AX56)</f>
+        <v>44.733333333333334</v>
+      </c>
+      <c r="AY58" s="3">
+        <f>AVERAGE(AY42:AY56)</f>
+        <v>4.0666666666666664</v>
+      </c>
+      <c r="BB58" s="3">
+        <f>AVERAGE(BB42:BB56)</f>
+        <v>2.0666666666666669</v>
+      </c>
+      <c r="BC58" s="3">
+        <f>AVERAGE(BC42:BC56)</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="BF58" s="3">
+        <f>AVERAGE(BF42:BF56)</f>
+        <v>46.266666666666666</v>
+      </c>
+      <c r="BG58" s="3">
+        <f>AVERAGE(BG42:BG56)</f>
+        <v>4.4666666666666668</v>
+      </c>
+      <c r="BJ58" s="3"/>
+      <c r="BK58" s="3"/>
+    </row>
+    <row r="59" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="B59" s="3">
+        <f>MEDIAN(B42:B56)</f>
+        <v>46</v>
+      </c>
+      <c r="C59" s="3">
+        <f>MEDIAN(C42:C56)</f>
+        <v>4</v>
+      </c>
+      <c r="F59" s="3">
+        <f>MEDIAN(F42:F56)</f>
+        <v>47</v>
+      </c>
+      <c r="G59" s="3">
+        <f>MEDIAN(G42:G56)</f>
+        <v>4</v>
+      </c>
+      <c r="J59" s="3">
+        <f>MEDIAN(J42:J56)</f>
+        <v>43</v>
+      </c>
+      <c r="K59" s="3">
+        <f>MEDIAN(K42:K56)</f>
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
+        <f>MEDIAN(N42:N56)</f>
+        <v>13</v>
+      </c>
+      <c r="O59" s="3">
+        <f>MEDIAN(O42:O56)</f>
+        <v>3</v>
+      </c>
+      <c r="R59" s="3">
+        <f>MEDIAN(R42:R56)</f>
+        <v>45</v>
+      </c>
+      <c r="S59" s="3">
+        <f>MEDIAN(S42:S56)</f>
+        <v>4</v>
+      </c>
+      <c r="V59" s="3">
+        <f>MEDIAN(V42:V56)</f>
+        <v>46</v>
+      </c>
+      <c r="W59" s="3">
+        <f>MEDIAN(W42:W56)</f>
+        <v>4</v>
+      </c>
+      <c r="Z59" s="3">
+        <f>MEDIAN(Z42:Z56)</f>
+        <v>47</v>
+      </c>
+      <c r="AA59" s="3">
+        <f>MEDIAN(AA42:AA56)</f>
+        <v>5</v>
+      </c>
+      <c r="AD59" s="3">
+        <f>MEDIAN(AD42:AD56)</f>
+        <v>47</v>
+      </c>
+      <c r="AE59" s="3">
+        <f>MEDIAN(AE42:AE56)</f>
+        <v>4</v>
+      </c>
+      <c r="AH59" s="3">
+        <f>MEDIAN(AH42:AH56)</f>
+        <v>43</v>
+      </c>
+      <c r="AI59" s="3">
+        <f>MEDIAN(AI42:AI56)</f>
+        <v>4</v>
+      </c>
+      <c r="AL59" s="3">
+        <f>MEDIAN(AL42:AL56)</f>
+        <v>50</v>
+      </c>
+      <c r="AM59" s="3">
+        <f>MEDIAN(AM42:AM56)</f>
+        <v>4</v>
+      </c>
+      <c r="AP59" s="3">
+        <f>MEDIAN(AP42:AP56)</f>
+        <v>45</v>
+      </c>
+      <c r="AQ59" s="3">
+        <f>MEDIAN(AQ42:AQ56)</f>
+        <v>5</v>
+      </c>
+      <c r="AT59" s="3">
+        <f>MEDIAN(AT42:AT56)</f>
+        <v>46</v>
+      </c>
+      <c r="AU59" s="3">
+        <f>MEDIAN(AU42:AU56)</f>
+        <v>4</v>
+      </c>
+      <c r="AX59" s="3">
+        <f>MEDIAN(AX42:AX56)</f>
+        <v>42</v>
+      </c>
+      <c r="AY59" s="3">
+        <f>MEDIAN(AY42:AY56)</f>
+        <v>4</v>
+      </c>
+      <c r="BB59" s="3">
+        <f>MEDIAN(BB42:BB56)</f>
+        <v>2</v>
+      </c>
+      <c r="BC59" s="3">
+        <f>MEDIAN(BC42:BC56)</f>
+        <v>1</v>
+      </c>
+      <c r="BF59" s="3">
+        <f>MEDIAN(BF42:BF56)</f>
+        <v>46</v>
+      </c>
+      <c r="BG59" s="3">
+        <f>MEDIAN(BG42:BG56)</f>
+        <v>4</v>
+      </c>
+      <c r="BJ59" s="3"/>
+      <c r="BK59" s="3"/>
+    </row>
+    <row r="60" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="B60" s="3">
+        <f>STDEV(B42:B56)</f>
+        <v>6.3523523951667711</v>
+      </c>
+      <c r="C60" s="3">
+        <f>STDEV(C42:C56)</f>
+        <v>0.99043040187202558</v>
+      </c>
+      <c r="F60" s="3">
+        <f>STDEV(F42:F56)</f>
+        <v>6.8326945113706188</v>
+      </c>
+      <c r="G60" s="3">
+        <f>STDEV(G42:G56)</f>
+        <v>0.94112394811431943</v>
+      </c>
+      <c r="J60" s="3">
+        <f>STDEV(J42:J56)</f>
+        <v>6.7788185513687313</v>
+      </c>
+      <c r="K60" s="3">
+        <f>STDEV(K42:K56)</f>
+        <v>0.83380938783279257</v>
+      </c>
+      <c r="N60" s="3">
+        <f>STDEV(N42:N56)</f>
+        <v>6.0694394500724052</v>
+      </c>
+      <c r="O60" s="3">
+        <f>STDEV(O42:O56)</f>
+        <v>0.86189160737133486</v>
+      </c>
+      <c r="R60" s="3">
+        <f>STDEV(R42:R56)</f>
+        <v>5.9457868236576576</v>
+      </c>
+      <c r="S60" s="3">
+        <f>STDEV(S42:S56)</f>
+        <v>1.0600988273786198</v>
+      </c>
+      <c r="V60" s="3">
+        <f>STDEV(V42:V56)</f>
+        <v>8.1632159862455751</v>
+      </c>
+      <c r="W60" s="3">
+        <f>STDEV(W42:W56)</f>
+        <v>0.82807867121082612</v>
+      </c>
+      <c r="Z60" s="3">
+        <f>STDEV(Z42:Z56)</f>
+        <v>7.6238972660844233</v>
+      </c>
+      <c r="AA60" s="3">
+        <f>STDEV(AA42:AA56)</f>
+        <v>1.0327955589886446</v>
+      </c>
+      <c r="AD60" s="3">
+        <f>STDEV(AD42:AD56)</f>
+        <v>6.2663120467039217</v>
+      </c>
+      <c r="AE60" s="3">
+        <f>STDEV(AE42:AE56)</f>
+        <v>1.0465362369445665</v>
+      </c>
+      <c r="AH60" s="3">
+        <f>STDEV(AH42:AH56)</f>
+        <v>5.7346067245901349</v>
+      </c>
+      <c r="AI60" s="3">
+        <f>STDEV(AI42:AI56)</f>
+        <v>0.83380938783279257</v>
+      </c>
+      <c r="AL60" s="3">
+        <f>STDEV(AL42:AL56)</f>
+        <v>7.1614044911395895</v>
+      </c>
+      <c r="AM60" s="3">
+        <f>STDEV(AM42:AM56)</f>
+        <v>0.82807867121082612</v>
+      </c>
+      <c r="AP60" s="3">
+        <f>STDEV(AP42:AP56)</f>
+        <v>6.884765791223395</v>
+      </c>
+      <c r="AQ60" s="3">
+        <f>STDEV(AQ42:AQ56)</f>
+        <v>1.1872336794093279</v>
+      </c>
+      <c r="AT60" s="3">
+        <f>STDEV(AT42:AT56)</f>
+        <v>7.1494255513492559</v>
+      </c>
+      <c r="AU60" s="3">
+        <f>STDEV(AU42:AU56)</f>
+        <v>0.73678839761300829</v>
+      </c>
+      <c r="AX60" s="3">
+        <f>STDEV(AX42:AX56)</f>
+        <v>7.4399180743057256</v>
+      </c>
+      <c r="AY60" s="3">
+        <f>STDEV(AY42:AY56)</f>
+        <v>0.96115010472325502</v>
+      </c>
+      <c r="BB60" s="3">
+        <f>STDEV(BB42:BB56)</f>
+        <v>1.9073791542572858</v>
+      </c>
+      <c r="BC60" s="3">
+        <f>STDEV(BC42:BC56)</f>
+        <v>1.2344267996967353</v>
+      </c>
+      <c r="BF60" s="3">
+        <f>STDEV(BF42:BF56)</f>
+        <v>5.787507070858589</v>
+      </c>
+      <c r="BG60" s="3">
+        <f>STDEV(BG42:BG56)</f>
+        <v>0.6399404734221853</v>
+      </c>
+      <c r="BJ60" s="3"/>
+      <c r="BK60" s="3"/>
+    </row>
+    <row r="62" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="4"/>
+      <c r="AA62" s="4"/>
+      <c r="AC62" s="4"/>
+      <c r="AD62" s="4"/>
+      <c r="AE62" s="4"/>
+      <c r="AG62" s="4"/>
+      <c r="AH62" s="4"/>
+      <c r="AI62" s="4"/>
+      <c r="AK62" s="4"/>
+      <c r="AL62" s="4"/>
+      <c r="AM62" s="4"/>
+      <c r="AO62" s="4"/>
+      <c r="AP62" s="4"/>
+      <c r="AQ62" s="4"/>
+      <c r="AS62" s="4"/>
+      <c r="AT62" s="4"/>
+      <c r="AU62" s="4"/>
+      <c r="AW62" s="4"/>
+      <c r="AX62" s="4"/>
+      <c r="AY62" s="4"/>
+      <c r="BA62" s="4"/>
+      <c r="BB62" s="4"/>
+      <c r="BC62" s="4"/>
+      <c r="BE62" s="4"/>
+      <c r="BF62" s="4"/>
+      <c r="BG62" s="4"/>
+      <c r="BI62" s="4"/>
+      <c r="BJ62" s="4"/>
+      <c r="BK62" s="4"/>
+      <c r="BM62" s="4"/>
+      <c r="BN62" s="4"/>
+      <c r="BO62" s="4"/>
+      <c r="BQ62" s="4"/>
+      <c r="BR62" s="4"/>
+      <c r="BS62" s="4"/>
+      <c r="BU62" s="4"/>
+      <c r="BV62" s="4"/>
+      <c r="BW62" s="4"/>
+      <c r="BY62" s="4"/>
+      <c r="BZ62" s="4"/>
+      <c r="CA62" s="4"/>
+      <c r="CC62" s="4"/>
+      <c r="CD62" s="4"/>
+      <c r="CE62" s="4"/>
+    </row>
+    <row r="64" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <f>RANK(B58,58:58)</f>
+        <v>7</v>
+      </c>
+      <c r="F64">
+        <f>RANK(F58,58:58)</f>
+        <v>2</v>
+      </c>
+      <c r="J64">
+        <f>RANK(J58,58:58)</f>
+        <v>13</v>
+      </c>
+      <c r="N64">
+        <f>RANK(N58,58:58)</f>
+        <v>14</v>
+      </c>
+      <c r="R64">
+        <f>RANK(R58,58:58)</f>
+        <v>10</v>
+      </c>
+      <c r="V64">
+        <f>RANK(V58,58:58)</f>
+        <v>3</v>
+      </c>
+      <c r="Z64">
+        <f>RANK(Z58,58:58)</f>
+        <v>6</v>
+      </c>
+      <c r="AD64">
+        <f>RANK(AD58,58:58)</f>
+        <v>9</v>
+      </c>
+      <c r="AH64">
+        <f>RANK(AH58,58:58)</f>
+        <v>11</v>
+      </c>
+      <c r="AL64">
+        <f>RANK(AL58,58:58)</f>
+        <v>1</v>
+      </c>
+      <c r="AP64">
+        <f>RANK(AP58,58:58)</f>
+        <v>8</v>
+      </c>
+      <c r="AT64">
+        <f>RANK(AT58,58:58)</f>
+        <v>4</v>
+      </c>
+      <c r="AX64">
+        <f>RANK(AX58,58:58)</f>
+        <v>12</v>
+      </c>
+      <c r="BB64">
+        <f>RANK(BB58,58:58)</f>
+        <v>29</v>
+      </c>
+      <c r="BF64">
+        <f>RANK(BF58,58:58)</f>
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="BU62:BW62"/>
+    <mergeCell ref="BY62:CA62"/>
+    <mergeCell ref="CC62:CE62"/>
+    <mergeCell ref="AW62:AY62"/>
+    <mergeCell ref="BA62:BC62"/>
+    <mergeCell ref="BE62:BG62"/>
+    <mergeCell ref="BI62:BK62"/>
+    <mergeCell ref="BM62:BO62"/>
+    <mergeCell ref="BQ62:BS62"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="AC62:AE62"/>
+    <mergeCell ref="AG62:AI62"/>
+    <mergeCell ref="AK62:AM62"/>
+    <mergeCell ref="AO62:AQ62"/>
+    <mergeCell ref="AS62:AU62"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="I62:K62"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="Q62:S62"/>
+    <mergeCell ref="U62:W62"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8602,9 +16014,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DG85"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AR1" sqref="AR1:AR5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U57" sqref="U57:U61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -229,7 +229,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -272,7 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2384,11 +2384,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
+        <c:axId val="1585209472"/>
         <c:axId val="1585208688"/>
-        <c:axId val="1585211040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1585208688"/>
+        <c:axId val="1585209472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2430,7 +2430,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1585211040"/>
+        <c:crossAx val="1585208688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2438,7 +2438,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1585211040"/>
+        <c:axId val="1585208688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2489,7 +2489,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1585208688"/>
+        <c:crossAx val="1585209472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2900,11 +2900,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1585211824"/>
-        <c:axId val="1585209472"/>
+        <c:axId val="1585210648"/>
+        <c:axId val="1585211432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1585211824"/>
+        <c:axId val="1585210648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2946,7 +2946,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1585209472"/>
+        <c:crossAx val="1585211432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2954,7 +2954,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1585209472"/>
+        <c:axId val="1585211432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3005,7 +3005,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1585211824"/>
+        <c:crossAx val="1585210648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3386,11 +3386,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1585086776"/>
-        <c:axId val="1585087168"/>
+        <c:axId val="1585086384"/>
+        <c:axId val="1585092656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1585086776"/>
+        <c:axId val="1585086384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3432,7 +3432,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1585087168"/>
+        <c:crossAx val="1585092656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3440,7 +3440,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1585087168"/>
+        <c:axId val="1585092656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3491,7 +3491,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1585086776"/>
+        <c:crossAx val="1585086384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5618,11 +5618,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1585090696"/>
-        <c:axId val="1585084424"/>
+        <c:axId val="1585093440"/>
+        <c:axId val="1585088736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1585090696"/>
+        <c:axId val="1585093440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5664,7 +5664,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1585084424"/>
+        <c:crossAx val="1585088736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5672,7 +5672,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1585084424"/>
+        <c:axId val="1585088736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5723,7 +5723,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1585090696"/>
+        <c:crossAx val="1585093440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8047,7 +8047,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F9D750E-EDF1-437F-82E2-A651B7C726A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F9D750E-EDF1-437F-82E2-A651B7C726A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8088,7 +8088,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C5FA76-4716-46CF-A386-97C83E70700A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C5FA76-4716-46CF-A386-97C83E70700A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8124,7 +8124,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E242ABE2-DF26-4730-B37A-F8EA8C4059CF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E242ABE2-DF26-4730-B37A-F8EA8C4059CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8160,7 +8160,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C5840B41-17D0-4972-AA5C-E1F29FD09A19}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5840B41-17D0-4972-AA5C-E1F29FD09A19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8478,11 +8478,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CE64"/>
+  <dimension ref="A1:CE66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BI7" sqref="BI7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AL66" sqref="AL66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15981,8 +15981,42 @@
         <v>5</v>
       </c>
     </row>
+    <row r="66" spans="2:50" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <f>AVERAGE(B64:J64)</f>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="N66">
+        <f>AVERAGE(N64:V64)</f>
+        <v>9</v>
+      </c>
+      <c r="Z66">
+        <f>AVERAGE(Z64:AH64)</f>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="AL66">
+        <f>AVERAGE(AL64:AT64)</f>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="AX66">
+        <f>AVERAGE(AX64:BF64)</f>
+        <v>15.333333333333334</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="AS62:AU62"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="I62:K62"/>
+    <mergeCell ref="M62:O62"/>
+    <mergeCell ref="Q62:S62"/>
+    <mergeCell ref="U62:W62"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="AC62:AE62"/>
+    <mergeCell ref="AG62:AI62"/>
+    <mergeCell ref="AK62:AM62"/>
+    <mergeCell ref="AO62:AQ62"/>
     <mergeCell ref="BU62:BW62"/>
     <mergeCell ref="BY62:CA62"/>
     <mergeCell ref="CC62:CE62"/>
@@ -15992,18 +16026,6 @@
     <mergeCell ref="BI62:BK62"/>
     <mergeCell ref="BM62:BO62"/>
     <mergeCell ref="BQ62:BS62"/>
-    <mergeCell ref="Y62:AA62"/>
-    <mergeCell ref="AC62:AE62"/>
-    <mergeCell ref="AG62:AI62"/>
-    <mergeCell ref="AK62:AM62"/>
-    <mergeCell ref="AO62:AQ62"/>
-    <mergeCell ref="AS62:AU62"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="I62:K62"/>
-    <mergeCell ref="M62:O62"/>
-    <mergeCell ref="Q62:S62"/>
-    <mergeCell ref="U62:W62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -12,10 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8508"/>
   </bookViews>
   <sheets>
-    <sheet name="Sum 2, 8 vary others" sheetId="4" r:id="rId1"/>
-    <sheet name="Sum is IT" sheetId="3" r:id="rId2"/>
-    <sheet name="More layers and neurons" sheetId="2" r:id="rId3"/>
-    <sheet name="3 layers 6 neurons" sheetId="1" r:id="rId4"/>
+    <sheet name="FIXED Sum" sheetId="5" r:id="rId1"/>
+    <sheet name="Sum 2, 8 vary others" sheetId="4" r:id="rId2"/>
+    <sheet name="Sum is IT" sheetId="3" r:id="rId3"/>
+    <sheet name="More layers and neurons" sheetId="2" r:id="rId4"/>
+    <sheet name="3 layers 6 neurons" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="67">
   <si>
     <t>Pnt Xover</t>
   </si>
@@ -223,6 +224,12 @@
   <si>
     <t xml:space="preserve">Xover: </t>
   </si>
+  <si>
+    <t>12 neurons</t>
+  </si>
+  <si>
+    <t>Mut: 2% (flip sign)</t>
+  </si>
 </sst>
 </file>
 
@@ -2384,11 +2391,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1585209472"/>
-        <c:axId val="1585208688"/>
+        <c:axId val="769617000"/>
+        <c:axId val="769610336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1585209472"/>
+        <c:axId val="769617000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2430,7 +2437,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1585208688"/>
+        <c:crossAx val="769610336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2438,7 +2445,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1585208688"/>
+        <c:axId val="769610336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2489,7 +2496,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1585209472"/>
+        <c:crossAx val="769617000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2900,11 +2907,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1585210648"/>
-        <c:axId val="1585211432"/>
+        <c:axId val="769612296"/>
+        <c:axId val="769613472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1585210648"/>
+        <c:axId val="769612296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2946,7 +2953,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1585211432"/>
+        <c:crossAx val="769613472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2954,7 +2961,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1585211432"/>
+        <c:axId val="769613472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3005,7 +3012,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1585210648"/>
+        <c:crossAx val="769612296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3386,11 +3393,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1585086384"/>
-        <c:axId val="1585092656"/>
+        <c:axId val="769615824"/>
+        <c:axId val="769616216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1585086384"/>
+        <c:axId val="769615824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3432,7 +3439,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1585092656"/>
+        <c:crossAx val="769616216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3440,7 +3447,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1585092656"/>
+        <c:axId val="769616216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3491,7 +3498,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1585086384"/>
+        <c:crossAx val="769615824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5618,11 +5625,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1585093440"/>
-        <c:axId val="1585088736"/>
+        <c:axId val="769634248"/>
+        <c:axId val="769622488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1585093440"/>
+        <c:axId val="769634248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5664,7 +5671,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1585088736"/>
+        <c:crossAx val="769622488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5672,7 +5679,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1585088736"/>
+        <c:axId val="769622488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5723,7 +5730,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1585093440"/>
+        <c:crossAx val="769634248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8047,7 +8054,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F9D750E-EDF1-437F-82E2-A651B7C726A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4F9D750E-EDF1-437F-82E2-A651B7C726A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8088,7 +8095,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C5FA76-4716-46CF-A386-97C83E70700A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29C5FA76-4716-46CF-A386-97C83E70700A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8124,7 +8131,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E242ABE2-DF26-4730-B37A-F8EA8C4059CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E242ABE2-DF26-4730-B37A-F8EA8C4059CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8160,7 +8167,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5840B41-17D0-4972-AA5C-E1F29FD09A19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C5840B41-17D0-4972-AA5C-E1F29FD09A19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8478,11 +8485,4925 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AM60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AM7" sqref="AM7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" t="s">
+        <v>61</v>
+      </c>
+      <c r="U4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>37</v>
+      </c>
+      <c r="U6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>2</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>2</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>3</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>3</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>2</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>2</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <v>2</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>2</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>3</v>
+      </c>
+      <c r="V10">
+        <v>4</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>3</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>3</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
+        <v>3</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>3</v>
+      </c>
+      <c r="AL10">
+        <v>2</v>
+      </c>
+      <c r="AM10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="U11">
+        <v>4</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>4</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>4</v>
+      </c>
+      <c r="AD11">
+        <v>2</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>4</v>
+      </c>
+      <c r="AH11">
+        <v>2</v>
+      </c>
+      <c r="AI11">
+        <v>2</v>
+      </c>
+      <c r="AK11">
+        <v>4</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>5</v>
+      </c>
+      <c r="V12">
+        <v>2</v>
+      </c>
+      <c r="W12">
+        <v>2</v>
+      </c>
+      <c r="Y12">
+        <v>5</v>
+      </c>
+      <c r="Z12">
+        <v>3</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <v>5</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>5</v>
+      </c>
+      <c r="AH12">
+        <v>3</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
+      </c>
+      <c r="AK12">
+        <v>5</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>6</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>6</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>6</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>6</v>
+      </c>
+      <c r="Z13">
+        <v>2</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <v>6</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AG13">
+        <v>6</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>6</v>
+      </c>
+      <c r="AL13">
+        <v>4</v>
+      </c>
+      <c r="AM13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>7</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>7</v>
+      </c>
+      <c r="R14">
+        <v>4</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>7</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>7</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>7</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AG14">
+        <v>7</v>
+      </c>
+      <c r="AH14">
+        <v>2</v>
+      </c>
+      <c r="AI14">
+        <v>1</v>
+      </c>
+      <c r="AK14">
+        <v>7</v>
+      </c>
+      <c r="AL14">
+        <v>3</v>
+      </c>
+      <c r="AM14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>8</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>8</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>8</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>8</v>
+      </c>
+      <c r="Z15">
+        <v>3</v>
+      </c>
+      <c r="AA15">
+        <v>2</v>
+      </c>
+      <c r="AC15">
+        <v>8</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AG15">
+        <v>8</v>
+      </c>
+      <c r="AH15">
+        <v>1</v>
+      </c>
+      <c r="AI15">
+        <v>1</v>
+      </c>
+      <c r="AK15">
+        <v>8</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>9</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>9</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>9</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>9</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>9</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>9</v>
+      </c>
+      <c r="AD16">
+        <v>2</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AG16">
+        <v>9</v>
+      </c>
+      <c r="AH16">
+        <v>3</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
+      </c>
+      <c r="AK16">
+        <v>9</v>
+      </c>
+      <c r="AL16">
+        <v>2</v>
+      </c>
+      <c r="AM16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>13</v>
+      </c>
+      <c r="K17">
+        <v>13</v>
+      </c>
+      <c r="M17">
+        <v>10</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>10</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>10</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>10</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>10</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>10</v>
+      </c>
+      <c r="AH17">
+        <v>2</v>
+      </c>
+      <c r="AI17">
+        <v>1</v>
+      </c>
+      <c r="AK17">
+        <v>10</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>11</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>11</v>
+      </c>
+      <c r="N18">
+        <v>5</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>11</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>11</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>11</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <v>11</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AG18">
+        <v>11</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>11</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>12</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>12</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>12</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>12</v>
+      </c>
+      <c r="V19">
+        <v>2</v>
+      </c>
+      <c r="W19">
+        <v>2</v>
+      </c>
+      <c r="Y19">
+        <v>12</v>
+      </c>
+      <c r="Z19">
+        <v>3</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AC19">
+        <v>12</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AG19">
+        <v>12</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>12</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>13</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>13</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>13</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>13</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>13</v>
+      </c>
+      <c r="V20">
+        <v>2</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>13</v>
+      </c>
+      <c r="Z20">
+        <v>3</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <v>13</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>13</v>
+      </c>
+      <c r="AH20">
+        <v>4</v>
+      </c>
+      <c r="AI20">
+        <v>1</v>
+      </c>
+      <c r="AK20">
+        <v>13</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>14</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>14</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>14</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>14</v>
+      </c>
+      <c r="R21">
+        <v>3</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>14</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>14</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AC21">
+        <v>14</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>14</v>
+      </c>
+      <c r="AH21">
+        <v>2</v>
+      </c>
+      <c r="AI21">
+        <v>2</v>
+      </c>
+      <c r="AK21">
+        <v>14</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>15</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>15</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>15</v>
+      </c>
+      <c r="R22">
+        <v>4</v>
+      </c>
+      <c r="S22">
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <v>15</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>15</v>
+      </c>
+      <c r="Z22">
+        <v>3</v>
+      </c>
+      <c r="AA22">
+        <v>2</v>
+      </c>
+      <c r="AC22">
+        <v>15</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>15</v>
+      </c>
+      <c r="AH22">
+        <v>1</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
+      </c>
+      <c r="AK22">
+        <v>15</v>
+      </c>
+      <c r="AL22">
+        <v>2</v>
+      </c>
+      <c r="AM22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>16</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>16</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>16</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>16</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>16</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>16</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>16</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>16</v>
+      </c>
+      <c r="AH23">
+        <v>3</v>
+      </c>
+      <c r="AI23">
+        <v>2</v>
+      </c>
+      <c r="AK23">
+        <v>16</v>
+      </c>
+      <c r="AL23">
+        <v>2</v>
+      </c>
+      <c r="AM23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>17</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>17</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>17</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>17</v>
+      </c>
+      <c r="R24">
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>17</v>
+      </c>
+      <c r="V24">
+        <v>2</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>17</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>17</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>17</v>
+      </c>
+      <c r="AH24">
+        <v>4</v>
+      </c>
+      <c r="AI24">
+        <v>1</v>
+      </c>
+      <c r="AK24">
+        <v>17</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>18</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>18</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>18</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>18</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>18</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>18</v>
+      </c>
+      <c r="V25">
+        <v>2</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>18</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>18</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AG25">
+        <v>18</v>
+      </c>
+      <c r="AH25">
+        <v>1</v>
+      </c>
+      <c r="AI25">
+        <v>1</v>
+      </c>
+      <c r="AK25">
+        <v>18</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>19</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>19</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>19</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>19</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>19</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <v>19</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>19</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>19</v>
+      </c>
+      <c r="AH26">
+        <v>4</v>
+      </c>
+      <c r="AI26">
+        <v>1</v>
+      </c>
+      <c r="AK26">
+        <v>19</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>20</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>20</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>20</v>
+      </c>
+      <c r="R27">
+        <v>3</v>
+      </c>
+      <c r="S27">
+        <v>2</v>
+      </c>
+      <c r="U27">
+        <v>20</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="Y27">
+        <v>20</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>20</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>20</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>20</v>
+      </c>
+      <c r="AL27">
+        <v>2</v>
+      </c>
+      <c r="AM27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>21</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>21</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>21</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>21</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>21</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>21</v>
+      </c>
+      <c r="V28">
+        <v>3</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="Y28">
+        <v>21</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>21</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>21</v>
+      </c>
+      <c r="AH28">
+        <v>1</v>
+      </c>
+      <c r="AI28">
+        <v>1</v>
+      </c>
+      <c r="AK28">
+        <v>21</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>22</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>22</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>22</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>22</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>22</v>
+      </c>
+      <c r="V29">
+        <v>4</v>
+      </c>
+      <c r="W29">
+        <v>2</v>
+      </c>
+      <c r="Y29">
+        <v>22</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AA29">
+        <v>1</v>
+      </c>
+      <c r="AC29">
+        <v>22</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>22</v>
+      </c>
+      <c r="AH29">
+        <v>1</v>
+      </c>
+      <c r="AI29">
+        <v>1</v>
+      </c>
+      <c r="AK29">
+        <v>22</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>23</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>23</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>23</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>23</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>23</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <v>23</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>23</v>
+      </c>
+      <c r="Z30">
+        <v>1</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AC30">
+        <v>23</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>23</v>
+      </c>
+      <c r="AH30">
+        <v>2</v>
+      </c>
+      <c r="AI30">
+        <v>2</v>
+      </c>
+      <c r="AK30">
+        <v>23</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>24</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>24</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>24</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>24</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>24</v>
+      </c>
+      <c r="R31">
+        <v>2</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>24</v>
+      </c>
+      <c r="V31">
+        <v>2</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <v>24</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>24</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>24</v>
+      </c>
+      <c r="AH31">
+        <v>2</v>
+      </c>
+      <c r="AI31">
+        <v>1</v>
+      </c>
+      <c r="AK31">
+        <v>24</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>25</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>25</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>25</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>25</v>
+      </c>
+      <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>25</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <v>25</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AA32">
+        <v>1</v>
+      </c>
+      <c r="AC32">
+        <v>25</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>25</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>25</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>26</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>26</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>26</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>26</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>26</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>26</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+      <c r="AA33">
+        <v>1</v>
+      </c>
+      <c r="AC33">
+        <v>26</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>26</v>
+      </c>
+      <c r="AH33">
+        <v>2</v>
+      </c>
+      <c r="AI33">
+        <v>1</v>
+      </c>
+      <c r="AK33">
+        <v>26</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>27</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>27</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>27</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>27</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>27</v>
+      </c>
+      <c r="R34">
+        <v>3</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>27</v>
+      </c>
+      <c r="V34">
+        <v>3</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="Y34">
+        <v>27</v>
+      </c>
+      <c r="Z34">
+        <v>1</v>
+      </c>
+      <c r="AA34">
+        <v>1</v>
+      </c>
+      <c r="AC34">
+        <v>27</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>27</v>
+      </c>
+      <c r="AH34">
+        <v>1</v>
+      </c>
+      <c r="AI34">
+        <v>1</v>
+      </c>
+      <c r="AK34">
+        <v>27</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>28</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>28</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>28</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>28</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>28</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>28</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>28</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>28</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>28</v>
+      </c>
+      <c r="AH35">
+        <v>2</v>
+      </c>
+      <c r="AI35">
+        <v>1</v>
+      </c>
+      <c r="AK35">
+        <v>28</v>
+      </c>
+      <c r="AL35">
+        <v>2</v>
+      </c>
+      <c r="AM35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>29</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>29</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>29</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>29</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>29</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>29</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="Y36">
+        <v>29</v>
+      </c>
+      <c r="Z36">
+        <v>3</v>
+      </c>
+      <c r="AA36">
+        <v>1</v>
+      </c>
+      <c r="AC36">
+        <v>29</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>29</v>
+      </c>
+      <c r="AH36">
+        <v>2</v>
+      </c>
+      <c r="AI36">
+        <v>1</v>
+      </c>
+      <c r="AK36">
+        <v>29</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>30</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>30</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>30</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>30</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>30</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <v>30</v>
+      </c>
+      <c r="V37">
+        <v>3</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="Y37">
+        <v>30</v>
+      </c>
+      <c r="Z37">
+        <v>1</v>
+      </c>
+      <c r="AA37">
+        <v>1</v>
+      </c>
+      <c r="AC37">
+        <v>30</v>
+      </c>
+      <c r="AD37">
+        <v>1</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
+      </c>
+      <c r="AG37">
+        <v>30</v>
+      </c>
+      <c r="AH37">
+        <v>1</v>
+      </c>
+      <c r="AI37">
+        <v>1</v>
+      </c>
+      <c r="AK37">
+        <v>30</v>
+      </c>
+      <c r="AL37">
+        <v>4</v>
+      </c>
+      <c r="AM37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>31</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>31</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>31</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>31</v>
+      </c>
+      <c r="N38">
+        <v>5</v>
+      </c>
+      <c r="O38">
+        <v>2</v>
+      </c>
+      <c r="Q38">
+        <v>31</v>
+      </c>
+      <c r="R38">
+        <v>2</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <v>31</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>31</v>
+      </c>
+      <c r="Z38">
+        <v>1</v>
+      </c>
+      <c r="AA38">
+        <v>1</v>
+      </c>
+      <c r="AC38">
+        <v>31</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>31</v>
+      </c>
+      <c r="AH38">
+        <v>1</v>
+      </c>
+      <c r="AI38">
+        <v>1</v>
+      </c>
+      <c r="AK38">
+        <v>31</v>
+      </c>
+      <c r="AL38">
+        <v>0</v>
+      </c>
+      <c r="AM38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>32</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>32</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>32</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="M39">
+        <v>32</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>32</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>32</v>
+      </c>
+      <c r="V39">
+        <v>2</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="Y39">
+        <v>32</v>
+      </c>
+      <c r="Z39">
+        <v>4</v>
+      </c>
+      <c r="AA39">
+        <v>1</v>
+      </c>
+      <c r="AC39">
+        <v>32</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>32</v>
+      </c>
+      <c r="AH39">
+        <v>5</v>
+      </c>
+      <c r="AI39">
+        <v>1</v>
+      </c>
+      <c r="AK39">
+        <v>32</v>
+      </c>
+      <c r="AL39">
+        <v>0</v>
+      </c>
+      <c r="AM39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>33</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>33</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>33</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>33</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>33</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>33</v>
+      </c>
+      <c r="V40">
+        <v>3</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="Y40">
+        <v>33</v>
+      </c>
+      <c r="Z40">
+        <v>1</v>
+      </c>
+      <c r="AA40">
+        <v>1</v>
+      </c>
+      <c r="AC40">
+        <v>33</v>
+      </c>
+      <c r="AD40">
+        <v>2</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
+      </c>
+      <c r="AG40">
+        <v>33</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>33</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>34</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>34</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>34</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>34</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>34</v>
+      </c>
+      <c r="R41">
+        <v>2</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>34</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="W41">
+        <v>1</v>
+      </c>
+      <c r="Y41">
+        <v>34</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>34</v>
+      </c>
+      <c r="AD41">
+        <v>1</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
+      </c>
+      <c r="AG41">
+        <v>34</v>
+      </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>34</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>35</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>35</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>35</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>35</v>
+      </c>
+      <c r="N42">
+        <v>4</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>35</v>
+      </c>
+      <c r="R42">
+        <v>2</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>35</v>
+      </c>
+      <c r="V42">
+        <v>3</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="Y42">
+        <v>35</v>
+      </c>
+      <c r="Z42">
+        <v>1</v>
+      </c>
+      <c r="AA42">
+        <v>1</v>
+      </c>
+      <c r="AC42">
+        <v>35</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>35</v>
+      </c>
+      <c r="AH42">
+        <v>2</v>
+      </c>
+      <c r="AI42">
+        <v>1</v>
+      </c>
+      <c r="AK42">
+        <v>35</v>
+      </c>
+      <c r="AL42">
+        <v>2</v>
+      </c>
+      <c r="AM42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>36</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>36</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>36</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>36</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>36</v>
+      </c>
+      <c r="R43">
+        <v>2</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="U43">
+        <v>36</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>36</v>
+      </c>
+      <c r="Z43">
+        <v>3</v>
+      </c>
+      <c r="AA43">
+        <v>2</v>
+      </c>
+      <c r="AC43">
+        <v>36</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>36</v>
+      </c>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>36</v>
+      </c>
+      <c r="AL43">
+        <v>0</v>
+      </c>
+      <c r="AM43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>37</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>37</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>37</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>37</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>37</v>
+      </c>
+      <c r="R44">
+        <v>3</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>37</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
+      <c r="W44">
+        <v>1</v>
+      </c>
+      <c r="Y44">
+        <v>37</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>37</v>
+      </c>
+      <c r="AD44">
+        <v>3</v>
+      </c>
+      <c r="AE44">
+        <v>3</v>
+      </c>
+      <c r="AG44">
+        <v>37</v>
+      </c>
+      <c r="AH44">
+        <v>2</v>
+      </c>
+      <c r="AI44">
+        <v>1</v>
+      </c>
+      <c r="AK44">
+        <v>37</v>
+      </c>
+      <c r="AL44">
+        <v>0</v>
+      </c>
+      <c r="AM44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>38</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>38</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>38</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>38</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>38</v>
+      </c>
+      <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45">
+        <v>1</v>
+      </c>
+      <c r="U45">
+        <v>38</v>
+      </c>
+      <c r="V45">
+        <v>2</v>
+      </c>
+      <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="Y45">
+        <v>38</v>
+      </c>
+      <c r="Z45">
+        <v>5</v>
+      </c>
+      <c r="AA45">
+        <v>1</v>
+      </c>
+      <c r="AC45">
+        <v>38</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>38</v>
+      </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>38</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>39</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>39</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>39</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>39</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>39</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>39</v>
+      </c>
+      <c r="V46">
+        <v>3</v>
+      </c>
+      <c r="W46">
+        <v>1</v>
+      </c>
+      <c r="Y46">
+        <v>39</v>
+      </c>
+      <c r="Z46">
+        <v>2</v>
+      </c>
+      <c r="AA46">
+        <v>1</v>
+      </c>
+      <c r="AC46">
+        <v>39</v>
+      </c>
+      <c r="AD46">
+        <v>1</v>
+      </c>
+      <c r="AE46">
+        <v>1</v>
+      </c>
+      <c r="AG46">
+        <v>39</v>
+      </c>
+      <c r="AH46">
+        <v>2</v>
+      </c>
+      <c r="AI46">
+        <v>1</v>
+      </c>
+      <c r="AK46">
+        <v>39</v>
+      </c>
+      <c r="AL46">
+        <v>7</v>
+      </c>
+      <c r="AM46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>40</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>40</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>40</v>
+      </c>
+      <c r="J47">
+        <v>3</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>40</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>40</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
+      </c>
+      <c r="S47">
+        <v>1</v>
+      </c>
+      <c r="U47">
+        <v>40</v>
+      </c>
+      <c r="V47">
+        <v>1</v>
+      </c>
+      <c r="W47">
+        <v>1</v>
+      </c>
+      <c r="Y47">
+        <v>40</v>
+      </c>
+      <c r="Z47">
+        <v>1</v>
+      </c>
+      <c r="AA47">
+        <v>1</v>
+      </c>
+      <c r="AC47">
+        <v>40</v>
+      </c>
+      <c r="AD47">
+        <v>1</v>
+      </c>
+      <c r="AE47">
+        <v>1</v>
+      </c>
+      <c r="AG47">
+        <v>40</v>
+      </c>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>40</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>41</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>41</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>41</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>41</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+      <c r="O48">
+        <v>2</v>
+      </c>
+      <c r="Q48">
+        <v>41</v>
+      </c>
+      <c r="R48">
+        <v>2</v>
+      </c>
+      <c r="S48">
+        <v>1</v>
+      </c>
+      <c r="U48">
+        <v>41</v>
+      </c>
+      <c r="V48">
+        <v>1</v>
+      </c>
+      <c r="W48">
+        <v>1</v>
+      </c>
+      <c r="Y48">
+        <v>41</v>
+      </c>
+      <c r="Z48">
+        <v>1</v>
+      </c>
+      <c r="AA48">
+        <v>1</v>
+      </c>
+      <c r="AC48">
+        <v>41</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>41</v>
+      </c>
+      <c r="AH48">
+        <v>4</v>
+      </c>
+      <c r="AI48">
+        <v>2</v>
+      </c>
+      <c r="AK48">
+        <v>41</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>42</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>42</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>42</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>42</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>42</v>
+      </c>
+      <c r="R49">
+        <v>2</v>
+      </c>
+      <c r="S49">
+        <v>1</v>
+      </c>
+      <c r="U49">
+        <v>42</v>
+      </c>
+      <c r="V49">
+        <v>2</v>
+      </c>
+      <c r="W49">
+        <v>1</v>
+      </c>
+      <c r="Y49">
+        <v>42</v>
+      </c>
+      <c r="Z49">
+        <v>3</v>
+      </c>
+      <c r="AA49">
+        <v>1</v>
+      </c>
+      <c r="AC49">
+        <v>42</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>42</v>
+      </c>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>42</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>43</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>43</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>43</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>43</v>
+      </c>
+      <c r="N50">
+        <v>5</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>43</v>
+      </c>
+      <c r="R50">
+        <v>3</v>
+      </c>
+      <c r="S50">
+        <v>1</v>
+      </c>
+      <c r="U50">
+        <v>43</v>
+      </c>
+      <c r="V50">
+        <v>2</v>
+      </c>
+      <c r="W50">
+        <v>1</v>
+      </c>
+      <c r="Y50">
+        <v>43</v>
+      </c>
+      <c r="Z50">
+        <v>2</v>
+      </c>
+      <c r="AA50">
+        <v>1</v>
+      </c>
+      <c r="AC50">
+        <v>43</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>43</v>
+      </c>
+      <c r="AH50">
+        <v>3</v>
+      </c>
+      <c r="AI50">
+        <v>1</v>
+      </c>
+      <c r="AK50">
+        <v>43</v>
+      </c>
+      <c r="AL50">
+        <v>6</v>
+      </c>
+      <c r="AM50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>44</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>44</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>44</v>
+      </c>
+      <c r="J51">
+        <v>3</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>44</v>
+      </c>
+      <c r="N51">
+        <v>6</v>
+      </c>
+      <c r="O51">
+        <v>2</v>
+      </c>
+      <c r="Q51">
+        <v>44</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>44</v>
+      </c>
+      <c r="V51">
+        <v>5</v>
+      </c>
+      <c r="W51">
+        <v>3</v>
+      </c>
+      <c r="Y51">
+        <v>44</v>
+      </c>
+      <c r="Z51">
+        <v>1</v>
+      </c>
+      <c r="AA51">
+        <v>1</v>
+      </c>
+      <c r="AC51">
+        <v>44</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
+      </c>
+      <c r="AG51">
+        <v>44</v>
+      </c>
+      <c r="AH51">
+        <v>1</v>
+      </c>
+      <c r="AI51">
+        <v>1</v>
+      </c>
+      <c r="AK51">
+        <v>44</v>
+      </c>
+      <c r="AL51">
+        <v>0</v>
+      </c>
+      <c r="AM51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>45</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>45</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>45</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>45</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>45</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>45</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>45</v>
+      </c>
+      <c r="Z52">
+        <v>2</v>
+      </c>
+      <c r="AA52">
+        <v>1</v>
+      </c>
+      <c r="AC52">
+        <v>45</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>45</v>
+      </c>
+      <c r="AH52">
+        <v>2</v>
+      </c>
+      <c r="AI52">
+        <v>1</v>
+      </c>
+      <c r="AK52">
+        <v>45</v>
+      </c>
+      <c r="AL52">
+        <v>0</v>
+      </c>
+      <c r="AM52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>46</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>46</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>46</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>46</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>46</v>
+      </c>
+      <c r="R53">
+        <v>1</v>
+      </c>
+      <c r="S53">
+        <v>1</v>
+      </c>
+      <c r="U53">
+        <v>46</v>
+      </c>
+      <c r="V53">
+        <v>1</v>
+      </c>
+      <c r="W53">
+        <v>1</v>
+      </c>
+      <c r="Y53">
+        <v>46</v>
+      </c>
+      <c r="Z53">
+        <v>2</v>
+      </c>
+      <c r="AA53">
+        <v>1</v>
+      </c>
+      <c r="AC53">
+        <v>46</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
+      </c>
+      <c r="AG53">
+        <v>46</v>
+      </c>
+      <c r="AH53">
+        <v>3</v>
+      </c>
+      <c r="AI53">
+        <v>1</v>
+      </c>
+      <c r="AK53">
+        <v>46</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>47</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>47</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>47</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>47</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>47</v>
+      </c>
+      <c r="R54">
+        <v>3</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
+      <c r="U54">
+        <v>47</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>47</v>
+      </c>
+      <c r="Z54">
+        <v>1</v>
+      </c>
+      <c r="AA54">
+        <v>1</v>
+      </c>
+      <c r="AC54">
+        <v>47</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AG54">
+        <v>47</v>
+      </c>
+      <c r="AH54">
+        <v>1</v>
+      </c>
+      <c r="AI54">
+        <v>1</v>
+      </c>
+      <c r="AK54">
+        <v>47</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AM54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>48</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>48</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>48</v>
+      </c>
+      <c r="J55">
+        <v>3</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>48</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>48</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>48</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>48</v>
+      </c>
+      <c r="Z55">
+        <v>2</v>
+      </c>
+      <c r="AA55">
+        <v>1</v>
+      </c>
+      <c r="AC55">
+        <v>48</v>
+      </c>
+      <c r="AD55">
+        <v>1</v>
+      </c>
+      <c r="AE55">
+        <v>1</v>
+      </c>
+      <c r="AG55">
+        <v>48</v>
+      </c>
+      <c r="AH55">
+        <v>2</v>
+      </c>
+      <c r="AI55">
+        <v>1</v>
+      </c>
+      <c r="AK55">
+        <v>48</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>49</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>49</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="I56">
+        <v>49</v>
+      </c>
+      <c r="J56">
+        <v>4</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>49</v>
+      </c>
+      <c r="N56">
+        <v>6</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>49</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="U56">
+        <v>49</v>
+      </c>
+      <c r="V56">
+        <v>4</v>
+      </c>
+      <c r="W56">
+        <v>1</v>
+      </c>
+      <c r="Y56">
+        <v>49</v>
+      </c>
+      <c r="Z56">
+        <v>1</v>
+      </c>
+      <c r="AA56">
+        <v>1</v>
+      </c>
+      <c r="AC56">
+        <v>49</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AG56">
+        <v>49</v>
+      </c>
+      <c r="AH56">
+        <v>2</v>
+      </c>
+      <c r="AI56">
+        <v>1</v>
+      </c>
+      <c r="AK56">
+        <v>49</v>
+      </c>
+      <c r="AL56">
+        <v>2</v>
+      </c>
+      <c r="AM56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B58" s="3">
+        <f>AVERAGE(B42:B56)</f>
+        <v>0.4</v>
+      </c>
+      <c r="C58" s="3">
+        <f>AVERAGE(C42:C56)</f>
+        <v>0.2</v>
+      </c>
+      <c r="F58" s="3">
+        <f>AVERAGE(F42:F56)</f>
+        <v>2</v>
+      </c>
+      <c r="G58" s="3">
+        <f>AVERAGE(G42:G56)</f>
+        <v>1</v>
+      </c>
+      <c r="J58" s="3">
+        <f>AVERAGE(J42:J56)</f>
+        <v>1.8666666666666667</v>
+      </c>
+      <c r="K58" s="3">
+        <f>AVERAGE(K42:K56)</f>
+        <v>0.8</v>
+      </c>
+      <c r="N58" s="3">
+        <f>AVERAGE(N42:N56)</f>
+        <v>2.1333333333333333</v>
+      </c>
+      <c r="O58" s="3">
+        <f>AVERAGE(O42:O56)</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="R58" s="3">
+        <f>AVERAGE(R42:R56)</f>
+        <v>1.4666666666666666</v>
+      </c>
+      <c r="S58" s="3">
+        <f>AVERAGE(S42:S56)</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="V58" s="3">
+        <f>AVERAGE(V42:V56)</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="W58" s="3">
+        <f>AVERAGE(W42:W56)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="Z58" s="3">
+        <f>AVERAGE(Z42:Z56)</f>
+        <v>1.8</v>
+      </c>
+      <c r="AA58" s="3">
+        <f>AVERAGE(AA42:AA56)</f>
+        <v>1</v>
+      </c>
+      <c r="AD58" s="3">
+        <f>AVERAGE(AD42:AD56)</f>
+        <v>0.4</v>
+      </c>
+      <c r="AE58" s="3">
+        <f>AVERAGE(AE42:AE56)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B59" s="3">
+        <f>MEDIAN(B42:B56)</f>
+        <v>0</v>
+      </c>
+      <c r="C59" s="3">
+        <f>MEDIAN(C42:C56)</f>
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <f>MEDIAN(F42:F56)</f>
+        <v>2</v>
+      </c>
+      <c r="G59" s="3">
+        <f>MEDIAN(G42:G56)</f>
+        <v>1</v>
+      </c>
+      <c r="J59" s="3">
+        <f>MEDIAN(J42:J56)</f>
+        <v>2</v>
+      </c>
+      <c r="K59" s="3">
+        <f>MEDIAN(K42:K56)</f>
+        <v>1</v>
+      </c>
+      <c r="N59" s="3">
+        <f>MEDIAN(N42:N56)</f>
+        <v>1</v>
+      </c>
+      <c r="O59" s="3">
+        <f>MEDIAN(O42:O56)</f>
+        <v>1</v>
+      </c>
+      <c r="R59" s="3">
+        <f>MEDIAN(R42:R56)</f>
+        <v>2</v>
+      </c>
+      <c r="S59" s="3">
+        <f>MEDIAN(S42:S56)</f>
+        <v>1</v>
+      </c>
+      <c r="V59" s="3">
+        <f>MEDIAN(V42:V56)</f>
+        <v>1</v>
+      </c>
+      <c r="W59" s="3">
+        <f>MEDIAN(W42:W56)</f>
+        <v>1</v>
+      </c>
+      <c r="Z59" s="3">
+        <f>MEDIAN(Z42:Z56)</f>
+        <v>2</v>
+      </c>
+      <c r="AA59" s="3">
+        <f>MEDIAN(AA42:AA56)</f>
+        <v>1</v>
+      </c>
+      <c r="AD59" s="3">
+        <f>MEDIAN(AD42:AD56)</f>
+        <v>0</v>
+      </c>
+      <c r="AE59" s="3">
+        <f>MEDIAN(AE42:AE56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B60" s="3">
+        <f>STDEV(B42:B56)</f>
+        <v>0.82807867121082501</v>
+      </c>
+      <c r="C60" s="3">
+        <f>STDEV(C42:C56)</f>
+        <v>0.41403933560541251</v>
+      </c>
+      <c r="F60" s="3">
+        <f>STDEV(F42:F56)</f>
+        <v>1.2535663410560174</v>
+      </c>
+      <c r="G60" s="3">
+        <f>STDEV(G42:G56)</f>
+        <v>0.53452248382484879</v>
+      </c>
+      <c r="J60" s="3">
+        <f>STDEV(J42:J56)</f>
+        <v>1.3020130933435712</v>
+      </c>
+      <c r="K60" s="3">
+        <f>STDEV(K42:K56)</f>
+        <v>0.41403933560541256</v>
+      </c>
+      <c r="N60" s="3">
+        <f>STDEV(N42:N56)</f>
+        <v>2.1336309316235909</v>
+      </c>
+      <c r="O60" s="3">
+        <f>STDEV(O42:O56)</f>
+        <v>0.59361683970466372</v>
+      </c>
+      <c r="R60" s="3">
+        <f>STDEV(R42:R56)</f>
+        <v>1.1254628677422756</v>
+      </c>
+      <c r="S60" s="3">
+        <f>STDEV(S42:S56)</f>
+        <v>0.45773770821706344</v>
+      </c>
+      <c r="V60" s="3">
+        <f>STDEV(V42:V56)</f>
+        <v>1.5430334996209192</v>
+      </c>
+      <c r="W60" s="3">
+        <f>STDEV(W42:W56)</f>
+        <v>0.74322335295720643</v>
+      </c>
+      <c r="Z60" s="3">
+        <f>STDEV(Z42:Z56)</f>
+        <v>1.2071217242444348</v>
+      </c>
+      <c r="AA60" s="3">
+        <f>STDEV(AA42:AA56)</f>
+        <v>0.3779644730092272</v>
+      </c>
+      <c r="AD60" s="3">
+        <f>STDEV(AD42:AD56)</f>
+        <v>0.82807867121082501</v>
+      </c>
+      <c r="AE60" s="3">
+        <f>STDEV(AE42:AE56)</f>
+        <v>0.82807867121082501</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CE66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL66" sqref="AL66"/>
+    <sheetView topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AL58" sqref="AL58:AM60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16005,6 +20926,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="BU62:BW62"/>
+    <mergeCell ref="BY62:CA62"/>
+    <mergeCell ref="CC62:CE62"/>
+    <mergeCell ref="AW62:AY62"/>
+    <mergeCell ref="BA62:BC62"/>
+    <mergeCell ref="BE62:BG62"/>
+    <mergeCell ref="BI62:BK62"/>
+    <mergeCell ref="BM62:BO62"/>
+    <mergeCell ref="BQ62:BS62"/>
     <mergeCell ref="AS62:AU62"/>
     <mergeCell ref="A62:C62"/>
     <mergeCell ref="E62:G62"/>
@@ -16017,22 +20947,13 @@
     <mergeCell ref="AG62:AI62"/>
     <mergeCell ref="AK62:AM62"/>
     <mergeCell ref="AO62:AQ62"/>
-    <mergeCell ref="BU62:BW62"/>
-    <mergeCell ref="BY62:CA62"/>
-    <mergeCell ref="CC62:CE62"/>
-    <mergeCell ref="AW62:AY62"/>
-    <mergeCell ref="BA62:BC62"/>
-    <mergeCell ref="BE62:BG62"/>
-    <mergeCell ref="BI62:BK62"/>
-    <mergeCell ref="BM62:BO62"/>
-    <mergeCell ref="BQ62:BS62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DG85"/>
   <sheetViews>
@@ -31460,7 +36381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW105"/>
   <sheetViews>
@@ -38968,7 +43889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO102"/>
   <sheetViews>
